--- a/data-training/training.xlsx
+++ b/data-training/training.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Training" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Uji" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>Judul</t>
-  </si>
-  <si>
-    <t>Kelas</t>
-  </si>
-  <si>
-    <t>Abstrak</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="287">
   <si>
     <t>PEMILAHAN ARTIKEL BERITA DENGAN TEXT MINING</t>
   </si>
@@ -42,12 +33,6 @@
     <t>PENGOLAHAN CITRA DIGITAL DAN ANALISIS KUANTITATIF DALAM KARAKTERISASI CITRA MIKROSKOPIK</t>
   </si>
   <si>
-    <t>ir</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>Seiring pesatnya perkembangan internet, semakin banyak pula bermunculan  situs atau blog yang menyediakan berbagai macam artikel berita secara online.  Sebuah artikel, sebelum dapat diterbitkan, awalnya dikirim oleh wartawan ke  editor untuk dipilah. Pemilahan jenis berita relatif mudah dilakukan oleh manusia, tetapi jika kasus ini dibawa ke level pemilahan secara otomasi dengan komputer akan membawa permasalahan tersendiri, walaupun untuk berita yang lebih pendek. Text mining adalah salah satu cara yang diharapkan dapat mengatasi permasalahan di atas. Dengan text mining, dapat dicari kata-kata yang dapat mewakili isi dari artikel berita, lalu ditentukan kategorinya berdasarkan frekuensi kata-kata yang terdapat di dalamnya. Tahapan yang penulis lakukan pada penelitian ini adalah: (i) pembuatan database vector untuk keyword, (ii) pemilahan sumber berita berdasarkan database dari langkah (i). Paper ini diharapkan dapat membantu sistem redaksi elektronik untuk dapat memilah atau mengetahui kategori dari sebuah artikel berita tanpa memerlukan seorang editor sehingga menghemat waktu dan biaya dalam menjalankan bisnis pada model kantor berita elektronik on-line berbasis internet.</t>
   </si>
   <si>
@@ -57,9 +42,6 @@
     <t>PENGAMANAN PESAN TEXT DENGAN METODE KRIPTOGRAFI ADVANCE ENCRYPTION STANDART DAN STEGANOGRAFI MENGGUNAKAN METODE ECHO DATA HIDING DENGAN MEDIA AUDIO</t>
   </si>
   <si>
-    <t>jarkom</t>
-  </si>
-  <si>
     <t>Aktivitas pertukaran informasi yang sangat besar memacu adanya pengembangan teknologi informasi untuk bisa menjaga kualitas pengiriman informasi. Kualitas yang dimaksud mengarah kepada keamanan sewaktu pengiriman informasi sehingga data yang dipertukarkan benar-benar tidak mengalami intervensi dari pihak lain yang tidak mempunyai previleges akan data tersebut. Salah satu ilmu yang dipakai sebagai dasar untuk mengembangkan teknologi pengamanan pengiriman data adalah steganografi. Pada Tugas Akhir ini dilakukan studi mengenai penerapan steganografi dengan teknik Echo data Hiding pada media audio WAV yang diimplementasikan diatas perangkat mobile phone. Oleh karena itu diperlukan juga studi terhadap representasi dan struktur WAV tersebut beserta strategi penerapannya pada perangkat mobile phone . Perangkat lunak yang dikembangkan pada Tugas Akhir ini bernama DinusStego yang berfungsi untuk melakukan steganografi pada media audio WAV. Pada Tugas Akhir ini, implementasi steganografi akan disertai dengan penerapan kriptografi berupa enkripsi dan dekripsi. Pesan yang sudah dienkripsi terlebih dahulu akan disembunyikan secara merata pada setiap offset pada WAV . Pembagian ini akan disesuaikan dengan panjang bit pesan beserta struktur dan jumlah sample yang ada. Pesan yang nantinya diekstraksi dari region harus didekripsi lagi agar mendapatkan pesan asli. Objek steganografi yang dihasilkan mengandung noise yang terlihat dari penurunan nilai kekuatan sinyal sehingga nilai PSNR cenderung menurun jika kapasitas pesan yang disembunyikan semakin besar dan sebaliknya.</t>
   </si>
   <si>
@@ -97,6 +79,815 @@
   </si>
   <si>
     <t>aktivitas pertukaran informasi yang sangat besar memacu adanya pengembangan teknologi informasi untuk bisa menjaga kualitas pengiriman informasi. Kualitas yang dimaksud mengarah kepada keamanan sewaktu pengiriman informasi sehingga data yang dipertukarkan</t>
+  </si>
+  <si>
+    <t>JUDUL</t>
+  </si>
+  <si>
+    <t>KELAS</t>
+  </si>
+  <si>
+    <t>ABSTRAK</t>
+  </si>
+  <si>
+    <t>KLASIFIKASI ALAT MUSIK CYMBAL MENGGUNAKAN METODE NAIVE BAYES BERBASIS FORWARD SELECTION</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Alat musik merupakan suatu instrumen yang dibuat atau dimodifikasi untuk tujuan menghasilkan musik. cymbal adalah alat musik tak bernada yang dimainkan dengan cara dipukul. Cymbal merupakan salah satu instrument yang jadi bagian dalam alat musik drum, cymbal sendiri terbuat dari bahan logam dan memiliki beberapa jenis ketebalan, seperti pada penilaian kali ini dataset diambil dari salah satu produsen terbesar di dunia yaitu Meinl Cymbals. Pengklasifikasian cymbal sendiri yang sesuai genre musik cukup rumit dan cenderung subyektif. Saat ini masih sangat sulit untuk mendefinisikan perbedaan tiap genre untuk alat musik tersebut, tetapi ada beberapa ciri khusus yang dapat digunakan untuk pengkategorian genre musik. Karena itu mulai banyak berbagai penelitian dan pendekatan klasifikasi secara otomatis yang telah diusulkan dalam beberapa tahun terakhir. Pada penelitian kali ini selain bertujuan mendapatkan nilai akurasi yang baik juga bertujuan mendapatkan model atribut dengan cara menerapkan Feature Selection. Feature Selection adalah salah satu cara untuk menentukan atribut yang paling berpengaruh di dalam dataset. Feature Selection berperan memilih subset yang tepat dari set fitur asli, karena tidak semua fitur/atribut relevan dengan masalah. Bahkan beberapa dari fitur atau atribut tersebut mengganggu dan dapat mengurangi akurasi. Dalam hal ini Naive Bayes memanfaatkan fungsi seleksi fitur dari Forward Selection untuk pemilihan atribut data dengan karakteristik data itu sendiri, dan meningkatkan ketepatan klasifikasi Naïve Bayes.Forward Selection berbasis Naive Bayes lebih akurat dan efektif dalam mengklasifikasikan genre musik dari dataset yang bersifat Class Imbalance dengan data yang besar dengan hasil akurasi 93.43% dan termasuk dalam kategori “Kappa excellent”. Dibanding dengan menggunakan algoritma Naive Bayes saja dengan hasil akurasi hanya 89.30%.</t>
+  </si>
+  <si>
+    <t>KLASIFIKASI KELAYAKAN KREDIT CALON DEBITUR BANK MENGGUNAKAN ALGORITMA DECISION TREE C4.5</t>
+  </si>
+  <si>
+    <t>Kredit adalah salah satu pelayanan yang diberikan oleh bank, resiko kredit yang terjadi dalam pemberian pinjaman kredit, dalam halnya nasabah tidak mampu membayar pinjaman yang diterima selalu diperhatikan oleh bank, dan melakukan pengawasan terhadap nasabah guna mengurangi resiko. Resiko utama untuk bank dan lembaga keuangan adalah membedakan kreditur yang memiliki potensi terjadi kredit macet, krisis ini menjadi perhatian lembaga keuangan tentang resiko kredit. Dalam pengambilan Keputusan untuk memberikan kredit ke pemohon digunakan prinsip The Five C s of Credit Analysis. Pada penelitian ini digunakan teknik data mining dengan algoritma C4.5, dengan sumber data yang diperoleh berasal data historis debitur PD.BPR BKK Purwodadi-Grobogan 2014 dengan jumlah data sebanyak 627 record dengan 17 atribut. Dari 17 atribut kemudian direduksi menjadi 5 atribut yaitu umur, karakter, penghasilan, jumlah tanggungan, dan nilai anggunan dan menghasilankan data bersih 300 record . Pada pengujian cross validation dan split validation, menggunakan rapid minner dihasilkan akurasi tertinggi pada pengujian cross validation sebesar 93.33%.</t>
+  </si>
+  <si>
+    <t>PENERAPAN DATAMINING KLASIFIKASI POLA NASABAH MENGGUNAKAN ALGORITMA C4.5 PADA BANK BRI BATANG</t>
+  </si>
+  <si>
+    <t>Data Mining merupakan proses analisa data dari sudut yang berbeda dan mengolahnya menjadi informasi-informasi penting yang bisa digunakan untuk meningkatkan keuntungan. Secara teknis, data mining dapat disebut juga sebagai proses untuk menemukan korelasi atau pola dari ratusan atau ribuan field. Pada data mining dapat digunakan metode decision tree untuk melakukan klasifikasi. Kredit tidak lagi menjadi hal yang asing bagi masyarakat luas, banyaknya kebutuhan membuat masyarakat mengambil kredit untuk memenuhi kebutuhan konsumtif mereka. Seringkali pembayaran kredit yang macet membuat bank kerepotan, karena semakin banyaknya nasabah yang membayar secara macet dapat berdampak buruk untuk kesehatan bank. Oleh karena itu, data nasabah dari Bank BRI Batang menjadi bahan acuan untuk menganalisa pola nasabah pemohon kredit. Pemohon kredit termasuk dalam kategori lancar, atau macet. Untuk mengatasi masalah tersebut, dapat digunakan metode decision tree. Sehingga penelitian ini bisa dijadikan acuan pihak Bank untuk menilai nasabah dengan record data yang ada untuk pengambilan kredit selanjutnya. Informasi yang ditampilkan berupa tingkat akurasi data nasabah lancar dan macet. Dalam penelitian ini, decision tree menggunakan bahasa pemrograman java. Kemudian hasil akurasi dari aplikasi yang diimplementasikan akan dibandingkan dengan hasil menggunakan sofrware rapidminer. Sehingga diperoleh akurasi dengan decision tree sebesar 89,5%.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI METODE NAIVE BAYES CLASSIFICATION DALAM KLASIFIKASI KELAYAKAN CALON PENDONOR DARAH (STUDI KASUS PMI KAB. DEMAK)</t>
+  </si>
+  <si>
+    <t>Salah satu kegiatan Palang Merah Indonesia (PMI) adalah melakukan pelayanan kesehatan berupa donor darah, donor darah adalah proses pengambilan darah secara sukarela dari seseorang untuk disimpan dalam bank darah untuk kemudian bisa dipakai transfusi darah bagi seseorang yang memebutuhkan darah tersebut. Ada beberapa syarat yang harus dipenuhi bagi calon pendonor darah yang akan mendonorkan darahnya, syarat tersebut yaitu usia, berat badan, kadar hemoglobin, tekanan darah atas, tekanan darah bawah, riwayat penyakit menular dan jangka waktu donor dari kesemuanya harus memenuhi batas atau nilai yang sudah ditentukan. Terkait dengan kesehatan tentu dalam kegiatan donor darah ini tidak boleh dilakukan dengan sembarangan, apabila tidak dilakukan penyeleksian terhadap acalon pendonor darah ini bisa berakibat faal seperti penularan penyakit dari calon pendonor ke penerima darah dan bisa menimbulkan kematian. Pada penelitian ini digunakan metode naive bayes classifier untuk mengklasifikasikan calon pendonor darah berdasarkan input dari data calon pendonor darah, data pendonor akan dicari nilai mean, nilai standart deviasi, nilai densitas gaus, nilai likelihood dan kemudian akan dinormalisasi nilai probabilitasnya sehingga menghasilkan kelas BOLEH DONOR atau TIDAK BOLEH DONOR, hasil dari sistem yang dibangun pada penelitian ini mempunyai akurasi kinerja sistem sebesar 81,6% sehingga sistem ini dirasa dapat diterapkan pada PMI Kabupaten Demak teempat penelitian ini berlangsung.</t>
+  </si>
+  <si>
+    <t>ANALISIS PERBANDINGAN ALGORITMA ID3 DENGAN C4.5 UNTUK SELEKSI PENERIMAAN BEASISWA PADA SMP NEGERI 3 PETARUKAN</t>
+  </si>
+  <si>
+    <t>Klasifikasi penerimaan beasiswa pada suatu institusi pendidikan merupakan sebuah program yang dilakukan untuk mencari siswa yang berhak mendapatkan program beasiswa setiap tahun ajaran baru baik beasiswa murid berprestasi maupun beasiswa murid kurang mampu, dimana data calon penerima beasiswa tersebut diambil dari nilai mata pelajaran yang sudah di tentukan kriterianya. Hasil survei dari tahun ke tahun dan hasil penyeleksian selalu dilakukan dengan cara penghitungan manual, hal tersebut seringkali menimbulkan kekeliruan akurasi penerimaan beasiswa. Berdasarkan pengalaman dan paper sebelumnya yang membahas tentang seleksi penerimaan beasiswa diperlukan cara penyeleksian yang mempunyai akurasi tertinggi. Oleh karena itu dibutuhkan perbandingan metode data mining antara algoritma ID3 dengan C4.5 untuk mencari tingkat akurasi tertinggi. Analisis penelitian menggunakan data calon penerima beasiswa pada SMP Negeri 3 Petarukan Pemalang pada tahun ajaran 2015/2016 yang mengikuti pendaftaran melalui jalur reguler. Proses evaluasi dan validasi dilakukan dengan menghitung tingkat accuracy, precision, dan recall. Dari hasil kedua algoritma tersebut nantinya akan dibandingan untuk dicari tingkat akurasi tertinggi.</t>
+  </si>
+  <si>
+    <t>PENERAPAN DATA MINING UNTUK REKOMENDASI BEASISWA PADA SMK HKTI 1 PURWAREJA KLAMPOK DENGAN MENGGUNAKAN ALGORITMA C4.5</t>
+  </si>
+  <si>
+    <t>Beasiswa merupakan pemberian bantuan berupa keuangan yang diberikan kepada siswa yang bertujuan untuk keberlangsungan pendidikan yang ditempuh. Data mining adalah proses analisa data dari sudut yang berbeda dan mengolahnya menjadi informasi-informasi penting yang bisa digunakan untuk meningkatkan keuntungan. Salah satu metode data mining adalah klasifikasi. Klasifikasi rekomendasi beasiswa bertujuan untuk mengklasifikasi apakah siswa tersebut layak mendapatkan beasiswa dengan kriteria yang di buat oleh pihak sekolah. Data yang digunakan yaitu data jurusan, kelas, jumlah nilai, penghasilan orangtua dan jumlah saudara kandung. Proses data mining pada data training akan menghasilkan pohon keputusan atau rule. Metode evaluasi yang akan dilakukan dalam penelitian ini yaitu tingkat akurasi yang dihasilkan yaitu 79%. Hal ini membuktikan bahwa algoritma C4.5 cukup akurat dalam menentukan rekomendasi beasiswa pada SMK HKTI 1 Purwareja Klampok.</t>
+  </si>
+  <si>
+    <t>ANALISIS KOMPARASI METODE NAIVE BAYES DAN DECISION TREE PADA KLASIFIKASI DEBITUR UNTUK MENENTUKAN KELAYAKAN KREDIT</t>
+  </si>
+  <si>
+    <t>Sejalan dengan pertumbuhan dan perkembangan bisnis, masalah perkreditan tetap menarik untuk dikaji dan diungkap. Beberapa penelitian bidang komputer telah banyak dilakukan untuk mengurangi resiko kredit yang menyebabkan kerugian perusahaan. Dalam penelitian ini dilakukan komparasi algoritma Naive Bayes dan C4.5 yang di aplikasikan terhadap konsumen yang mendapat pembiayan kredit baik yang bermasalah dalam pembayaran angsurannya maupun tidak. Dari hasil pengujian dengan mengukur kinerja kedua algoritma tersebut menggunakan metode pengujian Cross Validation, Confusion Matrix dan Kurva ROC, diketahui bahwa algoritma C4.5 memiliki accuracy yang tinggi yaitu 91.08% dibandingkan dengan algoritma Naive Bayes accuracy 85.20%. Nilai AUC untuk C4.5 juga menunjukan nilai yang lebih tinggi yaitu 0.715 dibandingkan algoritma Naive Bayes yaitu 0.713. Nilai AUC untuk metode C4.5 menunjukan nilai yang lebih tinggi dibandingkan Naive Bayes.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI METODE K-NEAREST NEIGHBOR UNTUK PREDIKSI PENJUALAN FURNITURE PADA CV. OCTO AGUNG JEPARA</t>
+  </si>
+  <si>
+    <t>Perusahaan yang didirikan dengan tujuan menghasilkan barang atau jasa yang ditujukan untuk memenuhi kebutuhan konsumen juga untuk memperoleh keuntungan bagi perusahaan tersebut. Perusahaan pasti mempunyai tujuan jangka panjang agar dimasa depan mengalami perubahan yang lebih baik dan berkembang dari sebelumnya. Dan salah satu kegiatan usaha yang harus dilakukan agar perusahaan tetap berjalan dan berkembang adalah penjualan. Keputusan yang diambil pemegang tanggung jawab perusahaan akan mempengaruhi perusahaan dimasa depan. Salah satu keputusan yang harus ditentukan yaitu produk yang akan diproduksi dan dijual untuk periode selanjutnya. Dalam menentukan keputusan diperlukan metode agar keputusan yang akan diambil dapat tepat sasaran. Teknik yang digunakan untuk memperkirakan keadaan pada periode selanjutnya disebut prediksi. Penelitian ini mengusulkan penggunaan metode K-Nearest Neighbor untuk melakukan prediksi data penjualan furniture pada CV. Octo Agung Jepara. Hasil penelitian menunjukan metode yang diusulkan berhasil diimplementasikan untuk menyelesaikan kasus prediksi penjualan dengan tingkat error atau MSE sebesar 6 persen dan akurasi 94 persen.</t>
+  </si>
+  <si>
+    <t>KLASIFIKASI DATA MINING UNTUK MENENTUKAN PENYEBAB KREDIT MACET PADA KOPERASI SIMPAN PINJAM PRIMKOVERI WELERI DENGAN MENGGUNAKAN ALGORITMA DECISION TREE C 4.5</t>
+  </si>
+  <si>
+    <t>Analisis klasifikasi prediksi nasabah yang berpotensi kredit macet yang ada di Koperasi Primkoveri masih dilakukan secara sederhana dikarenakan keterbatasan koperasi dalam melibatkan tenaga analis kredit yang membutuhkan biaya cukup mahal dan seringkali memberatkan nasabah, kesederhanaan analisis inilah yang memicu terjadinya kredit macet . Antisipasi yang biasa dilakukan hanyalah dengan melakukan pendekatan-pendekatan personal pada semua nasabah kredit Padahal seharusnya suatu hasil analisis yang baik adalah yang mampu menghasilkan data yang akurat dan tepat dalam proses pembuatannya . Dengan adanya alasan yang telah disebutkan, penulis memilih untuk melakukan penghitungan analisis klasifikasi prediksi nasabah yang berpotensi kredit macet dengan cara lebih efektif yang dapat digunakan untuk menggantikan cara sederhana yaitu dengan menggunakan data mining, selain itu manfaat data mining dapat diimplementasikan pada data dalam jumlah besar. Parameter yang digunakan untuk menentukan potensi kredit macet adalah Umur, Status, Pekerjaan, Penghasilan, Maks Kredit, Jangka Waktu Kredit dan Angsuran. Metode yang digunakan dalam klasifikasi adalah metode pengklasifikasian dengan menggunakan desicion tree (pohon keputusan) dengan salah satu algoritma desicion tree yang dipakai adalah C4.5. Hasil dari penelitian dari permasalahan yang dikembangkan dapat disimpulkan bahwa pengimplementasian metode desicion tree terhadap data nasabah kredit Koperasi Primkoveri Waleri tahun 2014 memiliki tingkat akurasi yang baik dalam menyelesaikan solusi klasifikasi data mining dengan algoritma C4.5 yaitu sebesar 86%.
+Item Type:  Article</t>
+  </si>
+  <si>
+    <t>Implementasi Metode Klasifikasi Data Mining Dengan Algoritma Naive Bayes Untuk pengelompokan Kayu Jati Berdasarkan Ukuran Diameter kayu Pada Tempat Penimbunan Kayu (TPK) Perum Perhutani</t>
+  </si>
+  <si>
+    <t>Kayu jati terkenal sebagai kayu komersial bermutu tinggi,termasuk dalam family Verbenaceae. Penyebaran alami meliputi negara Birma, India, Kamboja, Thailand, Malaysia dan Indonesia. Di Indonesia jati terdapat di beberapa daerah seperti Jawa, Muna, Buton, Maluku dan Nusa Tenggara. Penyebaran terluas kayu jati di negara Indonesia terdapat di pulau Jawa yang dikelola oleh Perum Perhutani. Tempat Penimbunan Kayu (TPK) adalah sebuah kantor khusus dibidang pengumpulan kayu jati yang telah ditebang milik Perum Perhutani, dimana kayu jati hasil tebang dilakukan proses pendataan dan disimpan dalam kantor tersebut. Didalam pendataan kayu jati TPK Perum Perhutani masih menggunakan data dari Microsoft Excel yang disimpan kedalam file harian dan dimasukan ke folder bulanan. Hal tersebut menyebabkan masalah bagi pegawai TPK Perhutani untuk mengetahui dan mencari informasi data kayu pada saat diperlukan. Penelitian ini bertujuan untuk membuat sebuah sistem pengelompokan kayu jati dengan menggunakan ilmu data mining metode Klasifikasi Naive bayes agar kayu dapat dikelompokan menjadi 3 kelompok kayu jati berlabel A1, A2, dan A3 berdasarkan diameter yang telah ditentukan oleh Perum Perhutani. Sistem dibuat menggunakan bahasa pemprograman PHP dan MySQL sebagai database. Dari penelitian ini didapatkan hasil pengujian kinerja sistem dengan nilai akurasi 94,44%, dengan nilai recall 95,36%, dan nilai presisi 94,44% dari 120 data training kayu jati.</t>
+  </si>
+  <si>
+    <t>ANALISIS DATA MINING UNTUK MENGKLASIFIKASI KELAYAKAN PEMBERIAN PINJAMAN PADA KSP RESTU INDO AGUNG MENGGUNAKAN ALGORITMA C4.</t>
+  </si>
+  <si>
+    <t>Koperasi Simpan Pinjam merupakan suatu lembaga keuangan bukan bank yang memiliki peran dalam peminjaman uang atau penyediaan modal untuk masyarakat. Sumber dana koperasi simpan pinjam berasal dari simpanan pokok, wajib dan lain sebagainya. KSP Restu Indo Agung merupakan salah satu koperasi yang memberikan salah satu layanan jasa keuangan kepada masyarakat. Melalui KSP Restu Indo Agung masyarakat atau calon nasabah dapat meminjam dana untuk modal usaha atau pengembangan usaha. Pemberian pinjaman dana tidak dapat diberikan secara sembarangan, harus melalui prosedur-prosedur yang akan dipertimbangkan agar tidak terjadi kemacetan pada saat angsuran pembayarn pinjaman. Penelitian ini dilakukan menggunakan teknik data minng klasifikasi menggunakan algoritma C4.5 yang bertujuan untuk menentukan kelayakan pemberian pinjaman apakah pinjaman yang diajuakan akan di ACC atau sebaliknya pinjaman yang diajukan tidak di ACC.</t>
+  </si>
+  <si>
+    <t>PENGUJIAN METODE NAIVE BAYES CLASSIFIER UNTUK KLASIFIKASI GENRE MUSIK BERDASARKAN FREKUENSI</t>
+  </si>
+  <si>
+    <t>Sebuah genre musik ditandai oleh karakteristik diantaranya instrumen, struktur irama, dan konten harmonik musik yang dimiliki oleh anggotanya. Banyak sekali genre musik yang diketahui oleh kalangan orang - orang pecinta musik diantaranya adalah jazz, rock, blues, klasik, qasidah , pop dan masih banyak lainnya. Musik sebagai seni hiburan juga banyak memberikan peranan dalam dunia hiburan lainnya, diantaranya adalah pada dunia perfilman sebagai sountrack untuk lebih menghidupkan suasana pada scene - scene yang terdapat pada film tersebut, tentunya dalam pemilihan musik sebagai sountrack didunia perfilman tidak dilakukan dengan cara yang sembarang, tetapi musik tersebut harus disesuaikan dengan emosi pada scene - nya. Pemilihan musik dengan cara otomatis sekarang ini sudah menjadi tren dan banyak digunakan oleh pihak - pihak yang berkepentingan. Metode naive bayes classifier adalah salah satu metode yang digunakan dalam data mining untuk mengklasifikasikan berdasarkan kelas yang telah ditentukan sebelumnya, metode ini sangat efektif dan efesien dalam pengklasifikasian data. Pada penelitian ini akan dilakukan analisis pengklasifikasian genre musik menggunakan metode naive bayes kedalam kelas genre musik jazz, qasidah dan rock dengan cara mengekstrak fitur musik. Berdasarkan pengujian yang dilakukan pada penelitian ini ternyata pengklasifikasian genre musik menggunakan metode naive bayes memiliki tingkat keakuratan sebesar 60%..</t>
+  </si>
+  <si>
+    <t>PENDETEKSI KUALITAS BIJI KOPI MENGGUNAKAN METODE NAIVE BAYES</t>
+  </si>
+  <si>
+    <t>Kopi adalah sejenis minuman yang berasal dari proses pengolahan dan ekstraksi biji tanaman kopi merupakan salah satu hasil komoditi perkebunan yang memiliki nilai ekonomis yang cukup tinggi di antara tanaman perkebunan lainnya dan berperan penting sebagai sumber devisa negara. Kata kopi sendiri berasal dari bahasa Arab Qahwah yang berarti kekuatan, mengalami perubahan menjadi Kahveh yang berasal dari bahasa Turki dan kemudian berubah lagi menjadi Koffie dalam bahasa Belanda. Koffie segera diserap ke dalam bahasa Indonesia menjadi kata Kopi. Keberhasilan agribisnis kopi membutuhkan dukungan semua pihak yang terkait dalam proses produksi kopi pengolahan dan pemasaran komoditas kopi. Teknologi budi daya dan pengolahan kopi meliputi pemilihan bahan tanam kopi unggul, pemeliharaan, pemangkasan tanaman dan pemberian penaung, pengendalian hama dan gulma, pemupukan yang seimbang, pemanenan, serta pengolahan kopi pasca panen. Berdasarkan pertimbangan diatas, maka perlu diadakan penelitian mengenai proses penyangraian biji kopi berkaitan dengan suhu dan lama waktu yang digunakan selama penyangraian. Berdasarkan hasil penelitian ditunjukan bahwa, klasifikasi mutu biji kopi (RWP 1 dan RWP 4) dengan menggunakan algoritma naive bayes berdasarkan tekstur pada citra dapat digunakan sebagai penentu kualitas biji kopi secara visual. Hasil penelitian menunjukan bahwa klasifikasi mutu biji kopi dengan menggunakan metode naive bayes berdasarkan tekstur pada citra memperoleh nilai akurasi sebesar 73,33%.</t>
+  </si>
+  <si>
+    <t>ANALISIS AKURASI NAIVE BAYES DIBANDINGKAN DENGAN k-NEAREST NEIGHBOUR UNTUK PENENTUAN JURUSAN DI SMA NEGERI 1 PECANGAAN</t>
+  </si>
+  <si>
+    <t>Data mining merupakan proses yang menggunakan teknik statistik, matematika, kecerdasan buatan, dan machine learning untuk mengestraksi dan mengidentifikasi informasi yang bermanfaat dan pengetahuan yang terkait dari berbagai database besar. Setelah lulus SMP setiap siswa yang hendak melanjutkan pendidikannya akan menempuh pendidikan tingkat SMA. Pada pendidikan tingkat SMA setiap siswa akan dihadapkan dengan pemilihan penjurusan termasuk di SMA negeri 1 Pecangaan yang mana penentuan penjurusan di SMA Negeri 1 Pecangaan masih menggunakan cara yang manual. Setelah melakukan observasi di SMA Negeri 1 Pecangaan sekitar 70% siswa yang merasa kurang tepat dengan jurusannya. Maka didalam penelitian ini bagaimana klasifikasi penentuan penjurusan di SMA Negeri 1 Pecangaan menggunakan algoritma Naïve Bayes dan k-NN dan bagaimana membandingkan dua algortima tersebut agar mendapat akurasi yang tepat. Untuk menghindari agar penelitian ini tidak menyimpang dari tujuan maka penelitian ini hanya dilakukan di SMA Negeri 1 Pecangaan. Tujuan dari penelitian ini adalah menerapkan dan membandingkan algoritma naïve bayes dan k-NN untuk klasifikasi penjurusan. Manfaat dari penelitian ini yaitu menerapkan ilmu yang diperoleh di bangku perkuliahan dan sebagai bahan evaluasi akademik untuk meningkatkan mutu pendidikan.</t>
+  </si>
+  <si>
+    <t>PREDIKSI PELAPORAN PENCURIAN KENDARAAN BERMOTOR BERBASIS LINIER REGRESI BERGANDA DI KOTA SEMARANG</t>
+  </si>
+  <si>
+    <t>Kendaraan bermotor merupakan salah satu jenis alat transportasi kemajuan teknologi di era modern. Pencurian kendaraan bermotor merupakan salah satu tindak kejahatan yang sering terjadi di kota Semarang. Kondisi kelalaian pemilik kendaraan bermotor dalam menjaga kendaraan bermotor miliknya. Peningkatan jumlah penduduk di kota Semarang baik dari dalam kota Semarang maupun luar Jawa dapat meningkatkan kepemilikan kendaraan bermotor . Berdasarkan masalah tersebut maka penelitian ini dilakukan menggunakan data mining yang dimodelkan dengan algoritma linier regresi berganda yang bertujuan untuk mengestimasikan jumlah data pelaporan yang dapat dihasilkan oleh para korban pencurian kendaraan bermotor, sehingga kedepannya mampu meningkatkan jumlah penyelesaian pencurian kendaraan bermotor. Variabel yang digunakan dalam anlaisis linier regresi adalah variabel dependen dan variabel independen. Dari data yang diperoleh maka yang menjadi variabel dependen adalah jumlah data pelaporan yang disimbolkan dengan Y sedangkan variabel independen adalah jumlah pencurian yang disimbolkan dengan X1 dan jumlah penyelesaian pencurian sebagai X2. Dari hasil yang diperoleh dengan akurasi tingkat kepercayaan 95%, maka diperoleh koefisien korelasi berganda (R) adalah0,9651 dan koefisien determinasi (R2) adalah 0,9314. Sedangkan nilai hasil estimasi hampir mendekati data yang sebenarnya yaitu 8297,9943 dengan Root Mean Square Error (RMSE) sebesar 26,93420972.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI DATA MINING DENGAN METODE CLUSTERING K-MEANS UNTUK MENGUKUR TINGKAT KEPUASAN PELAYANAN BANK JATENG CABANG UNIVERSITAS DIAN NUSWANTORO</t>
+  </si>
+  <si>
+    <t>Kualitas pelayanan perbankan dalam suatu bank sangat berpengaruh terhadap kepuasan nasabah dalam melakukan transaksi perbankan. Semakin bertambahnya nasabah, maka tuntutan akan kualitas pelayanan suatu Bank harus meningkat juga. Jika nasabah merasa puas dengan kualtas pelayanan bank, maka keuntungan yang diperoleh bank akan meningkat. Nasabah tidak akan menjadi nasabah yang pasif, melainkan menjadi nasabah yang aktif dalam melakukan transaksi. Oleh karena itu, bank harus mengetahui tingkat kepuasan nasabah terhadap kualtas pelayanannya. Metode K-Means Clustering adalah suatu metode kalisifikasi unsupervised dalam teknik data mining yang mengelompokkan data kedalam satu atau lebih cluster. Metode ini mengelompokkan data ke dalam satu cluster yang memiliki karakteristik yang sama. Dengan penerapan metode k-means, Penelitian ini menghasilkan tingkat kepuasan nasabah terhadap kualitas pelayanan Bank Jateng Cabang Universitas Dian Nuswantoro. Dengan metode k-means dihasilkan 3 cluster akhir pada setiap bidang, dengan bidang Kondisi Bank dan Fasilitas ATM yang memiliki prosentase kepuasan terendah yaitu pada Kondisi Bank dengan cluster kurang puas sebesar 60,5 % dan fasilitas ATM dengan cluster kurang puas sebesar 62 %. Dengan tingkat kepuasan nasabah yang telah diketahui maka pihak Bank dapat mengambil suatu kebijakan evaluasi pada bidang-bidang pelayanan yang prosentase tingkat kepuasan pelayanannya kurang.</t>
+  </si>
+  <si>
+    <t>Analisis Jumlah Klaster K-Means pada Seleksi Mesin Virtual dalam Perpindahan Mesin Virtual Secara Dinamis</t>
+  </si>
+  <si>
+    <t>Ketergantungan manusia kepada teknologi berdampak pada konsumsi energi yang tinggi. Dampak lainnya yang timbul adalah jumlah karbon dioksida dan senyawa karbon lainnya yang dipancarkan karena konsumsi energi perusahaan. Untuk menyelesaikan permasalahan tersebut, berbagai metode telah diterapkan oleh perusahaan-perusahaan di dunia. Salah satunya dengan mengembangkan dan menggunakan teknologi dengan cara yang ramah lingkungan dan hemat energi, atau disebut dengan Green IT. Teknologi Cloud Computing merupakan salah satu bentuk Green IT yang memungkinkan perusahaan dapat menghemat banyak biaya untuk pengeluaran energi dan biaya yang bersumber pada pemakaian mesin fisik. Karena perusahaan dapat meletakkan semua sumber daya perusahaan dalam cloud sebagai data center. Namun teknologi Cloud Computing malah menyumbang angka konsumsi energi dan emisi karbon dioksida substansial yang tinggi. Sehingga diperlukan manajemen efisiensi energi dalam teknologi tersebut. Dalam beberapa penelitian diungkapkan bahwa Dynamic VM Consolidation merupakan sebuah sistem manajemen yang efektif untuk meminimalkan konsumsi energi namun tetap menjaga kualitas layanan yang diberikan. Dalam Dynamic VM Consolidation terdapat empat sub permasalahan yaitu Host Overload Detection, Host Underload Detection, VM Selection, VM Placement. Dalam penelitian ini, peneliti menyoroti permasalahan poin tiga yaitu VM Selection. Penelitian berbasis Modelling and Simulation ini menggunakan algoritma K-Means. Diharapkan host yang terdeteksi mengalami overload dapat dipilih sesuai dengan parameter yang ditentukan untuk kemudian dimigrasikan menuju host lainnya yang tidak memiliki beban kerja yang terlalu tinggi sehingga penggunaan energi menjadi lebih efisien.</t>
+  </si>
+  <si>
+    <t>PENERAPAN ALGORITMA ID3 UNTUK PREDIKSI MINAT STUDI MAHASISWA TEKNIK INFORMATIKA PADA UNIVERSITAS DIAN NUSWANTORO</t>
+  </si>
+  <si>
+    <t>Fakultas ilmu komputer Universitas Dian Nuswantoro memiliki tujuh fakultas diantaranya Teknik Informatika S1, Sistem Informasi, Desain Komunikasi Visual, Teknik Informatika – DIII, Management Informatika - DIII, Penyiaran, Ilmu Komunikasi. Pada fakultas Teknik Informatika S1 ditetapkan kurikulum baru yaitu untuk memilih minat studi pada semester ke – lima. Dalam hal ini mahasiswa banyak yang bingung menentukan minat mereka. Dalam menangani hal ini, perlu adanya system pendukung atau system keputusan yang dapat merekomendasikan mahasiswa untuk memilih minat studi mereka. Untuk membuat sebuah system yang akan dipakai nantinya diperlukan suatu metode atau algoritma yang sesuai berdasarkan kriteria data yang akan dijadikan penentu rekomendasi. Metode atau algoritma yang akan dipakai dalam penelitian ini adalah datamining ID3. Metode ini merupakan salah satu metode klasifikasi yang membentuk pohon keputusan, yang akan memberi keputusan berdasarkan atribut data yang dipilih.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI ALGORITMA C4.5 UNTUK MEMPREDIKSI MAHASISWA BERPRESTASI DI UNIVERSITAS DIAN NUSWANTORO</t>
+  </si>
+  <si>
+    <t>Di Universitas Dian Nuswantoro sedikit mahasiswa yang mempunyai kemampuan soft skills dan hard skills yang seimbang. Biasanya mahasiswa hanya cenderung pada kemampuan hard skills. Padahal kemampuan soft skills juga sangat dibutuhkan. Mahasiswa berprestasi adalah mahasiswa yang mempunyai prestasi tinggi di bidang akademik maupun non akademik. Kriteria mahasiswa berprestasi yaitu salah satunya IPK dan prestasi. Berdasarkan kriteria yang ada tidak mudah untuk menjadi mahasiswa berprestasi. Penggunaan data mining dalam penelitian bertujuan untuk menemukan pola dari timbunan data yang belum dimanfaatkan. Penelitian ini bertujuan untuk memudahkan dalam memprediksi mahasiswa berprestasi di Universitas Dian Nuswantoro dengan menggunakan perangkat lunak. Model prediksi ini dibuat untuk mengetahui perkiraan tingkat prestasi akademik maupun non akademik pada mahasiswa tahun angkatan 2013 dapat digunakan sebagai acuan dan bahan pertimbangan dalam penentuan mahasiswa berprestasi. Data yang digunakan adalah dataset yang di peroleh dari PSI Universitas Dian Nuswantoro sebanyak 1777 data. Metode yang digunakan yaitu decision tree dengan algoritma C4.5. Untuk mengetahui hasil dari evaluasi berupa akurasi menggunakan Confussion Matrix. Berdasarkan penelitian yang dilakukan, didapatkan faktor berupa dataset yang mempengaruhi mahasiswa dapat berprestasi yaitu ipk dan prestasi. Hasil akurasi yang di peroleh mencapai 79%.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI ALGORITMA NAIVE BAYES UNTUK MENENTUKAN KESIAPAN SISWA DALAM MENGHADAPI UJIAN NASIONAL</t>
+  </si>
+  <si>
+    <t>Tryout adalah tahab evaluasi untuk menghadapi Ujian Nasional sesungguhnya, kesiapan dalam menghadapi ujian merupakan hal mutlak untuk dilakukan oleh siswa kelas 3, tryout ini merupakan latihan ujian terakhir bagi siswa kelas 3 yang akan mengikuti ujian nasional, yaitu. Pihak sekolah, guru bimbingan dan konseling mempunyai peranan penting dalam pemberian layanan tryout pada siswa. Layanan tryout siswa sebelum mengikuti ujian nasional memerlukan penangan khusus secara profesional, sebab menyangkut kesuksesan siswa dalam menghadapi ujian nasional. Kekeliruan dalam menentukan kesiapan siswa menghadapi ujian nasional dapat berpengaruh negatif terhadap proses dan hasil Ujian Nasional siswaitu sendiri. Maka dibutuhkan sebuah metode yang dapat membantu meminimalisir dampak dari kekeliruan saat menentukan kesiapan siswa tersebut, yaitu dengan teknik pengelompokan data dari hasil data mining. Perlunya data mining karena adanya sejumlah besar data yang dapat digunakan untuk menghasilkan informasi dan knowledge yang berguna. Naïve Bayes merupakan salah satu metode machine learning yang menggunakan perhitungan probabilitas. Penggunaan algoritma ini dinilai sesuai karena naive bayesian classifier merupakan salah satu algoritma klasifikasi yang sederhana namun memiliki kemampuan dan akurasi tinggi. Fungsi untuk prediksi dibuat menggunakan Tools Matlab, yang menghasilkan akurasi sebesar 83,8798 % dengan error rate sebesar 16,1202 %.</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Estimasi Nilai Matematika Dengan Menggunakan Algoritma Regresi Linear Pada SMA Kesatrian 1 Semarang</t>
+  </si>
+  <si>
+    <t>Sekolah Menengah Atas (SMA), adalah jenjang pendidikan menengah di Indonesia setelah lulus Sekolah Menengah Pertama (SMP) atau sederajat. SMA ditempuh dalam kurun waktu 3 tahun, mulai dari kelas X sampai kelas XII. Dalam kurun waktu 3 tahun tersebut, setiap jurusan pada SMA terdapat materi pelajaran yang sama salah satunya yaitu pelajaran matematika. Matematika merupakan materi pelajaran yang dipadatkan atau ditambahkan karena disesuaikan dengan materi pelajaran Standar Internasional sehingga pendidikan di dalam negeri dan pendidikan di luar negeri dapat seimbang. Dengan memanfaatkan data mining, penulis melakukan penelitian tentang estimasi nilai mid dengan variabel bebas nilai UHT 1 dan UHT 2 dengan menggunakan algoritma regresi linear berganda. Yang bertujuan untuk mengetahui hubungan antara variabel nilai UHT 1 dan nilai UHT 2 terhadap nilai mid pada masing-masing jurusan (IPA, IPS, dan Bahasa) dengan menggunakan algoritma regresi linear berganda. Hasil dari penelitian ini adalah mendapatkan sebuah model regresi linear berganda untuk setiap jurusan. IPA: Y = 11.8430 + 0.3692 X1 + 0.3812 X2, IPS: Y = 4.2233 + 0.4883 X1 + 0.3801 X2, Bahasa: Y = 7.8158 + 0.3377 X1 + 0.4971 X2. Dengan masing-masing RMSE yang diperoleh 15.5483, 13.9542, dan 12.7714.</t>
+  </si>
+  <si>
+    <t>Klasifikasi Kanker Menggunakan K-Nearest Neighbour dan Particle Swarm Optimization sebagai Feature Selection</t>
+  </si>
+  <si>
+    <t>Penyakit tumor atau kanker hingga sekarang ini masih belum diketahui penyebab pastinya. Tetapi beberapa faktor diduga menjad penyebab timbulnya penyakit ini. Faktor-faktor tersebut meliputi faktor genetika, pola makan tidak sehat, merokok dan masih banyak lagi. Penelitian ini bertujuan meningkatkan akurasi dan mengimplementasikan algoritma KNN dengan menggunakan Particle Swarm Optimization sebagai feature selection dalam klasifikasi jenis kanker. Metode yang digunakan dalam penelitian ini ialah k-nearest neighbour dengan particle swarm optimization sebagai feature selectionnya dan untuk desain penelitian menggunakan CRISP-DM. Hasil akurasi tertinggi diperoleh dengan menggunakan KNN PSO setelah diseleksi fitur sebesar 95,8333 %.</t>
+  </si>
+  <si>
+    <t>PENERAPAN DATA MINING UNTUK KLASIFIKASI PENJURUSAN SEKOLAH MENENGAH ATAS PADA SMA 1 KAJEN DENGAN MENGGUNAKAN ALGORITMA NAIVE BAYES CLASSIFIER</t>
+  </si>
+  <si>
+    <t>Penjurusan siswa adalah suatu proses pengambilan keputusan dalam memilih bidang keahlian studi berdasarkan kemampuan potensi diri dan peluang yang ada. Secara formal pemilihan jurusan merupakan ketentuan yang sudah ditetapkan oleh pemerintah melalui kurikulum yang berlaku, yaitu kurikulum 2013. Penjurusan dilakukan dikelas X, dampaknya adalah pihak sekolah khususnya guru bimbingan karir belum mengetahui bakat dan karakter siswa dalam program studi tertentu. Sehingga dikhawatirkan siswa akan mengalami kesulitan dalam mengikuti pembelajaran yang menyebabkan rendahnya prestasi belajar siswa. Dalam menentukan penjurusan jika dilakukan dengan cara manual maka akan menyita banyak waktu dan memerlukan ketelitian ekstra karena data yang cukup banyak sehingga memungkinkan terjadi kesalahan dalam melakukan proses penjurusan. Oleh karena itu diperlukan teknik Data Mining dengan menggunakan metode klasifikasi algoritma Naive Bayes untuk mengklasifikasi penjurusan siswa di SMA 1 Kajen. Algoritma Naive Bayes merupakan metode machine learning yang menggunakan perhitungan probabilitas yang digunakan untuk menghitung peluang dan dapat memprediksi peluang dimasa depan berdasarkan pengetahuan dimasa sebelumnya. Dengan menerapkan algoritma ini diharapkan dapat membantu untuk mengklasifikasi penjurusan siswa secara tepat dan akurat. Dari hasil penelitian, disimpulkan bahwa klasifikasi data siswa baru SMA 1 Kajen tahun ajaran 2015/2016 dapat diselesaikan dengan menggunakan teknik data mining, yaitu dengan metode algoritma Naive Bayes. Akurasi yang dihasilkan dari metode algoritma Naive Bayes adalah sebesar 86,1842 % dengan error rate sebesar 13.8158 %.</t>
+  </si>
+  <si>
+    <t>PENERAPAN DATA MINING UNTUK MENGKLASIFIKASI JURUSAN SEKOLAH MENENGAH ATAS (SMA) MENGGUNAKAN METODE NAIVE BAYES CLASSIFIER PADA SMA NEGERI 1 BATANG</t>
+  </si>
+  <si>
+    <t>Penjurusan siswa yang dilakukan pada Sekolah Menengah Atas dilakukan sejak peserta didik mendaftarkan dirinya ke SMA/MA dengan tujuan untuk memberikan kesempatan kepada peserta didik mengembangkan kompetensi sikap, kopetensi keterampilan peserta didik sesuai dengan kemampuan akademik dalam sekelompok mata pelajaran keilmuan. Namun dalam melakukan penjurusan siswa di SMA Negeri 1 Batang masih mengalami kesulitan karena penjurusan masih dilakukan dengan cara manual. Untuk menganalisis jurusan SMA maka digunakan data mining dengan teknik klasifikasi. Metode yang digunakan yaitu naïve bayes classifier, dan desain penelitian dengan menggunakan CRISP-DM. Data penelitian adalah data siswa SMA Negeri 1 Batang tahun 2014 yang dievaluasi menggunakan confusion matrix dan divalidasi dengan teknik x validation. Hasil akurasi yang didapatkan setelah data penelitian dikonversi yaitu 95,57 % yang termasuk dalam rentang akurasi excellent classification.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI DATA MINING MENGGUNAKAN ALGORITMA C4.5 UNTUK PREDIKSI KEPUASAN PELANGGAN TAKSI KOSTI</t>
+  </si>
+  <si>
+    <t>Banyak cara dilakukan oleh masing-masing perusahaan penyedia jasa, khususnya transportasi untuk memenangkan persaingan, antara lain dengan meningkatkan kepuasan pelanggan transportasi. Salah satu perusahaan penyedia jasa transportasi yang berkomitmen dalam meningkatkan kepuasan pelangganya adalah Taksi KOSTI. Penelitian ini bertujuan untuk menganalisis kepuasan pelanggan Taksi KOSTI dengan menggunakan teknik data mining dengan algoritma C4.5. Atrribut masukan kepuasan pelanggan dalam penelitian ini mencangkup harga, fasilitas, pelayanan dan loyalitas. Dalam penelitian ini, didapatkan bahwa hasil yang didapatkan berasal dari beberapa atribut masukan menghasilkan hubungan sebab-akibat dalam mengklasifikasikan konsumen puas dan tidak puas. Penelitian ini diharapkan dapat membantu pihak KOSTI dalam meningkatkan kepuasan konsumen untuk mempertahankan pelanggan dan meningkatkan laba perusahaan taksi KOSTI tersebut. Berdasarkan hasil klasifikasi menggunakan algoritma C4.5 menunjukkan bahwa diperoleh akurasi mencapai 88.01%, yang menunjukkan bahwa algoritma C4.5 cocok digunakan untuk mengukur tingkat kepuasan pelanggan taksi KOSTI.</t>
+  </si>
+  <si>
+    <t>ANALISIS POLA PEMBELIAN KONSUMEN DENGAN ALGORITMA APRIORI PADA INDOMARET INDRAPRASTA SEMARANG</t>
+  </si>
+  <si>
+    <t>Data mining adalah disiplin ilmu yang mempelajari sebuah teknik dari pola, statistik, database untuk menggali informasi yang berguna dan berharga. Suatu Swalayan Indomaret pasti mempunyai data transaksi penjualan. Data transaksi penjualan ini seringkali diperlakukan hanya sebagai rekaman tanpa pengolahan lebih lanjut sehingga tidak mempunyai nilai guna lebih, dari data transaksi penjualan dapat diketahui informasi yaitu mengetahui pola pembelian konsumen dengan teknik aturan asosiasi menggunakan metode algoritma apriori. Penelitian ini memanfaatkan data primer yang masih baru yaitu data transaksi penjualan dari bulan September sampai Oktober tahun 2015. Hasil yang didapat dari pengolahan data transaksi penjualan berupa itemset dengan penerapan konsep analisis asosiasi mining diketahui nilai support pada tiap item,kombinasi item, nilai confidence dalam pembentukan frequent itemset. Maka, diketahui barang yang paling banyak dibeli secara bersamaan oleh konsumen indomaret yaitu jika membeli mie instan maka membeli air mineral dengan nilai confidence 77%, jika membeli rokok maka membeli air mineral dengan nilai confidence 60%, jika membeli air mineral maka membeli rokok dengan nilai confidence 27%, dan jika membeli air mineral maka membeli mie instan dengan nilai confidence 20%. Informasi ini sangat berguna bagi pihak pengelola indomaret untuk menyusun strategi dengan menambah persediaan barang dan menyusun tata letak barang secara berdekatan.</t>
+  </si>
+  <si>
+    <t>ANALISA KONDISI KESEHATAN MATA PADA BURUNG LOVEBIRD MENGGUNAKAN CONTENT BASED IMAGE RETRIEVAL BERBASIS COLOR HISTOGRAM</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>Lovebird merupakan salah satu dari Sembilan spesies dari genus Agapornis, asal mula kata berasal dari negara Yunani Agape yang berarti cinta dan Ornis yang berarti burung. Delapan spesies Lovebird berasal dari benua Afrika, sementara Grey-headed Lovebird berasal dari Madagaskar.Karena banyaknya pilihan Lovebird dan penyakit mata pada burung penularan nya sangatlah cepat, apabila tidak segera ditangani dan di obati burung yang lain akan tertular penyakit mata. Dan karena itu penelitian ini dilakukan untuk membuktikan kondisi kesehatan mata pada burung lovebird tersebut dengan menggunakan teknik kemiripan warna atau CBIR (Content Based Image Retrieval). Teknik ini dapat dimanfaatkan untuk membandingkan dan mengekstrasi histogram. Histogram adalah sebuah tampilan grafik yang menampilkan distribusi dari intensitas citra. Sedangkan untuk memperbaiki kualitas citra, digunakan metode tambahan histogram equalization. Metode ini bisa menghasilkan gambar dari proses ekualisasi melalui penyebaran histogram yang merata agar derajat keabuan mendapat jumlah pixel yang sama. Untuk membandingkan citra acuan dan citra uji agar terlihat kemiripannya, digunakan teknik pengukuran jarak antara dua citra. Apabila nilai yang dihasilkan semakin kecil kemungkinan yang terjadi adalah semakin dekat kesamaan antara kedua citra tersebutyang berarti hewan itu sehat. Sebaliknya apabila nilai yang dihasilkan semakin besar maka kedua citra tidak memiliki kesamaan yang berarti hewan itu sakit.</t>
+  </si>
+  <si>
+    <t>Identifikasi Jenis Buah Apel Menggunakan Algoritma K-Nearest Neighbor (KNN) dengan Ekstraksi Fitur Histogram</t>
+  </si>
+  <si>
+    <t>Pemilihan jenis buah apel berdasarkan kriteria dan ciri – ciri sangatlah mudah dilakukan oleh manusia, tetapi tidak mudah dilakukan oleh komputer. Persepsi manusia biasanya cenderung subyektif terhadap suatu obyek, hal ini dikarenakan adanya faktor komposisi warna yang dimiliki oleh obyek tersebut. Oleh karena itu, diperlukan alat untuk melakukan pemilihan buah apel berdasarkan jenis – jenisnya yang dilakukan secara otomatis. Penelitian ini bertujuan untuk mengidentifikasi jenis buah apel menggunakan metode K-Nearest Neighbor (KNN) dan ekstraksi fitur histogram.Pada penelitian yang dilakukan memiliki tiga modul utama yaitu prapengolahan, ekstraksi fitur, dan klasifikasi. Data yang digunakan dalam penelitian ini ada dua yaitu data training yang berjumlah 90 dan data testing yang berjumlah 10. Hasil dari penelitian ini adalah sistem yang dapat membedakan jenis – jenis buah apel dengan tingkat akurasi sebesar 90%.</t>
+  </si>
+  <si>
+    <t>PENGENALAN CIRI GARIS TELAPAK TANGAN MENGGUNAKAN EKSTRAKSI FITUR GRAY LEVEL CO-OCCURENCE MATRIX (GLCM) DAN METODE K-NEAREST NEIGHBORS (K-NN)</t>
+  </si>
+  <si>
+    <t>Kebutuhan terhadap sistem pengenalan diri (personal recognition) yang handal dan dapat dipercaya semakin meningkat untuk keamanan sistem.Biometrika merupakan pengembangan dari metode dasar identifikasi seseorang dengan menggunakan karakteristik alami manusia, salah satunya telapak tangan.Biometika Telapak tangan (palmprint) dipilih karena memilik karakteristik unik berupa ciri garis-garis utama (principal-line features), ciri garis kusut (wrinkles features) dan bersifat stabil. Permasalahan penting yang harus dijawab adalah “apakah identitas saya sama dengan identitas yang saya sebutkan?”.Dalam penelitian ini metode yang digunakan untuk mengatasi masalah tersebut adalah K-Nearest Neighbors (K-NN) dan menggunakan fitur ektraksi Gray level co-occurence matrix (GLCM).Tahap penelitian dimulai dengan pengambilan sampel garis telapak tangan, selanjutnya akan dilakukan preprocessing dengan mengubah citra rgb ke grayscale.Hasilnya akan diektraksi fitur dengan menggunakan fitur GLCM. Tahap selanjutnya adalah melakukan klasifikasi antara citra latih dengan citra uji dengan menggunakan metode K-Nearest Neighbors (K-NN).Hasil klasifikasi tersebut akan dihitung tingkat akurasinya. Serta membandingkan hasil akurasi dengan mengubah arah sudut pada GLCM dan Jumlah K pada K-Nearest Neighbour (K-NN) Classifier. Pada penelitian ini,sampel yang digunakan 103 citra dimana 78 citra telapak tangan untuk citra latih dan 26 citra uji dimana setiap responden mewakili 4 sampel telapak tangan, sehingga hasil akurasi sebesar 92.3%.</t>
+  </si>
+  <si>
+    <t>IDENTIFIKASI KANKER PARU-PARU MANUSIA PADA CITRA X-RAY BERDASARKAN ANALISIS DENGAN FITUR EKSTRAKSI GREY LEVEL CO-OCCURRENCE MATRIX DAN KLASIFIKASI K-NEAREST NEIGHBOR</t>
+  </si>
+  <si>
+    <t>Paru-paru merupakan organ yang sangat penting bagi tubuh manusia terutama untuk pernapasan. Dalam fungsinya paru-paru memiliki tugas utama yaitu menyebarkan oksigen dalam darah saat proses menghirup napas dan mengeluarkan karbondioksida saat menghela napas. Kesehatan paru-paru dipengaruhi dari kualitas udara yang dihirup. Jika kualitas udara yang dihirup kurang baik maka semakin lama fungsi paru-paru akan menurun dan paru-paru akan mengalami gangguan organ seperti kanker paru-paru. Terdapat 80-90 persen kasus kanker paru-paru yang disebabkan karena merokok. kanker paru-paru merupakan kanker yang paling sering terdiagnosis dan merupakan kanker penyebab kematian tertinggi di dunia. Dalam bidang kedokteran pendeteksian kanker paru-paru sendiri kini telah berkembang dengan cepat misalnya dalam dunia medis digunakan alat radiography atau X-ray yang dapat ditampilkan dan di cetak yang kemudian di simpan sebagai gambar digital untuk rekam medis pasien. Namun untuk identifikasi kanker paru-paru pada X-ray sendiri masih menggunakan manual. Dengan data rekam medis pasien yang begitu banyaknya akan menyulitkan untuk proses identifikasi kanker paru-paru. Bagi dokter dan ahli radiologi bahwa bagian yang paling penting dan sulit yaitu ketika mendeteksi bagian kanker dari citra medis X-ray. Dalam penelitian ini penulis mengidentifikasi kanker paru-paru dan paru-paru sehat dengan menggunakan fitur ektraksi Gray Level Co-occurrence Matrix (GLCM) dengan metode K-Nearest Neighbor (K-NN) Classifier. Tahap penelitian dimulai dengan pengumpulan citra kanker paru-paru dan paru-paru sehat. Selanjutnya akan diekstraksi fitur dengan menggunakan fitur GLCM. Tahap berikutnya adalah melakukan klasifikasi antara citra latih dan citra uji dengan menggunakan K-Nearest Neighbor (K-NN) Classifier. Hasil klasifikasi akan dihitung tingkat akurasinya. Serta Membandingkan hasil akurasi dengan mengubah arah sudut pada GLCM dan Jumlah K pada K-Nearest Neighbor (K-NN) Classifier. Dalam penelitian ini telah didapatkan hasil akurasi yang tertinggi dalam mendeteksi kanker paru-paru yaitu sebesar 92.5%.</t>
+  </si>
+  <si>
+    <t>Implementasi Steganografi dengan Metode Pixel Value Differencing fungsi Modulus pada Citra Bertipe Gif</t>
+  </si>
+  <si>
+    <t>Seiring berkembangnya ilmu pengetahuan dalam bidang teknologi membuat rentan data yang bersifat rahasia miliki kita oleh pihak yang tidak bertanggung jawab. Berbagai solusi diciptakan untuk menanggulangi masalah tersebut, salah satunya yaitu dengan menggunakan teknik Steganografi. Steganografi adalah teknik untuk menyembunyikan data rahasia ke dalam wadah (media) digital sehingga keberadaan data rahasia tersebut tidak diketahui oleh orang lain. Pada penelitian ini akan menggunakan nilai tresholod rentang 1 sampai dengan 4 untuk mengukur besarnya kesalahan steganografi (menggunakan Mean Square Error atau MSE), tingkat kualitas citra (Signal to Noise Ratio atau PSNR), serta kapasitas citra stegano dengan salah satu teknik Steganografi yaitu metode Pixel Value Differencing dengan Fungsi Modulus. Hasil akhir pengukuran menunjukkan bahwa ketika treshold bernilai rentang 1 sampai 3 maka tingkat MSE dan PSNR semakin kecil tetapi ukuran citra Stegano semakin besar. Tetapi ketika treshold bernilai 4, walaupun tingkat MSE dan PSNR mengalami penurunan juga tetapi untuk kapasitas citra belum tentu mengalami kenaikan. Sehingga nilai treshold yaitu bernilai 3.</t>
+  </si>
+  <si>
+    <t>Pengamanan Pesan Text Menggunakan Metode Steganografi Least Significant Bit dengan media digital gambar</t>
+  </si>
+  <si>
+    <t>Semakin berkembangnya teknologi komunikasi pada erah saat ini kebutuhan akan keamanan dalam berkomunikasi jadi sangat penting maka dikembangkan motode steganography yang tidak hanya dapat menyembunyikan pesan tapi juga dapat mengelabuhi dari para penyadap pesan dengan kemasan kemasan yang tidak mencurigakan. Penelitian ini bertujuan untuk mengamankan data dengan metode steganography dan teknik least significant bit pada image, pesan teks akan disisipkan pada berkas jpeg ,png,dan gif. Bit –bit pesan akan di embededing kan ke media dengan merubah nilai bit terakhir, dengan bantuan pseodo random bit bit pesan akan tersusun secara acak namun tetap dapat terekstraksi.Metode least Significant Bit bekerja dengan merubah 1 bit terakhir pada bit stego-gambar.Kerahasiaan pesan yang dikirim pada file gambar yang berfungsi sebagai media sehingga tampak seperti pesan biasa melalui aplikasi sosial media yang terinstall pada device android user, karena pesan yang dikirim hanya dapat dibaca oleh pengirim dan penerima yang memiliki aplikasi serupa. Aplikasi yang dibuat dalam penelitian ini menggunakan Software pendukung Java Developmen Kit (JDK), IDE Eclipse (Integegrated Development Environment), Android Software Development Kit (SDK), Android Development Tools (ADT) Plugins. Diimplementasikan pada telepon sellular berbasis android 4.4 dan API Level 19.Sehingga diperoleh software aplikasi yang dapat diinstal pada smartphone yang memiliki komputasi cukup baik.</t>
+  </si>
+  <si>
+    <t>IDENTIFIKASI CITRA KENDARAAN MENGGUNAKAN METODE LVQ (LEARNING VECTOR QUANTIZATION)</t>
+  </si>
+  <si>
+    <t>Saat ini kendaraan merupakan salah satu kebutuhan yang sangat penting bagi manusia karena kendaraan adalah sarana transportasi yang digunakan untuk memudahkan dan mendukung kegiatan sehari-hari. Kendaraan itu sendiri diklasifikasikan menjadi dua yaitu kendaraan umum dan pribadi. Klasifikasi kendaraan tersebut berguna untuk membedakan golongan biaya kendaraan yang melintas di jalur GTO (Gardu Tol Otomatis). Oleh karena itu perlu dikembangkan suatu teknologi untuk mengidentifikasi citra kendaraan. Metode yang digunakan dalam melakukan identifikasi citra kendaraan ini adalah LVQ (Learning Vector Quantization). Dengan adanya teknologi identifikasi citra kendaraan ini, nantinya diharapkan dapat mengurangi kemacetan di jalan tol. Hasil analisa video dengan durasi 299 detik menggunakan metode LVQ (Learning Vector Quantization) menunjukan tingkat akurasi pengidentifikasian benar sebesar 118 (71,08%) dari 166 kali deteksi.</t>
+  </si>
+  <si>
+    <t>DETEKSI CITRA PORNOGRAFI MENGGUNAKAN METODE LVQ (LEARNING VECTOR QUANTIZATION)</t>
+  </si>
+  <si>
+    <t>Saat ini orang-orang mendapat informasi sangat mudah salah satunya melalui internet. Internet adalah salah satu pengembangan teknologi informasi yang telah diberikan kepada orang mengakses informasi yang bernilai positif maupun negatif. Pada kenyataannya internet tidak memiliki perlindungan terhadap anak-anak ketika mereka mengakses internet. Anak-anak sering menggunakan internet dengan buruk. Mereka menggunakan internet untuk mengakses konten pornografi. Anak-anak tidak seharusnya mendapat informasi pornografi. Pada umumnya, pornografi memiliki pengaruh buruk pada perilaku anak-anak. Oleh karena itu, pengembangan internet seharusnya menggunakan sebuah teknologi yang mengenali tentang citra pornografi. Metode yang digunakan dalam melakukan deteksi citra pornografi ini adalah LVQ (Learning Vector Quantization). Kesimpulannya teknologi deteksi citra pornografi ini bisa jadi sebuah solusi untuk mengurangi penyebaran citra yang mengandung konten pornografi di internet.</t>
+  </si>
+  <si>
+    <t>STEGANOGRAFI DENGAN METODE LEAST SIGNIFICANT BIT (LSB) DAN ALGORITMA VIGENERE KRIPTOGRAFI MENGGUNAKAN RC4</t>
+  </si>
+  <si>
+    <t>Keamanan dan kerahasiaan dalam proses pertukaran informasi menjadi sorotan utama karena turut berkembang pula kejahatan teknologi dengan berbagai teknik interupsi, penyadapan, modifikasi, maupun fabrikasi. Tanpa adanya jaminan keamanan untuk menjaga kerahasiaan pesan, maka orang lain dapat dengan mudah mendapatkan informasi yang dikirimkan melalui jaringan/internet. Teknik kriptografi Vigenere dan RC4 secara teori dapat digabungkan dengan bantuan teknologi komputasi modern, yang dapat memberikan proteksi ganda untuk perlindungan data atau pesan. Algoritma kriptografi Vigenere dan RC4 dapat dikombinasikan dengan menggunakan teknologi komputer digital, agar dapat menghasilkan dua lapis keamanan untuk memberi perlindungan lebih pada pesan rahasia.Steganografi dapat dipandang sebagai kelanjutan kriptografi, terkait dengan fungsi stegokey sebagai kunci untuk proses enkripsi/dekripsi. Pesan rahasia dienkripsi dengan kunci lalu disembunyikan dalam citra, dan pesan rahasia dapat diekstraksi dan didekripsi kembali persis sama seperti aslinya dengan menggunakan kunci yang sama. Kombinasi kriptografi dan steganografi dapat memberikan keamanan pada pesan rahasia yang disembunyikan. Pesan rahasia terlebih dahulu dienkripsi dengan algoritma kombinasi kriptografi klasik Vigenère dan kriptografi modern RC4, kemudian cipherteks hasil kriptografi tersebut disembunyikan di dalam media lain dengan metode steganografi. Implementasi algoritma kriptografi ganda dan metode steganografi dapat lebih meningkatkan keamanan pesan rahasia</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI EKSTRAKSI FITUR TEKSTUR GRAY LEVEL CO-OCCURRENCE MATRICES (GLCM) UNTUK PENGELOMPOKAN CITRA TENUN MENGGUNAKAN ALGORITMA K-MEANS</t>
+  </si>
+  <si>
+    <t>Tenun merupakan sejenis kain yang dibuat dengan berbagai macam pola berdasarkan kebudayaan masing-masing daerah. Pengelompokan citra tenun dilakukan untuk menggolongkan suatu citra berdasarkan kemiripan pola dengan tenun lainnya kedalam satu cluster dengan menggunakan algoritma k-means berdasarkan fitur tekstur Gray Level Co-occurence Matrices (GLCM). Fitur-fitur tekstur dicari menggunakan metode GLCM berdasarkan sudut 0°, 45°, 90° dan 135°. Metode evaluasi cluster menggunakan DBI dan purity untuk mengukur seberapa bagus cluster yang dihasilkan. Dari hasil penelitian yang menggunakan 153 citra tenun dengan 5 cluster menghasilkan nilai DBI untuk setiap sudut adalah 0.537503, 0.527491, 0.535391, 0.526854, serta nilai purity 0,4337, 0,3951, 0,4411 dan 0,3895. Ini membuktikan bahwa pengelompokan dengan k-means menggunakan fitur-fitur GLCM menghasilkan cluster yang masih belum cukup maksimal.</t>
+  </si>
+  <si>
+    <t>KLASIFIKASI TENUN MENGGUNAKAN ALGORITMA K-NEAREST NEIGHBOUR BERDASARKAN GRAY LEVEL CO-OCCURRENCE MATRICES (GLCM)</t>
+  </si>
+  <si>
+    <t>Tenun adalah sejenis kain tertentu yang dibuat khusus dengan motif-motif yang khas yang langsung dikenali masyarakat umum. Salah satu permasalahan pada tenun adalah tenun memiliki motif dan warna yang sangat beragam, sehingga sulit untuk klasifikasi tenun ke dalam kelas tertentu. Penelitian ini dilakukan untuk mengklasifikasikan tenun ke dalam kelas-kelas berdasarkan daerah asal tenun sehingga mempermudah dalam pengenalan tenun dan pemahaman tentang tenun. Metode yang digunakan adalah gray level co-occurrence matrices untuk ekstraksi ciri tekstur, sedangkan untuk menentukan kedekatan antara citra uji dengan citra latih menggunakan metode k-nearest neighbor berdasarkan fitur tekstur dari citra tenun yang diperoleh. Fitur-fitur tekstur dicari menggunakan metode GLCM berdasarkan sudut 0°, 45°, 90° dan 135°. Metode evaluasi menggunakan confusion matrix untuk mengukur tingkat akurasi dalam proses klasifikasi. Dari hasilbpenelitian yang menggunakan 75 citra tenun dengan 5 kelas yaitu Bali, Kalimantan, NTT, Sulawesi dan Sumatra menghasilkan tingkat akurasi tertinggi pada uji coba 3 sudut 0° sebesar 50 % dan terendah pada uji coba 2 sudut 45° sebesar 2 %</t>
+  </si>
+  <si>
+    <t>EKSTRAKSI FITUR MENGGUNAKAN GLCM (Gray Level Co-Occurrance Matrix) DAN JARAK EUCLIDEAN UNTUK PENGENALAN JENIS BATIK TULIS DAN BATIK CAP</t>
+  </si>
+  <si>
+    <t>Seni Budaya batik hingga saat ini berkembang dan merupakan karya budaya nasional yang memiliki sejarah panjang. Batik adalah salah satu seni yang memadukan antara seni motif atau ragam hias dan seni warna. Banyaknya ragam batik berdasarkan cara pembuatannya (Batik Tulis dan Batik Cap) membuat masyarakat untuk membedakannya. Dengan adanya masalah-masalah yang telah dijabarkan, maka dalam penelitian ini akan dibangun sistem pengenalan citra batik dengan menerapkan ilmu pengenalan citra digital. Data yang digunakan berupa data citra batik yang terdiri dari Batik Tulis dan Batik Cap. Pengolahan citra dapat dilakukan dengan metode Content Based Image Retrieval (CBIR) dengan melakukan ekstraksi fitur. System CBIR merupakan aplikasi pencarian gambar berdasarkan citra digitar dari data gambar menggunakan ukuran gambar kesamaan. Metode ekstraksi fitur yang digunakan dalam penelitian ini adalah Gray Level Co-Occurance Matrix (GLCM). GLCM mempunyai 5 fitur ekstraksi yaitu Angular Second Moment (ASM), Kontras, Inverse Different Moment (IDM), Entropi, dan Korelasi. Untuk mengkur tingkat kemiripan data digunakan metode pengukuran jarak seperti Euclidean Distance. Jarak euclidean digunakan untuk menghitung akar dari kuadrat selisi 2 vektor yang umumnya dikenal dengan teorema Phytagoras.Selanjutnya dilakukan akurasi untuk menentukan presentase tingkat keakurasian dalam penelitian sistem pengenalan batik tulis dan batik cap. Dalam penelitian ini didapatkan akurasi sebesar 90%.</t>
+  </si>
+  <si>
+    <t>IDENTIFIKASI KUALITAS DAGING SAPI BERBASIS ANDROID DENGAN EKSTRAKSI FITUR WARNA DAN KLASIFIKASI KNN</t>
+  </si>
+  <si>
+    <t>Pemilihan daging sapi yang baik untuk dikonsumsi tidaklah mudah, hal ini dikarenakan banyaknya pedagang tidak bertanggung jawab yang menjual daging sapi tak layak konsumsi. Daging busuk atau daging "gelonggongan" memiliki kadar lebih tinggi dibandingkan daging segar. Penelitian ini bertujuan untuk mengidentifikasi kualitas daging sapi berbasis android dengan ekstraksi fitur warna dan klasifikasi knn. Pada penelitian yang dilakukan memiliki tiga modul utama, yaitu modul prapengolahan, ekstraksi fitur, dan klasifikasi. Pertama, modul prapengolahan digunakan untuk proses pengolahan data asli sebelum data tersebut diolah ke dalam proses selanjutnya. Hal ini bertujuan untuk menghilangkan noise dan memperjelas fitur data sesuai kebutuhan. Modul selanjutnya yaitu ekstraksi fitur warna RGB, HSI, dan HSV dengan pendekatan statistika. Nilai-nilai statistika yang diambil adalah nilai mean, standar deaviasi, kurtosis, dan skewness. Modul yang terakhir adalah modul klasifikasi menggunakan metode k-nearest neighbor yang bertujuan mengklasifikasikan citra daging segar, daging gelonggongan dan daging busuk.Pada penelitian ini metode knn yang digunakan sudah mampu untuk mengidentifikasi daging sapi dengan nilai k=3 dengan tingkat akurasi sebesar 64 %, nilai k=5 dengan tingkat akurasi sebesar 68%, nilai k=7 dengan tingkat akurasi sebesar 82% , dan nilai k=9 dengan tingkat akurasi sebesar 86%. Sehingga secara keseluruhan memiliki tingkat akurasi sebesar 75 %.</t>
+  </si>
+  <si>
+    <t>CONTENT BASED IMAGE RETRIVAL UNTUK PENGENALAN CITRA BATU MULIA MENGGUNAKAN FITUR TEKSTUR WARNA DAN FUNGSI JARAK EUCLEDIAN</t>
+  </si>
+  <si>
+    <t>Batu mulia atau yang di kenal dengan batu permata adalah semua jenis batu-batuan yang memiliki nilai tinggi dan harganya mahal.. Bagaimana perkembangannya dan jenis apa saja yang membedakan batu mulia dari beberapa batu mulia lainnya yang masih belum banyak masyarakat Indonesia sendiri mengetahui. Penelitian ini menitik beratkan batu mulia yang memiliki warna yang hampir mirip. Banyak nya jenis batu yang ada di dalam negeri membuat orang awam tidak faham dengan jenis batu-batu tersebut jika hanya dengan kasat mata.. Diperlukan proses untuk pengolahan fitur ekstraksi yang baik agar menghasilkan tingkat akurasi yang tinggi, untuk pengenalan citra batu mulia dengan menggunakan metode CBIR dengan fitur ekstraksi menggunakan metode stastistical histogram untuk mendapatkan mean, deviasi, skewness, energi, entropi, dan kehalusan kemudian melakukan perhitungan jarak menggunakan perhitungan jarak eucledian. Metode CBIR diterapkan pada penelitian ini untuk mengenali citra batu mulia dan menghasilkan akurasi sebesar 66,67 %.</t>
+  </si>
+  <si>
+    <t>PENGENALAN POLA ANGKA UNTUK PENCATATAN KWH METER SECARA OTOMATIS MENGGUNAKAN METODE OPTICAL CHARACTER RECOGNITION (OCR)</t>
+  </si>
+  <si>
+    <t>Pencatatan meter dilakukan petugas pencatat meter pada akhir bulan. Metode pencatatan ada dua jenis. Pertama adalah dengan mencatat secara manual, yaitu menuliskan hasil pembacaan kWh meter ke dalam Daftar Pembacaan Meter (DPM). Karena dilakukan secara manual, cara ini memiliki kekurangan pada kemungkinan terjadinya kekeliruan penulisan. Kesalahan biasanya terjadi saat melakukan penyalinan atau pemindahan catatan dari daftar yang satu ke daftar yang lain. Kekeliruan pencatatan menimbulkan kerugian semua pihak. Dirugikan bila tagihan tiba-tiba membengkak karena tak sesuai kenyataan atau tidak valid. Sebab, terdapat energi listrik yang terpakai namun tidak terbayar. Dengan kemajuan teknologi, penulis mengembangkan cara kedua pencatatan meter. Yaitu dengan membuat aplikasi KWH Meter SQLite. Dengan menggunakan OCR (Optical Character Recognition) proses konversi dari pengambilan citra gambar angka kwh meter ke citra digital suatu solusi yang efekktif. Permasalahan yang timbul dalam proses pengenalan citra gambar angka kwh meter adalah bagaimana teknik pengenalan untuk mengidentifikasi berbagai jenis karakter dengan berbagai ukuran dan bentuk. Metode pengenalan yang digunakan dalam tugas akhir ini adalah metode Template Matching. Sebelum proses pengenalan, citra dimasukkan dengan dengan format bmp atau jpg diolah terlebih dahulu di proses preprocessing, yang meliputi binerisasi, segmentasi dan normalisasi citra. Rata-rata tingkat keberhasilan pengenalan yang dihasilkan oleh sistem ini adalah 92,90%. Hasil akhir menunjukkan bahwa penggunaan metode Template Matching cukup untuk membangun sebuah sistem OCR dengan akurasi yang baik efektif.</t>
+  </si>
+  <si>
+    <t>DETEKSI TEPI BERBASIS METODE SOBEL UNTUK PENINGKATAN KUALITAS CITRA MEDIS</t>
+  </si>
+  <si>
+    <t>Operasi pengolahan citra adalah operasi yang dilakukan untuk mentransformasikan suatu citra menjadi citra lain.Berdasarkan tujuan transformasi operasi pengolahan citra dikategorikan sebagai berikut: Peningkatan Kualitas Citra (Image Encachement) dan Pemulihan Citra (Image Restoration). Pada proses Image Restoration ,kulitas citra dari derau/noise diperbaiki sehingga mudah di intrepertasikan oleh manusia ataupun mesin.Salah satu contoh dari noise adalah citra kabur (blur). Untuk menangani masalah diatas maka penulis mengimplementasikan algoritma Sobel untuk mendeteksi tepi dari sebuah citra yang blur sehingga dapat diidentifikasi kembali. Langkah – langkah Algoritma Sobel adalah konversi citra true color ke grayscale, sobel x, sobel y,Gradient magnitude, lalu perhitungan MSE dan PSNR. Dari perhitungan MSE dan PSNR dapat kita simpulkan bahwa algoritma Sobel menghasilkan MSE dan PSNR yang berbeda – beda untuk setiap kasus, dimana tingkat MSE dan PSNR digunakan untuk mengukur kualitas citra.</t>
+  </si>
+  <si>
+    <t>Analisis Metode Algoritma Coefficient Difference dalam Integer Haar Wavelet Transform (IHWT) pada Steganografi untuk Citra Digital</t>
+  </si>
+  <si>
+    <t>Perbandingan Teknik Watermarking Citra Digital Menggunakan DWT-SVD dan RDWT-SVD</t>
+  </si>
+  <si>
+    <t>Watermarking merupakan salah satu metode yang dikembangkan dalam hal kepemilikan data, misalnya citra digital. Teknik waterwarking terbagi menjadi domain frekuensi (contoh DWT) dan domain spasial (contoh SVD). Masing-masing memiliki karakteristik yang berbeda. Berdasarkan penelitian, DWT lebih tahan terhadap serangan. Sedangkan SVD memiliki nilai singular dengan stabilitas yang baik, namun ia tidak tahan terhadap serangan. Untuk itu biasanya SVD digabungkan dengan teknik domain frekuensi (contoh DWT-SVD). Meskipun demikian, penggunaan DWT akan menghasilkan noise pada watermarked image. Masalah tersebut dapat diatasi dengan RDWT (RDWT-SVD). Kualitas dari watermarked image diukur menggunakan Peak Signal to Noise Ratio (PSNR) sedangkan kualitas extracted watermark image diukur menggunakan Correlation Coefficient (CC). Penelitian ini mendeskripsikan hasil kualitas watermarked image dari masing-masing algoritma menggunakan hasil pengukuran PSNR. Citra RGB dengan format JPG disisipkan dan menghasilkan citra dengan format JPG, BMP, PNG dan TIFF. Sedangkan untuk proses ekstraksi dikombinasikan dengan beberapa serangan seperti gaussian noise, salt &amp; peppers noise, speckle noise, penambahan dan pengurangan brightness serta contrast. Penelitian ini juga mendeskripsikan hasil kualitas extracted watermark image dari masing-masing algoritma menggunakan hasil pengukuran CC.</t>
+  </si>
+  <si>
+    <t>ANALISIS PERFORMA METODE IHWT (INTEGER HAAR WAVELET TRANSFORM) DAN MODULUS FUNCTION DENGAN METODE IHWT (INTEGER HAAR WAVELET TRANSFORM) DAN PVD (PIXEL VALUE DIFFERENCING) PADA KUALITAS CITRA DIGITAL</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi yang semakin maju dalam beberapa dekade terakhir menyebabkan meningkatnya konsumsi informasi digital. Hal tersebut membuat perhatian serius terhadap isu-isu keamanan seperti keamanan konten, keaslian, dan hak cipta. Aplikasi berbasis internet yang semakin besar mengharuskan komunikasi dibuat rahasia. Dalam penelitian ini dilakukan analisa perbandingan teknik steganografi IHWT (Integer Wavelet Transform) dan modulus function dengan IHWT (Integer Wavelet Transform) dan PVD (Pixel Value Differencing) pada citra digital. Pemilihan analisa metode tersebut didasarkan pada alasan bahwa IHWT mampu menghasilkan koefisien bernilai integer sehingga mampu mengatasi masalah nilai float pada DWT (Discrete Wavelet Transform). Sedangkan modulus function mampu mengurangi perubahan nilai koefisien (coefficient adjustment) sehingga mampu meningkatkan kualitas citra. Berdasarkan hasil eksperimen hasil rata-rata evaluasi yang didapat yaitu IHWT + PVD dengan threshold 3 menggunakan PSNR menghasilkan nilai sebesar 46.85939 sedangkan dengan SSIM menghasilkan nilai sebesar 0.987313. Pada IHWT + Modulus function dengan threshold 3 menggunakan PSNR menghasilkan nilai sebesar 49.5126 sedangkan dengan menggunakan SSIM menghasilkan nilai sebesar 0.991525. Perubahan nilai yang dialami oleh file citra asli dengan file citra stego hanya berkisar diantara (-1) sampai dengan 1 selisihnya. Saran untuk penelitian selanjutnya yaitu penelitian yang terkait diharapkan hasil eksperimennya lebih kompleks dengan menggunakan teknik embedding yang lebih baik dari modulus function.</t>
+  </si>
+  <si>
+    <t>IMPEMENTASI EKSTRAKSI BAG OF VISUAL WORD UNTUK PROSES KLASIFIKASI FINGERPRINT MENGGGUNKAN ALGORITMA KLASIFIKASI K – NEAREST NEIGHBOUR</t>
+  </si>
+  <si>
+    <t>Teknologi pengolahan citra memungkinkan manusia untuk membuat suatu sistem yang dapat mengenali suatu citra digital secara otomatis. Sistem, pengenalan sidik jari harus mampu mengindentifikasi sidik jari seseorang dari sekumpulan besar data sidik jari. Proses klasifikasi dapat mengurangi ukuran dari ruang pencarian yaitu dengan membatasi pencarian berdasarkan kelas. Metode Bag of Visual Word merupakan sebuah teknik pengolahan citra untuk menghasilkan sebuah histogram visual word yang sering digunakan untuk mempresentasikan klasifikasi data citra. Tugas akhir ini bertujuan untuk membuat sistem klasifikasi sidik jari berdasarkan kelas pola karakteristik pola sidik jari leftloop, rightloop, twinloop, dan whorl menggunakan ektraksi SURF 64 dimensi. Berdasarkan hasil eksperimen, kinerja metode Bag of Visual Word menunjukan performa yang baik dengan pengujian perubahan koefisien nilai K 1, 3, 5, 7, 9 menghasilkan akurasi untuk masing masing nilai K berturut turut 100%, 91,5%, 75%, 71%, 64,5%.</t>
+  </si>
+  <si>
+    <t>Teknik Watermarking Citra Warna Menggunakan DWT-DCT-SVD.</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi pada sekarang ini sudah sangat pesat. Sistem pengamanan data berkembang dengan pesat. salah satu tehknik pengamanan data adalah watermarking. Teknik watermarking banyak sekali diantaranya SVD,DWT,DCT,DFT. masing masing tekhnik mempunyai kelebihan dan kekurangan. Seorang peneliti meneliti tentang menggabungkan tiga tekhnik watermarking yaitu DWT-DCT-DCT tetapi objeknya hanya menggunakan citra grayscale.Untuk itu penulis melanjutkan penelitian dari peneliti sebelumnya yaitu dengan menambahkan objek baru berupa citra berwarna.Hasil dari penelitian ini diuji menggunakan serangan noise gaussian,salt and pepper dan speckle, selain itu juga di serang dengan menggunakan brightness,contrass dan rotate. Penelitian ini mendiskripsikan dengan pengukuran secara subjektif dan objektif.untuk pengukuran subjektif dengan menggunakan sample hasil citra tersisipi dengan mengujikan menggunakan mata manusia. Untuk pengujian secara objektif menggunakan alat ukur Structural Similiarity Index (SSIM), Correlation Coefficient (CC) dan Peak Signal to Noise Ratio (PSNR)</t>
+  </si>
+  <si>
+    <t>PERBANDINGAN METODE NAÏVE BAYES DAN SUPPORT VECTOR MACHINE UNTUK KLASIFIKASI EMOSI PADA TEKS BAHASA INDONESIA</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Emosi manusia merupakan peranan penting dalam komunikasi. Tak hanya interaksi antar manusia, peranan emosi juga digunakan tolak ukur interaksi antara manusia dengan komputer. Proses klasifikasi dapat dideteksi melalui ekspresi wajah, suara, dan teks. Dalam tugas akhir ini, klasifikasi emosi dideteksi melalui teks karena lebih mudah didapat dan diterapkan. Penelitian ini melakukan klasifikasi emosi untuk teks bahasa Indonesia dan meningkatkan akurasi dengan menggunakan beberapa metode klasifikasi. Emosi yang digunakan berdasarkan pendekatan kategorikal yang dibagi menjadi 6 kelas emosi tingkat dasar yaitu anger (marah), disgust (jijik), fear (takut), joy (senang), sadness (sedih), dan surprise (terkejut). Data dikumpulkan dari cerita dongeng bahasa Indonesia yang berada di internet sebanyak 1000 kalimat dengan panduan WordNet Affect List. 900 untuk data pelatihan dan 100 untuk data pengujian. Tahap pre-processing pada data meliputi tokenisasi, case normalization, deteksi stop word, dan stemming. Proses klasifikasi menggunakan metode Naïve Bayes dan Support Vector Machine (SVM). Akurasi SVM menunjukkan hasil tertinggi yaitu 91% dibanding Naïve Bayes dengan hasil 79%.</t>
+  </si>
+  <si>
+    <t>PEMANFAATAN ALGORITMA RABIN-KARP UNTUK MENGETAHUI TINGKAT KEMIRIPAN DARI SOURCE CODE PADA PEMROGRAMAN LISP</t>
+  </si>
+  <si>
+    <t>Mata kuliah algoritma pemrograman merupakan mata kuliah yang wajib diajarkan di Program Studi Teknik Informatika Fakultas Ilmu Komputer Udinus Semarang. Dalam kegiatan perkuliahan mata kuliah algoritma permrograman, mahasiswa mengumpulkan tugas harian kepada asisten dosen untuk dinilai. Dalam penilaian tidak dilihat tingkat kemiripan antar satu tugas dengan tugas lain karena belum ada perangkat lunak yang dapat mendeteksi kemiripan sehingga tidak dapat diketahui persentase kemiripan antar tugas mahasiswa. Untuk itu perlu dibuat sebuah aplikasi yang dapat mendeteksi persentase kemiripan source code tugas mahasiswa. Algoritma Rabin-Karp adalah salah satu algoritma yang dapat mendeteksi tingkat kemiripan berkas kode sumber tugas mahasiswa berakhiran lisp dengan berkas lainnya. Cara kerja Algoritma Rabin-Karp adalah membaca tiap substring dalam suatu kode sumber dan menghitung hash-nya. Hash suatu kode sumber dibandingkan dengan hash kode sumber lainnya sehingga tingkat kemiripan kode sumber-kode sumber tersebut dapat diketahui. Persentase yang dihasilkan dapat digunakan sebagai pertimbangan dalam memberikan nilai kepada mahasiswa yang bersangkutan</t>
+  </si>
+  <si>
+    <t>PENERAPAN TRADISIONAL KRIPTOGRAFI VIGENERE CIPHER PADA PENYISIPAN PESAN LSB-SIFT</t>
+  </si>
+  <si>
+    <t>KRIPTO</t>
+  </si>
+  <si>
+    <t>ABSTRAK Teknologi informasi merupakan gabungan antara teknologi komputer dan teknologi telekomunikasi yang membentuk sistem dan bekerjasama untuk melakukan pengolahan, pengumpulan, penyimpanan sampai pengiriman informasi. Keamanan teknologi menjadi pusat perhatian dan kejahatan di dunia maya pun semakin meningkat. Istilah yang sering disebut yaitu cyber crime, identik dengan kejahatan yang mengambil atau memodifikasi suatu informasi yang bukan haknya. Oleh karena itu muncul teknik pengamanan data yaitu dengan kriptografi dan steganografi. Algoritma Vigenere Cipher merupakan algoritma kriptografi yang biasa digunakan untuk penyandian. Sedangkan Least Significant Bit (LSB) untuk menyisipkan data ke bit terakhir dari setiap piksel pada cover image. Kelemahan pada kedua algoritma ini membuat peneliti termotivasi untuk memodifikasi algoritma LSB dengan metode SIFT. Scale Invariant Feature Transform(SIFT) digunakan untuk menetukan kemiripan dua citra. Cover-object akan dilakukan proses SIFT dengan input citra pembanding. Keypoint akan disisipkan pesan hasil enkripsi menggunakan algoritma LSB. Selanjutnya dilakukan evaluasi dengan menghitung MSE dan PSNR pada citra yang dilakukan attack maupun non attack.</t>
+  </si>
+  <si>
+    <t>Implementasi dan Analisis Keamanan Pesan Teks Dengan Algoritma AES-256 bit Pada Aplikasi Chatting Berbasis Android</t>
+  </si>
+  <si>
+    <t>Pengiriman pesan dengan menggunakan aplikasi chatting berbasis android merupakan metode komunikasi yang bersifat real-time. Selama ini aplikasi tersebut belum bisa menjamin privasi diantara pengirim dan penerima ketika melakukan obrolan. Sebab jika hal ini sampai terjadi kemungkinan data kita akan rusak bahkan bisa hilang yang dapat menimbulkan kerugian material yang besar. Pada penelitian yang akan penulis buat adalah bagaimana merancang dan membuat Aplikasi Chatting dengan Sistem Enkripsi Menggunakan Algoritma AES-256 bit. Dengan menerapkan algoritma AES-256 bit maka dapat meningkatkan keamanan pada Aplikasi Chatting , keamanan data atau pesan teks lebih terjamin setelah diubah dalam bentuk data tersandi melalui algoritma AES-256 bit. Hal ini menguntungkan karena informasi hanya bisa dilihat oleh pihak yang berhak dan seorang kriptanalis menjadi lebih sulit untuk mencari kode tersebut.</t>
+  </si>
+  <si>
+    <t>KEAMANAN PESAN MENGGUNAKAN KOMBINASI KRIPTOGRAFI HILL CIPHER DAN LEAST SIGNIFICANT BIT PADA CITRA DIGITAL</t>
+  </si>
+  <si>
+    <t>Pertukaran informasi melalui dunia maya memiliki berbagai manfaat sebagai contoh estimasi waktu yang cepat, jarak fisik dan batas ruang tidak terbatas dan lain sebagainya. Namun dalam kegiatan tersebut juga dapat menimbulkan resiko keamanan dalam informasi yang bersifat rahasia. Untuk itu diperlukan pengaman yang dapat digunakan untuk melindungi data yang ditransmisikan melalui jaringan internet. Algoritma penyandian yang digunakan dengan menyandikan pesan yang akan dikirim (plaintext) tersebut menjadi pesan yang sudah teracak (ciphertext) adalah algoritma kriptografi dan steganografi. Dalam penerapannya teknik kriptografi yang akan digunakan adalah Hill Cipher. Teknik tersebut dikombinasikan dengan steganografi dengan teknik Least Significant Bit. Hasil yang didapat dari penggabungan teknik dapat menjaga kerahasiaan pesan karena orang yang tidak mengetahui kunci rahasia yang digunakan akan kesulitan untuk mendapatkan pesan yang terdapat pada stego-image ditambah lagi gambar yang sudah pernah disisipi tidak dapat digunakan sebagai cover image. Pesan berhasil disisipkan dan diekstraksi kembali pada semua sample citra baik dengan format *bmp , *png , *jpg pada resolusi 512 x 512 piksel, 256 x 256 piksel. Hasil MSE dan PSNR tidak dipengaruhi format file ataupun ukuran file. Akan tetapi, dipengaruhi pada dimensi citra. Semakin besar dimensi citra, maka MSE semakin kecil artinya kerusakan citra semakin kecil. Sedangkan nilai PSNR-nya semakin besar.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI ALGORITMA VIGENERE , CAESAR, DAN AFFINE CIPHER PADA DATABASE SISTEM INVENTORI TOKO WIWIN ELEKTRONIK GROBOGAN</t>
+  </si>
+  <si>
+    <t>Database dalam sebuah toko berisi data-data pelanggan, harga dan hutang. Toko elektronik memiliki harga barang yang cukup tinggi, sehingga jumlah hutang yang diterima oleh sebuah toko elektronik cenderung lebih besar daripada toko kebutuhan lain. Tujuan penelitian ini yaitu untuk mengamankan isi database dari orang yang tidak berhak untuk melihat dan mengubah isinya. Dengan menggunakan tiga macam algoritma enkripsi yang di terapkan pada sistem inventori di Toko Elektronik “Wiwin Elektronik” yaitu Vigenere cipher, Caesar cipher dan Affine cipher ini sistem database yang ada dalam toko elektronik “Wiwin Elektronik” menjadi lebih aman. Dengan gabungan ketiga algoritma enkripsi tersebut, pertahanan keamanan dalam database tersebut akan menjadi jauh lebih ketat. Untuk mendekripsi cipher vigenere membutuhkan satu buah kunci, pada Caesar cipher akan membutuhkan dua kunci, dan pada affine cipher membutuhkan satu kunci. Jadi terdapat 4 kunci dalam database tersebut. Untuk memecahkan kunci tersebut akan lebih sulit dibandingkan dengan satu algoritma atau dua algoritma saja.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI TEKNIK PLAYFAIR DENGAN RSA UNTUK PENYEMBUNYIAN PESAN TEKS TERENKRIPSI PADA CITRA DENGAN MENGGUNAKAN METODE END OF FILE (EOF)</t>
+  </si>
+  <si>
+    <t>Dengan berkembangnya teknologi yang semakin canggih, yang memungkinkan semua orang dapat berkomunikasi secara jarak jauh melalui jaringan internet. Dimana pertukaran data dan informasi yang terjadi membuat orang dengan kepentingan tertentu dapat merusak isi dari pesan tersebut. Menjaga kerahasiaan dan keaslian isi dari sebuah pesan merupakan suatu hal yang penting untuk dilakukan agar pesan tersebut tidak jatuh pada pihak yang salah. Dalam hal ini agar isi pesan terjaga keasliannya, maka diperlukan suatu algoritma dan metode untuk merahasiakan isi pesan tersebut. Algoritma maupun metode yang digunakan ialah algoritma kriptografi playfair dengan RSA untuk pengamanan pesan teks dan metode steganografi end of file untuk penyisipan pesan terenkripsi melalui media gambar sebagai inangnya. Tujuan dari penelitian ini adalah untuk merancang  dan mengimplementasikan algoritma kriptografi playfair dengan RSA dan metode steganografi end of file untuk menyembunyikan  pesan agar tidak menimbulkan kecurigaan bagi pihak lain yang dapat merusak isi pesan tersebut. Aplikasi yang telah dibuat ini juga diharapkan dapat melakukan proses enkripsi, penyisipan, ekstraksi maupun dekripsi pesan kembali seperti semula. Hasil dari penelitian ini ialah citra yang telah disisipkan pesan yang terenkripsi tidak menimbulkan perubahan yang berarti/besar dibandingkan dengan citra aslinya. Sistem ini dibangun menggunakan bahasa pemograman PHP.</t>
+  </si>
+  <si>
+    <t>Rancangan Aplikasi Equalizer Gamelan Sri Kuncoro Mulyo Berbasis Mobile Android</t>
+  </si>
+  <si>
+    <t>RPLD</t>
+  </si>
+  <si>
+    <t>Rancangan equalizer gamelan Sri Kuncoro Mulyo berbasis mobile android merupakan perkembangan bentuk kesenian gamelan yang memiliki tampilan modern. Media ini dikembangkan dengan upaya menumbuhkan rasa suka generasi muda pada zaman sekarang terhadap kesenian gamelan yang dianggap sudah kuno. Salah satu upaya yang dilakukan untuk mempermudah generasi muda dalam mengenal gamelan adalah dengan membuat rancangan equalizer gamelan Sri Kuncoro Mulyo yang berbasis mobile android. Namun rancangan equalizer gamelan Sri Kuncoro Mulyo berbasis mobile android ini masih memiliki kekurangan yaitu belum memiliki E-Gamelanku. Oleh karena itu, rancangan equalizer gamelan Sri Kuncoro Mulyo berbasis mobile android ini akan ditambahkan menu Equalizer yang bertujuan untuk mempermudah pengguna dalam mengatur tinggi rendah gamelan tersebut. Metode yang digunakan dalam mengembangkan aplikasi ini ialah metode prototipe, dikarenakan metode ini dapat menggali spesifikasi yang diperlukan sehingga dapat menciptakan aplikasi yang dibutuhkan oleh penggunanya. Dalam penelitian ini didapat hasil berupa rancangan equalizer gamelan Sri Kuncoro Mulyo berbasis mobile android.</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Peta Majelis Dzikir wa Da`wah Ashabul Yamin berbasis Android</t>
+  </si>
+  <si>
+    <t>Majelis Dzikir wa Da'wah Ashabul Yamin mengadakan pengajian rutin di tempat yang berpindah-pindah secara bergantian. Masih terdapat jama'ah khususnya yang baru dan berasal dari luar kota Semarang belum mengetahui posisi tempat pengajian pada jadwal berikutnya karena belum ada informasi peta lokasi yang dapat menunjukkan posisi tempat pengajian. Rancang bangun aplikasi peta majelis ini bertujuan membuat detail informasi tempat-tempat pengajian pada setiap jadwal yang diadakan guna membantu jama'ah yang belum mengetahui tempat pengajian pada jadwal berikutnya. Dengan memanfaatkan fitur location based service pada sistem operasi Android dan algoritma Bellman-Ford yang digunakan untuk mencari rute terpendek, aplikasi yang dikembangkan mampu memberikan informasi jadwal dan menunjukkan arah kepada jama'ah untuk menemukan posisi tempat pengajian.</t>
+  </si>
+  <si>
+    <t>Rancang Bangun e-Ticketing Berbasis Web Studi Kasus Stadion Jatidiri Semarang</t>
+  </si>
+  <si>
+    <t>Teknologi informasi semakin berkembang dan dapat dimanfaatkan dengan maksimal sesuai kebutuhan instansi, organisasi, institusi dan lembaga-lembaga lainnya untuk meningkatkan kinerja serta penyebarluasan informasi tanpa batasan tempat dan waktu. Sebagai bentuk modernitas di dunia persepakbolaan Indonesia khususnya Semarang sebaiknya dibangun layanan pendistribusian tiket pertandingan sepakbola secara online, guna meningkatkan layanan distribusi tiket pertandingan sepakbola dan juga mengurangi tindakan-tindakan yang tidak diinginkan saat mengantri tiket manual. Tanpa melihat sanksi yang telah dijatuhkan FIFA terhadap Indonesia sebagai federasi sepakbola dunia, hal tersebut tidak mengurangi semangat untuk membangun kemajuan persepakbolaan tanah air. Mengetahui Indonesia masuk sebagai pasar digital terbesar, hal tersebut akan sangat menunjang pemanfaatan website yang memberikan layanan tiket pertandingan sepakbola</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN APLIKASI STOCK OPNAME CEMERLANG SPORT</t>
+  </si>
+  <si>
+    <t>Stock opname merupakan pengecekan jumlah data barang di komputer dengan fisiknya. Stock opname sangat penting bagi pemilik usaha terutama di bidang perdagangan. Saat ini android sudah menjadi istilah yang umum bagi pengguna smartphone sehingga aplikasi berbasis android banyak digunakan sebagai pendukung perangkat mobile smartphone. Scan barcode banyak digunakan sebagai media pengenalan misalnya pada BBM maupun Line. Zxing library dapat digunakan sebagai salah satu metode untuk pengenalan barcode. Kondisi stock opname Cemerlang Sport saat ini masih menggunakan metode pengecekan secara konvensional, sehingga penulis ingin membuat aplikasi stock opname dengan menggunakan layanan barcode guna mempermudah dalam pengecekan barang.</t>
+  </si>
+  <si>
+    <t>SISTEM REKAP DATA MIGRASI INFRASTRUKTUR DENGAN REST WEB SERVICE BERBASIS ANDROID (STUDI KASUS PADA PT. TELKOM AKSES)</t>
+  </si>
+  <si>
+    <t>Penyediaan Teknologi informasi pada sebuah perusahaan merupakan sebuah kebutuhan utama pada saat ini. PT. Telkom Akses (PTTA) merupakan anak perusahaan PT Telekomunikasi Indonesia yang bergerak dalam bisnis penyediaan layanan konstruksi dan pengelolaan infrastruktur jaringan. Pada PTTA terdapat sebuah divisi Migrasi MICC yang berkerja untuk memigrasikan infrastruktur jaringan tembaga menjadi fiber optic. Para teknisi dan help desk menggunakan aplikasi MICC (Media Integrasi and Communication Center) sebagai tools untuk mengerjakan pekerjaan mereka secara terintegrasi. Setelah teknisi menyelesaikan tugas mereka, mereka harus melaporkan tugas mereka dalam grup chat Telegram. Kemudian dari grup tersebut help desk bertugas untuk merekap siapa saja teknisi yang telah menyelsaikan tugasnya. Help Desk sering tergesah untuk melakukan laporan sehingga terkadang ada nama teknisi yang belum tercantum pada laporan. Untuk menyelesaikan masalah tersebut dalam penelitian ini menggunakan teknologi REST Web Service yang diterapkan pada aplikasi Android.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN PEMESANAN MAKANAN DAN MINUMAN PADA VINTAGE CAFE BERBASIS WEB</t>
+  </si>
+  <si>
+    <t>Vintage Cafe merupakan perusahaan yang bergerak dalam bidang makanan yang beralamat di jalan Gunung Pati Semarang yang berdiri sejak tahun 2015 dan mempunyai karyawan sebanyak 10 orang dimana 1 orang sebagai kasir, 1 orang sebagai keuangan dan 3 orang sebagai chef dan 5 orang sebagai pelayan. Vintage Cafe masih menggunakan cara manual seperti menggunakan media alat tulis dan kertas untuk pemesanan menu makanan. Penggunaan media alat tulis dan kertas beberapa kendala yang dapat muncul dari cara ini adalah penyampaian pesanan pesanan konsumen ke bagian lain dapat memakan waktu lama dikarenakan jarak antar bagian yang bervariasi, tidak terbacanya tulisan tangan pencatat pesanan, terselipnya kertas catatan pesanan yang dapat mempengaruhi urutan pemrosesan pesanan, dan adanya pemesanan yang terlupa. Metode pengembangan sistem yang digunakan adalah waterfall, perancangan sistem menggunakan UML, pembuatan program menggunakan PHP dan MySQL. Tujuan yang ingin dicapai dalam penelitian ini adalah terbentuknya pemesanan makanan pada Vintage Cafe berbasis web mobile yang dapat digunakan untuk melakukan pemesanan makanan secara langsung pada Vintage Cafe secara langsung, mengoptimalkan sistem pemesan makanan pada Vintage Cafe dan menekan jumlah tenaga pelayan dalam melayani pelanggan Vintage Cafe.</t>
+  </si>
+  <si>
+    <t>PENGUNCIAN PINTU RUMAH ELEKTRIK MENGGUNAKAN ANDROID BERBASIS ARDUINO UNO</t>
+  </si>
+  <si>
+    <t>Kasus kejahatan pada saat ini sangat marak terjadi pada masyarakat. Kasus pencurian yang bersifat kekerasan tidak sedikit menelan korban. Keamanan menjadi kebutuhan yang mutlak untuk diterapkan karena kejahatan atau kriminalitas di kota-kota besar sudah menjadi permasalahan sosial yang membuat semua warga yang tinggal atau menetap menjadi resah. Pencurian banyak terjadi pada rumah rumah kosong karena terbatasnya keamanan yang diterapkan pada rumah tersebut. Dengan memanfaatkan smart phone android dan mikrokontroller arduino uno dapat memaksimalkan keamanan pada rumah. Smartphone digunakan sebagai pengontrol penguncian pintu dan alarm pada rumah. Rumah dapat dipantau dari mana saja karena dapat memberikan notifikasi berupa sms saat rumah ditinggal pergi. Pada penelitian ini didapatkan hasil smartphone Android dapat mengontrol penguncian pintu dengan menggunakan fitur Bluetooth pada jangkauan maksimal 10 meter pada area terbuka dan jangkauan terpanjang pada area yang banyak terhalang benda adalah 8 meter. Motion sensor dan magnetik swith dapat bekerja dengan baik, notifikasi sms dapat terkirim setelah sensor aktif dengan jarak waktu rata rata 6 detik</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Keamanan Kendaraan Bermotor dengan Metode Authentication dan Point Positioning menggunakan RFID berbasis Mikrokontroller</t>
+  </si>
+  <si>
+    <t>Metode Authentication merupakan sebuah metode keaamanan yang banyak di terapkan untuk keamanan sistem ataupun perangkat. Metode Point Positioning adalah metode yang di terapkan pada Global Positioning System (GPS) yang menggunakan empat satelit untuk menentukan koordinat latitude dan longitude, metode ini biasa digunakan untuk sistem navigasi baik untuk keadaan diam ataupun bergerak. Tugas akhir ini menerapkan dua metode tersebut untuk mengembangkan sebuah sistem keamanan kendaraan bermotor. Metode authentication akan menggunakan Radio Frequency Identification (RFID) untuk menghidupkan ataupun mematikan kendaraan bermotor. Metode Point Positioning akan menggunakan Modul GPS yang berfungsi untuk mengontrol keberadaan kendaraan bermotor. Dengan RFID diharapkan kendaraan bermotor sudah tidak menggunakan kunci untuk menghidupkan dan mematikan kendaraan bermotor. Dengan GPS kendaraan dapat diketahui keberadaannya secara realtime.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN SISTEM MONITORING DATA KETIDAKHADIRAN PEGAWAI NEGERI SIPIL MENGGUNAKAN METODE DESKRIPSI PADA BADAN KEPEGAWAIAN DAERAH KOTA SEMARANG</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi yang begitu pesat khususnya dalam bidang elektronika dan teknologi informasi telah memberi berbagai kemudahan dalam berbagai aspek kehidupan manusia. Proses pengelolaan data ketidakhadiran pada Badan Kepegawaian Daerah Kota Semarang pada saat ini masih dilakukan secara manual. Pengecekan ketidakhadiran,pelatihan,izin,sisa cuti,pengajuan cuti, dan persetujuan cuti dilakukan secara berjenjang.Proses pengelolaan cuti tersebut memiliki beberapa kelemahan.Pegawai tidak bisa mengetahui sisa hak cuti pribadi dan pengambilan cuti oleh rekan kerja secara langsung, sehingga pegawai tidak bisa melakukan manajemen cuti dengan baik. Pimpinan juga belum dapat mengambil keputusan cuti berdasarkan prinsip pemerataan hak cuti pegawai. Hasil penelitian ini menghasilkan informasi data ketidakhadiran pegawai dan monitoring data cuti,sehingga membantu Badan Kepegawaian Daerah Kota Semarang dalam pemrosesan data ketidakhadiran dan monitoring data cuti itu sendiri.Aplikasi pada penelitian ini diimplementasikan dengan menggunakan bahasa pemrograman Borland Delphi 7.0 dan database MySQL.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN SISTEM NAVIGASI MENGETAHUI LOKASI SEKOLAH LUAR BIASA DI KOTA SEMARANG MENGGUNAKAN METODE KALIBRASI RADAR</t>
+  </si>
+  <si>
+    <t>Sebutan untuk anak yang cacat yaitu disfabilitas. Anak berkebutuhan khusus meliputi tunarungu, tunanetra, tunadaksa, tunagrahita, tunalaras, autis, Down Syndrome, kemunduran (retardasi) mental. Berhak mendapatkan pendidikan setara dengan anak normal karena setiap warga Negara berhak untuk mendapatkan pendidikan. Selama ini masyarakat kurangnya pengetahuan atas informasi keberadaan sekolah luar biasa yang terdapat di Kota Semarang. Sehingga ingin dibuat sebuah aplikasi yang memberikan informasi lokasi Sekolah Luar Biasa terdekat dari pengguna. Akan mencari lokasi beserta jarak ke sekolah tersebut. Untuk Itu ingin dibuat Sistem Navigasi Mengetahui Lokasi Sekolah Luar Biasa di Kota Semarang Menggunakan Metode Kalibrasi Radar. Sistem tersebut dibuat menggunakan metode pengembangan sistem prototype yang tahapannya meliputi tahap communication, tahap quick Planning, Tahap Quick Modeling, Tahap Construction, Tahap Deployment. Sedangkan untuk alat bantu perancangan menggunakan diagram use case, diagram activity, diagram sequence, diagram user interface.</t>
+  </si>
+  <si>
+    <t>Penerapan Teknologi Markerless Augmented Reality Sebagai Alat Bantu Pengunjung Museum Berbasis Android</t>
+  </si>
+  <si>
+    <t>Museum diartikan sebagai sebuah gedung yang digunakan sebagai tempat untuk memamerkan benda-benda yang patut mendapat perhatian umum. Apabila museum ditelusuri secara lebih mendalam, informasi tentang benda-benda bersejarah dalam museum dapat disampaikan secara lengkap. Namun, selama ini pengunjung museum hanya memperoleh informasi melalui tulisan atau penjelasan yang diperoleh di sekitar objek. Salah satunya adalah Museum Mandala Bhakti yang berlokasi di kota Semarang. Dari pemaparan diatas, penulis memiliki ide yaitu Augmented Reality sebagai konsep alat bantu pengunjung museum dengan memanfaatkan gambar sebagai marker, Aplikasi ini mampu memberikan detail objek secara 3D berikut dengan keterangan sehingga membantu pengunjung untuk lebih memahami informasi dan penggunaan tentang senjata yang ada di museum. Dengan menggunakan teknologi Augmented Reality pengunjung mendapatkan pengalaman serta pengetahuan tambahan mengenai perkembangan teknologi.</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Dekstop Penghitungan Kalori dan Usulan Makanan Pendaki Gunung Dengan Metode Harris Beneditc</t>
+  </si>
+  <si>
+    <t>Mendaki gunung merupakan kegiatan alam bebas yang tergolong berat, namun di era modern ini mendaki sangat popular dikalangan masyarakat umum. Diperlukan persiapan dan kesiapan mental dalam pendakian gunung. Kurangnya pengetahuan pendaki gunung tentang perhitungan kalori yang dibutuhkan dengan makanan yang dibawa saat pendakian, dapat berakibat fatal. Dalam tugas akhir ini membahas tentang perhitungan kalori dengan metode Harris Beneditc dan usulan makanan. Kebutuhan jumlah kalori dapat dihitung berdasarkan data yang telah diinputkan yaitu tinggi badan, berat badan, umur, jenis kelain dan level aktifitasnya. Setiap aktifitas membutuhkan energi sehingga energy yang dibutuhkan harus terpenuhi jika tidak terpenuhi maka tubuh manusia akan lemas dan tidak bisa melakukan aktifitas. Hasil dari penelitian dapat membantu pendaki gunung memperhitungkan kalori yang dibutuhkan dan makanan yang akan dibawa dalam pendakian. Kalori adalah sebuah satuan untuk menghitung jumlah energi. Setiap makanan mengandung sejumlah kalori yang dibutuhkan oleh tubuh untuk melakukan sebuah aktifitas. Kalori yang terkandung dalam makanan di sediakan oleh karbohirat, protein dan lemak. Kalori di hasilkan dari makanan yang dikonsumsi.</t>
+  </si>
+  <si>
+    <t>APLIKASI COMPANY PROFILE BERBASIS ANDROID DI PT. MESINDO TEKNINESIA</t>
+  </si>
+  <si>
+    <t>Kegiatan promosi adalah salah satu bagian dari strategi pemasaran perusahaan, yang isinya memberikan informasi kepada masyarakat atau konsumen tentang produk atau jasa yang ditawarkan perusahaan. Tidak hanya itu, kegiatan promosi merupakan kegiatan komunikasi antara perusahaan dengan customer atau konsumen. Promosi merupakan bagian penting dari pemasaran, karena pihak perusahaan berharap dengan promosi yang dilaksanakan secara efektif dapat meningkatkan kualitas produk atau jasa perusahaan sesuai dengan target penjualan yang telah ditetapkan dan dapat bersaing dengan perusahaan lain yang menghasilkan produk atau jasa yang sejenis. Dengan pandangan demikian perusahaan berharap dengan dilaksanakannya kegiatan promosi secara berkesinambungan dan terarah, akan mampu mencapai hasil penjualan dan keuntungan yang maksimal. Untuk itu dalam pelaksanaanya proses pengembangan aplikasi android membutuhkan komunikasi antara pihak owner perusahaan, Desain team (Development Team) dan Scrum Master. Scrum master inilah yang bertanggungjawab untuk mengatur dan memberi pemahaman memahami apakah interaksi mereka dengan Tim Scrum bermanfaat atau tidak. Scrum Master membantu setiap pihak untuk merubah interaksi-interaksi yang tidak bermanfaat sehingga bisa memaksimalkan nilai yang dihasilkan oleh Tim Scrum.</t>
+  </si>
+  <si>
+    <t>PENERAPAN LIBRARY 2.0 DENGAN METODE WEB DEVELOPMENT LIFE CYCLE (WDLC) UNTUK DOKUMENTASI NASKAH KUNO NUSANTARA</t>
+  </si>
+  <si>
+    <t>Keberadaan suku bangsa di Indonesia berbanding lurus dengan keberadaan naskah yang melimpah. Di Perpustakaan Nasional Republik Indonesia, sampai saat ini jumlahnya mencapai 10.000 buah. Selain naskah yang tersimpan, ada yang masih tersebar dan perlu dikumpulkan untuk dipelajari lebih mendalam dengan pilihan dan jenis yang beragam. Pengumpulan naskah kuno yang beragam ini membutuhkan keterlibatan dari banyak pihak. Untuk itu diperlukan suatu sistem kepustakaan yang berorientasi pada pengguna yang bersifat kolaboratif. Konsep sistem kepustakaan yang seperti ini dikenal dengan istilah Library 2.0. Dengan diterapkannya konsep Library 2.0 menggunakan metode Web Development Life Cycle (WDLC), selain untuk mendokumentasikan naskah - naskah kuno nusantara yang tersebar kedalam bentuk digital, masyarakat juga dapat berbagi tentang identifikasi naskah, kajian tentang isi naskah, hingga alih bahasa naskah yang telah diteliti. Aplikasi akan diuji dengan menggunakan metode White Box, Black Box, dan User Acceptance Test. Dari pengujian User Acceptance Test dapat disimpulkan bahwa 62,75 % menyatakan bahwa perlu dibuat sistem untuk berbagi pengetahuan tentang naskah kuno dan 76,37% menyatakan bahwa aplikasi web Social Library Naskah Kuno yang dibuat dapat berjalan sesuai dengan yang diharapkan.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN SISTEM IMAS BERBASIS VISUAL BASIC PADA PT. DHANA PERSADA MANUNGGAL</t>
+  </si>
+  <si>
+    <t>Kualitas pelayanan dalam suatu perusahaan sangat berpengaruh terhadap kepuasan customer dalam melakukan transaksi perusahaan. Semakin bertambahnya customer, maka tuntutan akan kualitas pelayanan suatu perusahaan harus meningkat juga. Jika customer merasa puas dengan kualtas pelayanan perusahaan, maka keuntungan yang diperoleh perusahaan akan meningkat. Customer tidak akan menjadi pelanggan yang pasif, melainkan menjadi customer yang aktif dalam melakukan transaksi. Oleh karena itu, perusahaan harus memiliki sistem informasi yang jelas dan dapat dipercaya sebagai bukti terhadap kualitas pelayanannya. Metode SDLC (System Development Life Cycle) adalah suatu metode adalah tahapan-tahapan pekerjaan yang dilakukan oleh analis sistem dan programmer dalam membangun sistem informasi..Dengan penerapan metode SDLC, Penelitian ini bertujuan untuk mengembangkan sistem informasi yang lebih akurat terhadap kualitas pelayanan PT. Dhana Persada Manunggal.</t>
+  </si>
+  <si>
+    <t>INFORMASI JADWAL SHOLAT BERDASARKAN PERHITUNGAN HISAB MENGGUNAKAN MIKROKONTROLER ATMEGA328 DAN DMD P10</t>
+  </si>
+  <si>
+    <t>Kita mungkin pernah menemui jadwal sholat terpajang di masjid-masjid maupun di mushola. Di antara jadwal itu ada yang usianya telah bertahun-tahun, belasan bahkan puluhan tahun. Ada sebagian yang mengasumsikan bahwa cara menentukan waktu sholat dengan menggunakan cara melihat langsung pada tanda-tanda alam seperti menggunakan alat bantu tongkat istiwa atau miqyas. Sedangkan yang lain mempunyai pemahaman kontekstual, sesuai dengan maksud dari dalil-dalil tersebut, di mana awal dan akhir waktu sholat ditentukan berdasarkan posisi matahari di lihat dari suatu tempat di bumi. untuk membantu mempermudah menentukan jadwal sholat maka dibutuhkan sebuah alat yang dapat menentukan jadwal sholat sepanjang masa. Dot Matrix Display (DMD) dan Atmega328 merupakan salah satu alat yang digunakan untuk membantu dalam menampilkan jadwal sholat dan informasi yang di input dari smartphone android yang telah di hubungkan ke perangkat bluetooth tanpa menggunakan tambahan memori eeprom. Dimana jika menggunakan alat ini tidak perlu meng-update jadwal sholat setiap tahun. Metode yang digunakan dalam alat ini adalah metode hisab. Metode hisab adalah salah satu metode yang digunakan dalam ilmu falak untuk menentukan posisi matahari dan bulan dengan melibatkan bujur, lintang dan ketinggian benda langit terhadap bumi untuk menentkuan awal waktu sholat. Sehingga menghasilkan sebuah perangkat media informasi jadwal sholat sepanjang masa.</t>
+  </si>
+  <si>
+    <t>REKAYASA MOBILE GIS RUTE BUS RAPID TRANSIT SEMARANG BERBASIS ANDROID MENGGUNAKAN ALGORITMA FLOYD WARSHALL</t>
+  </si>
+  <si>
+    <t>Transportasi sudah menjadi bagian penting dalam kehidupan manusia. Terutama di Ibu Kota Provinsi seperti Kota Semarang ini, transportasi menjadi hal yang sangat krusial. Pentingnya sarana transportasi memunculkan berbagai ide untuk mempermudah penggunaan moda transportasi. Diantaranya dengan membuat sistem bus berbasis transit, terobosan ojek online, taxi online dan masih banyak lagi. Kota Semarang berkembang menjadi kota metropolitan, bertambahnya pusat perbelanjaan, semakin banyaknya objek wisata ditambah dengan sarana transportasi yang makin banyak. Salah satu terobosan kota Semarang adalah dengan mendirikan Bus Rapid Trans Semarang (BRT). Dengan adanya BRT membantu masyarakat kota Semarang lebih terbantu karena bertambahnya pilihan moda transportasi. BRT menawarkan perpindahan koridor gratis dan menggunakan tarif jauh dekat yang sama. Halte BRT sudah tersebar diberbagai penjuru Kota Semarang bahkan sudah menjangkau area Kabupaten Semarang. Mobile GIS merupakan salah satu bentuk pemanfaatan ilmu informatika untuk mempermudah pemanfaatan moda transportasi. Beberapa pengembang perangkat lunak sudah banyak menciptakan aplikasi berdasarkan dasar ilmu Geographic Information System (GIS) untuk memberikan kemudahan bagi pengguna sarana transportasi. Mobile GIS sendiri merupakan pengembangan dari GIS berbasis Web, dimana dengan mobile GIS pengembang dapat membuat perangkat lunak penunjuk rute perjalanan dengan berbasis GPS dan LBS. Dengan memanfaatkan GPS dan LBS perangkat lunak dapat di desain untuk menemukan posisi pengguna dan memberikan petunjuk arah ke tempat yang akan dituju dengan pilihan rute tercepat. Floyd Warshall merupakan salah satu algoritma yang digunakan untuk menentukan jarak terpendek dari suatu rute yang telah ditentukan sebelumnya. Floyd Warshall berjalan berdasarkan pemrograman dinamis dengan mempertimbangkan setiap keputusan menjadi sebuah bobot. Sehingga keputusan yang diambil algoritma ini dalam menentukan jarak terdekat lebih optimal.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN PENCARIAN RUTE TERDEKAT BENGKEL AHASS KOTA SEMARANG MENGGUNAKAN ALGORITMA FLOYD WARSHALL BERBASIS ANDROID</t>
+  </si>
+  <si>
+    <t>Sepeda motor merupakan alat transportasi yang murah, praktis dan efisien dibandingkan moda transportasi yang lain. Honda adalah salah satu merk yang paling diminati oleh para pecinta sepeda motor di Indonesia maupun dan Kota Semarang. Honda memiliki berbagai jenis tipe yang perawatannya disarankan menggunakan jasa service bengkel Ahass. Di Kota Semarang terdapat 51 bengkel Ahass, pencarian suatu tempat merupakan salah satu permasalahan yang sering timbul pada setiap orang dengan peta seseorang bisa melakukan pencarian tempat yang dituju namun terkadang banyak yang tidak tahu arah mana yang baik dan terdekat. LBS adalah salah satu fitur mobile yang di gunakan untuk menandai letak posisi user. LBS dan GPS merupakan fitur perangkat mobile yang dimanfaatkan oleh para pengembang perangkat lunak untuk membangun sisitem mobile GIS. Graf merupakan solusi untuk memberikan gambaran arahan / petunjuk arahan yang dituju menggunakan polyline, Polyline adalah sambungan garis yang tersusun dari satu atau lebih dari satu garis yang disebut segments. Algoritma Floyd-Warshall melakukan pemecahan masalah dengan memandang solusi yang akan diperoleh sebagai suatu keputusan yang saling terkait. Artinya solusi-solusi tersebut dibentuk dari solusi yang berasal dari tahap sebelumnya dan ada kemungkinan solusi lebih dari satu. Sehingga pengguna tersebut bisa dapat mudah menemukan titik tempat yang di tuju dengan mudah berupa gambar peta karena disertakan dengan garis petunjuk arah di sertakan dengan informasi detail lokasi tersebut.</t>
+  </si>
+  <si>
+    <t>Translator Abstract Data Type (ADT) C Dalam Bentuk Header File Ke Interface Java Dengan Algoritma ALL (*) Parsing</t>
+  </si>
+  <si>
+    <t>Object-oriented programming (OOP) merupakan salah satu paradigma bahasa pemrograman. OOP juga merupakan suatu teknik yang mendukung untuk pemrograman bagi penggunanya karena banyak disediakan fitur yang memudahkan dan membuat kerja lebih efisien. Penelitian yang telah ada menunjukan bahwa ditemukannya permasalahan pada Dosen yang mengajarkan konsep OOP kepada Mahasiswa. Mahasiswa yan g telah berkecimpung pada procedural programming sebelumnya, menemukan sedikit masalah untuk berpindah ke OOP. Untuk mempermudah mempelajari konsep OOP, maka dibutuhkan suatu aplikasi untuk mentranslasikan struktur Abstract Data Type (ADT C) dari procedural programming ke OOP secara otomatis. Aplikasi ini menggunakan grammar ADT C dengan aturan notasi Extended Backus-Naur Form (EBNF) yang digenerate dengan algoritma ALL(*) Parsing untuk mengenali semua masukan ADT C dan juga untuk proses code generator. Input dari aplikasi ini berupa ADT C yang akan ditranslasikan menghasilkan file interface Java dan class Java sebagai implementasinya.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN PERANGKAT LUNAK GPS BASED LOCATION TRACKER PADA PLATFORM ANDROID UNTUK PELACAKAN LOKASI SALES PT. MELIANA PERKASA SEJAHTERA</t>
+  </si>
+  <si>
+    <t>Global Positioning System (GPS) merupakan sistem satelit navigasi yang sedang populer dan banyak diaplikasikan di dunia. Saat ini, Smartphone android sudah di sertai teknologi Gps. Dengan GPS pengguna dapat menentukan dan melacak posisi/lokasi serta jarak keberadaan seorang pengguna perangkat yang sudah di integrasikan menggunakan sinyal GPS yang dipancarkan oleh satelit. PT. Meliana Perkasa Sejahtera merupakan perusahaan yang bergerak di bidang pemasaran kartu perdana Indosat, mereka mempunyai banyak karyawan Salah satunya Supervisor dan Sales. Supervisor mempunyai tugas untuk mengorganisir dan mengontrol para Sales. Supervisor harus bisa mengetahui dimana posisi dan apa yang dikerjakan oleh Sales PT. MPS. Tujuan dari penelitian ini adalah memecahkan masalah tersebut dan diharapkan mempermudah tugas dari Supervisor. Metode pengembangan sistem yang digunakan pada penelitian ini adalah Agile Development Extreme Programming. Metode ini dipilih karena perangkat lunak yang akan dibuat tidak terlalu kompleks dan tergolong perangkat lunak berskala kecil. Hasil dari penelitian ini adalah Perangkat lunak pada platform android (Client) yang mampu mengirimkan data lokasi (latitude dan longitude) ke database Web (Server) dan kemudian dapat ditampilkan dengan Google Maps. Diharapkan dapat menjawab masalah bagi Supervisor untuk mengetahui posisi para Sales PT. Meliana Perkasa Sejahtera pada saat bertugas.</t>
+  </si>
+  <si>
+    <t>PERBANDINGAN KINERJA FRAGMENTASI TABEL SECARA VERTIKAL MENGGUNAKAN ALGORITMA BOND ENERGY DAN GRAPH BASED VERTICAL PARTITIONING</t>
+  </si>
+  <si>
+    <t>Besarnya biaya akses data dan kecepatan akses pada suatu query sangat bergantung pada besarnya jumlah atribut. Hal tersebut dikarenakan fungsi query akan melakukan pencarian data dari berbagai atribut yang terdapat pada tabel database, sedangkan pada tabel yang diakses tidak semua atribut dibutuhkan. Untuk memisahkan atribut yang dibutuhkan dengan yang tidak, dapat dilakukan dengan menggunakan metode Fragmentasi Vertikal. Penelitian ini memiliki tujuan untuk memeriksa perbandingan tabel database yang difragmentasi vertikal menggunakan algoritma Bond Energy (BEA) dan algoritma Graph-Based Vertical Partitioning (GBVP) yang digunakan dalam pembentukan suatu Database Terdistribusi. Hasil perhitungan dari kedua algoritma akan menentukan atribut mana yang akan dipisahkan. Kemudian, hasil dari kedua algoritma dibandingkan dan dievaluasi menggunakan Partition Evaluator untuk menunjukkan besarnya biaya akses data yang digunakan, sehingga didapatkan suatu kesimpulan algoritma manakah yang lebih baik untuk digunakan. Berdasarkan hasil eksperimen, algoritma GBVP menunjukkan performa yang lebih baik dengan nilai Partition Evaluator yang lebih tinggi masing-masing sebesar 4,98; 10,41; 17,95; 4,64; dan 14,07 serta nilai waktu eksekusi yang lebih rendah masing-masing sebesar 0,003; 0,002; 0,002; 0,002; 0,003 dan 0,003.</t>
+  </si>
+  <si>
+    <t>PERBANDINGAN OPTIMASI QUERY DATABASE MENGGUNAKAN ALGORITMA GENETIC DAN METODE HEURISTIC UNTUK MENINGKATKAN KECEPATAN PENGAKSESAN QUERY</t>
+  </si>
+  <si>
+    <t>Salah satu aspek yang mempengaruhi kecepatan akses data pada sebuah sistem adalah optimal atau tidaknya query yang diberikan. Optimasi query dilakukan pada database yang berukuran besar, memiliki banyak tabel dan record untuk meningkatkan kecepatan pengaksesan data. Langkah awal dalam pengoptimasian query yaitu merubah query ke bentuk ekspresi aljabar relasional, kemudian diubah lagi ke dalam bentuk cannonical form. Dari bentuk cannonical form akan didapat query plan berdasarkan metode yang digunakan untuk mengoptimasi query. Pada penelitian ini, digunakan dua metode untuk mengoptimasi query yaitu metode heuristic dan algoritma genetic. Penggunaan dua metode tersebut akan diuji dan dibandingkan hasilnya untuk mengetahui metode mana yang paling efektif untuk meningkatkan kecepatan pengaksesan query. Hasil eksperimen menunjukkan bahwa metode heuristic memiliki performa yang baik dalam meningkatkan kecepatan akses query berdasarkan waktu akses yang dihasilkan yaitu 0.05315 second untuk metode heuristic dan 0.05548 second untuk metode genetic.</t>
+  </si>
+  <si>
+    <t>RANCANG BANGUN INVENTARISASI ASSET PADA KOPERASI SETIA KAWAN KENDAL BERBASIS WEB</t>
+  </si>
+  <si>
+    <t>Perkembangan ilmu pengetahuan dan teknologi yang semakin tinggi akan mendorong manusia untuk mencari kemudahan dalam mendapatkan informasi yang cepat, tepat, dan akurat. Dewasa ini penerapan sistem informasi pada suatu instansi pemerintahan maupun swasta sangat dibutuhkan karena perkembangan teknologi yang sangat pesat menuntut suatu instansi untuk memperoleh informasi yang lebih cepat dan akurat. Sistem informasi yang mendukung membuat kinerja suatu instansi akan terlaksana dengan baik dan dapat menangani berbagai pengolahan data dengan menggunakan teknologi informasi. Koperasi Setia Kawan adalah salah satu perusahaan yang bergerak dibidang penyalur kredit simpan pinjam bagi nasabahnya, koperasi setia kawan berkantor di kota Kendal dan mempunyai dua cabang yaitu unit Kendal dan unit Boja. Dengan adanya kantor pusat dan cabang dan semakin berkembangnya bisnis perusahaan maka penggunaan komputerisasi sangat diperlukan. Penyimpanan data inventaris asset hanya dilakukan pada kantor koperasi setia kawan masih secara manual yaitu dengan menggunakan buku besar yang digunakan untuk mencatat barang-barang yang ada. Semua keterangan mengenai barang inventaris kantor dicatat dalam suatu buku besar, sehingga untuk catatan barang-barang di tahun-tahun sebelumnya sebagian sudah tidak ada lagi karena pengelolaan yang digunakan masih sangat sederhana. Pengembangan sistem yang digunakan adalah model waterfall, tujuan dibuatnya aplikasi inventarisasi asset pada koperasi setia kawan Kendal berbasis web ini yang agar dapat digunakan oleh pihak koperasi setia kawan Kendal dan mengelola asset perusahaan dan media promosi secara online.</t>
+  </si>
+  <si>
+    <t>ANTRIAN MODEL MULTIPLE CHANNEL QUERY SISTEM (M/M/S) PADA PELAYANAN POLIKLINIK RSUD BREBES</t>
+  </si>
+  <si>
+    <t>Tujuan dari penelitian ini adalah untuk mengetahui kinerja sistem antrian dengan mengaplikasikan model antrian jalur berganda (M/M/s) pada bagian poliklinik di RSUD Brebes. Berdasarkan hasil penelitian, model antrian yang saat ini diterapkan pada bagian poliklinik di RSUD Brebes menunjukkan kinerja yang tidak terlalu baik khususnya pada loket pendaftaran pasien lama karena waktu menunggu registrasi pasien. Dengan menerapkan sistem antrian menggunakan model Multiple Channel Query System(M/M/s), maka kinerja dari sistem antrian yang ada pada loket pendaftaran pasien dapat lebih efisien dan memudahkan pasien dalam melakukan registrasi pendaftaran poliklinik. Perlu menggunakan metode pengembangan prototype dalam membuat sistem antrian. Oleh karena itu, pihak RSUD Brebes perlu mempertimbangkan adanya penerapan sistem antrian dengan model yang baru yaitu Model Multiple Channel Query System (M/M/S) khususnya pada loket pendaftaran pasien agar kinerja operasional RSUD Brebes secara keseluruhan tidak terganggu dan proses registrasi dapat berjalan secara optimal sehingga tidak membuat pasien mengantri terlalu lama dalam mendapatkan pelayanan.</t>
+  </si>
+  <si>
+    <t>Implementasi REST Web Service dan Saran Peminjaman Buku Dengan Klasifikasi DDC Sesuai Minat Belajar Mahasiswa Udinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Perpustakaan UDINUS memiliki jumlah pengunjung yang selalu meningkat pada setiap tahunnya, untuk itu perpustakaan UDINUS perlu untuk meningkatkan layanan perpustakaannya agar diharapkan dapat lebih meningkatkan jumlah pengunjung. Untuk memperluas layanan perpustakaan UDINUS dapat menggabungkan katalog buku dengan beberapa perpustakaan secara online. Untuk menggabungkan katalog buku beberapa perpustakaan secara online maka dapat memanfaatkan teknologi web service. Untuk memperluas layanannya perpustakaan juga dapat memanfaatkan klasifikasi DDC untuk menyajikan saran bacaan atau saran peminjaman pada mahasiswa sesuai dengan minat belajar mahasiswa.</t>
+  </si>
+  <si>
+    <t>MESIN PENERJEMAH BAHASA INDONESIA-JAWA MENGGUNAKAN METODE STATISTIK BERBASIS FRASA</t>
+  </si>
+  <si>
+    <t>Bahasa Jawa yang dulu merupakan bahasa yang besar, dengan bertambahnya waktu, penggunaannya semakin berkurang. Untuk mencegah terjadinya kepunahan bahasa atau biasa disebut dengan istilah kematian bahasa, maka sudah seharusnya masyarakat menyadari pentingnya pemeliharaan bahasa daerah. Di antaranya meliputi pemekaran kosakata dan kodifikasi berupa penyusunan kamus.Dalam era ini dengan pendekatan teknologi, kamus dapat dikembangkan dalam bentuk mesin penerjemah. Penelitian ini mengembangkan mesin penerjemah statistik berbasis frasa, yaitu yang merupakan suatu paradigma dari mesin penerjemah dimana penerjemahan dilakukan berbasis model statistik dengan parameter-parameter yang diturunkan dari analisis paralel korpus. Penelitian ini menggunakan 4.500 pasang kalimat sebagai korpus paralel yang bersumber dari Alkitab.Hasil dari implementasi mesin penerjemah statistik berbasis frasa ini diuji dan dievaluasi menggunakan evaluasi otomatis, BLEU yang menghasilkan nilai evaluasi sebesar 42,78%.</t>
+  </si>
+  <si>
+    <t>INTEGRASI DATABASE ELECTRONIC MEDICAL RECORD (EMR) BERBASIS STANDAR HL7 UNTUK SINKRONISASI DATA PASIEN</t>
+  </si>
+  <si>
+    <t>Perkembangan sistem electronik medical record (EMR) di pusat kesehatan masyarakat (PUSKESMAS) terjadi begitu cepat, sehingga memumculkan berbagai macam software baru. Kemunculan software baru tersebut tidak berjalan lurus dengan sinkronisasi data ketika diintegrasikan, hal itu karena masing-masing software memiliki standar pencatatan yang berbeda. Ketidak sinkronisasian tersebut mengakibatkan terjadinya medical error dan perulangan pemeriksaan ketika dilakukan transfer data ke instansi lain. Untuk mengurangi kesalahan tersebut perlu adanya penyamaan standar komunikasi data. Dalam sinkronisasi data pencatatan rekam medik digunakan standar Health Level Seven (HL7) messages. Metode penelitian dalam integrasi database ini dilakukan dengan menggunakan model berbasis object oriented (OO). Teknik pengembangan sistem dijabarkan dengan teknik ADDIE yaitu analysis, design, development, implementation and evaluation. Obyek penelitian adalah rumahsakit Telogorejo dengan implementasi sistem di puskesmas. Pengujian aplikasi dengan pengujian kualitatif testing dengan pengujian oleh 10 user dari pihak puskesmas, rumahsakit umum, rumahsakit swasta, dan rumahsakit nasional. Hasil penelitiannya adalah pembuatan sekaligus pengisian fields pada tabel dan database yang telah penulis buat ini telah dapat menerapkan standar komunikasi data menggunakan HL7 message untuk proses diagnosa pasien. Dengan prosentase nilai kepuasan 24% sangat setuju, 70% setuju dan 6% kurang setuju.</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Pengelolaan Dokumen pada Sekretariat Fakultas Ilmu Komputer Udinus dengan Model Prototype</t>
+  </si>
+  <si>
+    <t>Sekretariat Fakultas Ilmu Komputer Universitas Dian Nuswantoro Semarang adalah bagian dari fakultas Ilmu Komputer yang bertugas mengkoordinir segala sesuatu yang berhubungan dengan fakultas ilmu komputer. Terlebih mengenai dokumentasi surat yang dikategorikan menjadi surat masuk dan surat keluar. Dokumentasi surat dan sistem ploting tugas yang diberikan kepada dosen masih manual menjadikan pemantauan terhadap data surat dan penugasan terhadap dosen dan karyawan fakultas kurang optimal.Data dosen yang digunakan juga tidak terintegrasi dengan database SiAdin. Dengan belum adanya sistem yang terintegrasi dengan database, dalam rangka melakukan dokumentasi surat pada sekretariat,maka pada pembuatan tugas akhir ini, penulis membangun sebuah aplikasi untuk menangani dokumentasi surat dan integrasi data dengan menggunakan webservice serta model prototype untuk pengembangan sistemnya.Hasil dari pembuatan tugas akhir ini adalah aplikasi berbasis website dengan menggunakan bahasa pemrograman php. Dengan adanya aplikasi ini, diharapkan dapat mempermudah dan membantu karyawan fakultas untuk melakukan dokumentasi surat pada sekretariat fakultas ilmu komputer.</t>
+  </si>
+  <si>
+    <t>APLIKASI PENJADWALAN ASISTENSI LABORATORIUM DASAR UNIVERSITAS DIAN NUSWANTORO DENGAN ALGORITMA GENETIKA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Penyusunan jadwal asisten selalu mengalami kesulitan dalam mensinkronkan jadwal asisten, ketersediaan ruang dan aturan dalam perkuliahan. Kesulitan tersebut berdampak pada lamanya penyusunan jadwal asistensi yang bersifat tetap. Penelitian ini membahas tentang aplikasi algoritma genetika untuk membuat jadwal asistensi laboratorium dasar udinus. Algoritma genetika merupakan salah satu algoritma heuristik yang dapat dipergunakan untuk menyelesaikan masalah penjadwalan matakuliah. Dari hasil penelitian yang dilakukan, diperoleh hasil yang menunjukkan bahwa aplikasi menggunakan algoritma genetika, mampu menyelesaikan pembuatan jadwal asistensi laboratorium dasar. Parameter algoritma yang sangat berpengaruh tersebut adalah ukuran populasi, jumlah generasi, probabilitas perkawinan silang dan probabilitas mutasi.</t>
+  </si>
+  <si>
+    <t>Sistem Pakar Untuk Mendiagnosa Penyakit Pada Burung Murai Dengan Menggunakan Metode Forward Chaining</t>
+  </si>
+  <si>
+    <t>Lambatnya mengetahui jenis penyakit serta tidak mengetahui cara pencegahannya mengakibatkan banyak burung Murai Batu tidak dapat diselamatkan. Oleh karena itu dengan kemajuan teknologi komputer telah banyak memberi pengaruh tersendiri bagi perkembangan burung Murai Batu. Metode pengembangan sistem yang digunakan dalam penelitian ini adalah sistem pakar yang terdiri dari identifikasi, konseptualisasi, formalisasi, implementasi dan evaluasi. Perancangan sistem menggunakan DFD Levelled yang terdiri dari diagram konteks dan DFD Level 0 dan ERD. Pembuatan website dengan menggunakan pemrograman PHP dan database MySQL. Hasil akhir dari penelitian ini adalah Sistem pakar diagnosa pada burung Murai Batu menggunakan metode forward chaining dapat digunakan untuk menyelesaikan masalah penanganan penyakit burung Murai Batu karena dapat memberikan hasil diagnosis dari setiap jenis penyakit.</t>
+  </si>
+  <si>
+    <t>KOMPARASI METODE LEAST SQUARE DAN DOUBLE EXPONENTIAL SMOOTHING UNTUK MENGANALISIS PENDAPATAN RETRIBUSI UJI KENDARAAN BERMOTOR</t>
+  </si>
+  <si>
+    <t>Dinas Perhubungan Informasi dan Komunikasi Kabupaten Grobogan merupakan instansi pemerintah daerah yang memiliki tanggung jawab pengelolaan uji kendaraan bermotor. Dimana setiap enam bulan sekali melakukan rekapitulasi data yang kemudian dilaporkan pada pemerintah daerah pusat. Dalam laporan tersebut dicantumkan prediksi pendapatan periode berikutnya yang akan dijadikan target pendapatan pada periode berikutnya. Banyaknya jumlah data menjadi kendala tersendiri dalam proses penghitungannya. Analisis Data Deret Berkala untuk menganalisis pendapatan uji kendaraan bermotor dengan menggunakan metode least square dan double exponential smoothing dalam penelitian ini menunjukkan bahwa metode tersebut cukup akurat digunakan sebagai metode peramalan pada periode berikutnya, dalam penelitian ini didapatkan nilai MAPE yang hampir sama, namun metode dengan nilai MAPE paling kecil terdapat pada metode least square dengan MAPE rata-rata sebesar 13,147 %.</t>
+  </si>
+  <si>
+    <t>Implementasi Logika Fuzzy Metode Tsukamoto Dalam Menentukan Kelayakan Pemberian Kredit Pada BPR BKK Kendal</t>
+  </si>
+  <si>
+    <t>Pada saat ini, kredit sangat diminati oleh masyarakat dikarenakan dengan mengajukan permintaan kredit, masyarakat dapat membuka usaha atau untuk mengembangkan usahanya agar lebih maju. BPR BKK Kendal sendiri merupakan salah satu bank yang memberikan fasilitas pemberian kredit ini. Dalam melakukan evaluasi terhadap permintaan kredit, perlu dilakukan analisis pengumpulan data–data tentang calon debitur sebelum akhirnya diambil keputusan apakah calon debitur tersebut memang layak diberikan kredit. Salah satu cara yang bisa digunakan dalam menentukan kelayakan pemberian kredit adalah dengan menggunakan metode fuzzy Tsukamoto dengan menggunakan variabel yang berdasarkan dari konsep 5C, yaitu bagaimana karakter debitur atau calon debitur (Character), berapa besar kemampuan debitur atau calon debitur dalam melunasi kredit (Capacity), bagaimana dan berapa besar penghasilan yang dimiliki debitur atau calon debitur (Capital), berapa besar nilai agunan yang dimiliki debitur atau calon debitur (Collateral), dan bagaimana kondisi perekonomian di sekitar debitur saat fasilitas kredit akan diberikan (Condition) Dengan variabel-variabel tersebut dihasilkan defuzzyfikasi yang merupakan hasil keputusan kelayakan pemberian kredit kepada calon debitur.</t>
+  </si>
+  <si>
+    <t>APLIKASI PENDETEKSI DINI PENYAKIT ASMA TERHADAP POLA HIDUP MASYARAKAT MENGGUNAKAN METODE BACKPROPAGATION</t>
+  </si>
+  <si>
+    <t>Penyakit asma telah menjadi masalah bagi kehidupan orang – orang sejak berabad-abad lalu dengan penyebab dan tingkat penyakit yang semakin kesini semakin membahayakan dan sampai sekarang masih menjadi masalah kesehatan di masyarakat. Apabila tidak dicegah dan ditangani dengan baik, maka diperkirakan akan terjadi peningkatan prevalensi di masa yang akan datang, maka dari itu dibutuhkan suatu teknologi yang dapat memperkirakan atau mendeteksi asma secara dini. Pendekatan JST banyak dipilih karena pendekatan ini tidak berpatokan terhadap model matematis tetapi lebih kepada data dari masalah yang diselesaikan dan menyaring informasi melalui proses pelatihan. Backpropagation adalah salah satu metode dari JST yang dapat diaplikasikan dengan baik dalam bidang prediksi (forecasting). Sehingga dalam penelitian ini akan digunakan jaringan syaraf tiruan backpropagation untuk memprediksi penyakit asma. Hasil yang diharapkan yaitu algoritma yang digunakan dapat digunakan untuk memprediksi penyakit asma dengan error yang menunjukkan seberapa minimum hasil peramalan dengan nilai aktual. Sehingga dapat membantu mendeteki penyakit pasien apakah benar mempunyai penyakit asma apa bukan serta beberapa parah penyakit asma tersebut.</t>
+  </si>
+  <si>
+    <t>MEMBANDINGKAN DUA METODE ANALISIS RUNTUN WAKTU UNTUK MEMPREDIKSI PELANGGAN PLN KOTA SALATIGA</t>
+  </si>
+  <si>
+    <t>Membandingkan dua metode runtun waktu berdasarkan pada besar kecilkannya hasil perhitungan MSE,RMSE, dan MAPE tiap perhitungan data. Dengan menggunakan dua metode pembanding dari data pelanggan pln Kota Salatiga akan mendapatkan hasil metode mana yang lebih baik diantara dua metode yang dibandingkan.data pln berdasarkan dari januari 2011 sampai desember 2014 dengan jumlah 1212275 pelanggan. Dengan menggunakan dua metode pembanding yaitu Semi Average dan Least Square dilakukkan perhitungan dengan data yang ada sehingga menghasilkan MSE Semi Average = 19004430, RMSE = 4359,407 dan MAPE = 15,39251 serta hasil dari Least Square MSE = 17947418,04, RMSE = 4236,439311, dan MAPE = 14,5233604. Dari hasil yang didapat dalam perhitungan membuktikan bahwa nilai error metode least square lebih sedikit sehingga metode ini lebih baik digunakan untuk meramalkan dari data pelanggan yang sudah ada sehingga mendapatkan hasil peramalan yang memili tingkat error yang lebih sedikit, maka dari itu pln dapat membuat langkah tepat jika sudah memiliki data dari peramalan yang dilakukan sehingga mengurangi tingkat keselahan produksi untuk pelanggan yang lebih sedikit.</t>
+  </si>
+  <si>
+    <t>PENERAPAN METODE SIMPLE ADDITIVE WEIGHTING (SAW) UNTUK SELEKSI TENAGA KERJA BARU BAGIAN PRODUKSI (Studi Kasus Pada PT. Jesi Jason Surja Wibowo)</t>
+  </si>
+  <si>
+    <t>Sumber daya manusia tidak dapat dipisahkan dari sumber daya manapun, hal tersebut berperan penting serta membutuhkan perhatian yang khusus agar penyelesaiannya sesuai dengan apa yang diharapkan. Didalam perekrutan karyawan membutuhkan sumber daya yang memadai. PT. Jesi Jason Surja Wibowo dalam melakukan seleksi tenaga kerja baru masih menggunakan cara manual. Dampak dari penggunaan seleksi secara manual ini yaitu membutuhkan waktu yang lama dan sumber daya yang berlebihan sehingga mengganggu efisiensi dan produktifitas perusahaan. Berdasarkan dampak buruk dari terganggunya efisiensi dan produktifitas perusahaan akan dibangun sistem komputerisasi untuk seleksi penerimaan karyawan baru meggunakan metode Simple Additive Weighting (SAW). Metode SAW dikenal sebagai metode penjumlahan berbobot, dasar dari metode ini adalah dengan menambahkan alternatif pada semua bobot kriteria dan semua atributmya. Sistem yang dibanguan akan diimplementasikan pada bagian Staff Human Resource Department (HRD). Pembangunan sistem akan menggunakan bahasa pemrogrman visual basic. Pengujian sistem akan dilakukan dengan membandingkan hasil perhitungan manual disertai pegujian black box. Hasil dari implementasi sistem komputerisasi yang dibangun dapat dijalankan dengan perangkat komputer berbasis windows dengan memberikan hasil perengkingan sama dengan perhitungan manual akan tetapi lebih menghemat waktu dan sumber daya manusia, sehingga dapat membantu seleksi penerimaan karyawan lebih efisien dan lebih baik.</t>
+  </si>
+  <si>
+    <t>PENERAPAN DATA MINING UNTUK REKOMENDASI BEASISWA PADA SMA N 1 MLONGGO MENGGUNAKAN ALGORITMA C4.5</t>
+  </si>
+  <si>
+    <t>Beasiswa adalah pemberian berupa bantuan keuangan yang diberikan kepada perorangan yang bertujuan untuk digunakan demi keberlangsungan pendidikan yang ditempuh. Pemberian beasiswa kepada mahasiswa di Perguruan Tinggi merupakan wujud dari partisipasi masyarakan, instansi, pemerintah, perusahaan-perusahaaan swasta dalam ikut serta membangun bangsa khususnya dalam bidang pendidik. Oleh karena itu beasiswa harus diberikan kepada penerima yang layak dan pantas mendapatka nya. Dalam tugas akhir kali ini penulis membangun sebuah sistem untuk melakukan perekomendasian penerima beasiswa sehingga beasiswa dapat diberikan kepada penerima yang layak dan pantas mendapatkanya, dimana metode yang akan digunakan adalah Klasifikasi dilakukan menggunakan data mining algoritma C4.5 Data yang digunakan yaitu data jurusan, kelas, jumlah nilai, penghasilan orangtua, dan jumlah saudara kandung. Proses data mining pada data training akan menghasilkan pohon keputusan atau rule. Metode evaluasi yang dilakukan dalam penelitian ini yaitu menggunakan confusion matrix dan nilai akurasi, untuk sekali pengujian tingkat akurasi yang dihasilkan yaitu 79%. hal ini membuktikan bahwa algoritma C4.5 cukup akurat dalam menentukan rekomendasi beasiswa pada SMA N 1 Mlonggo.</t>
+  </si>
+  <si>
+    <t>FUZZY ANALYTICAL HIERARCHY PROCESS UNTUK SELEKSI BANTUAN ALAT KELOMPOK USAHA BERSAMA MEBEL DI DINAS PERINDUSTRIAN DAN PERDAGANGAN PROVINSI JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>Dinas Perindustrian Dan Perdagangan Provinsi Jawa Tengah memiliki program dalam pemberian bantuan alat pada kelompok usaha bersama mebel dengan tujuan untuk meningkatkan kualitas dan kuantitas produk kecil dan menengah sehingga memiliki daya saing, dan meningkatkan efisiensi nilai tambah produk industri kecil dan menengah. Banyaknya proposal pengajuan permohonan bantuan alat yang masuk menyebabkan usulan pemberian bantuan tidak semuanya dapat didanai. Dalam proses pemberian bantuan alat pada Dinas Perindustrian Dan Perdagangan Provinsi Jawa Tengah masih dilakukan secara manual, dengan menggunakan penafsiran yang bersifat subjektif dan tidak konsisten. Untuk menangani masalah tersebut menggunakan metode Fuzzy Analitycal Hierarki Process (Fuzzy AHP). Metode Fuzzy AHP merupakan metode gabungan dari metode Analitycal Hierarki Process dengan pendekatan Fuzzy. Untuk proses seleksi pemberian bantuan dengan metode Fuzzy AHP dibangun menggunakan bahasa pemrograman PHP dan MySql. Kesimpulan dari pembuatan sistem ini yaitu mampu membantu pengguna dalam penyeleksian pemberian bantuan alat pada kelompok usaha bersama mebel. Hasil pengujian menggunakan metode MAPE sebesar 0,23% hasil menunjukkan tingkat kesalahan dibawah 10%. Dengan demikian penerapan yang dilakukan dengan metode Fuzzy AHP dalam prioritas menentukan usulan kegiatan pemberian bantuan alat pada kelompok usaha bersama mebel dapat dikatakan baik.</t>
+  </si>
+  <si>
+    <t>Implementasi Metode Weighted Product Dalam Menentukan Kelayakan Pemberian Pinjaman Pada Koperasi Asoka Jaya Kota Semarang</t>
+  </si>
+  <si>
+    <t>Koperasi simpan pinjam merupakan suatu penghimpun dan penyalur dana yang berbentuk penyaluran pinjaman yang keutamaannya dari dan untuk anggota. Bentuk layanan pada koperasi simpan pinjam salah satunya adalah memberikan kredit. Dalam pemberian kredit seringkali ditemui resiko yang harus ditanggung oleh pihak koperasi, yaitu keterlambatan pembayaran angsuran atau bahkan kegagalan dalam pembayaran kredit. Masalah ini dikarenakan kurangnya keakuratan pihak pemberi kredit dalam penilaian terhadap kemampuan nasabah, sehingga mengakibatkan sering munculnya kemacetan kredit. Tujuan dari penelitian ini yaitu melakukan penerapan metode weighted product untuk mengetahui apakah calon peminjam akan lancar atau tidak dalam pembayaran angsuran kredit. Dalam mengimplementasikan metode Weighted Product pada sistem ini digunakan sampel 30 nasabah pengajuan kredit dimana akan dilakukan perangkingan dengan 6 kriteria dengan bobot awal yang telah ditentukan. Pada hasil pengujian penelitian sistem dapat menunjukkan bahwa sistem tersebut dapat membantu menentukan kelayakan penerima pinjaman sejumlah 11 nasabah yang layak dan tidak berpotensi melakukan kredit macet yang telah ditentukan melalui perankingan dari jumlah tertinggi dengan menggunakan metode Weighted Product (WP).</t>
+  </si>
+  <si>
+    <t>Implementasi Sistem Pakar Untuk Diagnosa Penyakit Pada Ikan Gurami Menggunakan Metode Forward Chaining</t>
+  </si>
+  <si>
+    <t>Salah satu usaha bisnis ikan air tawar yang menjajikan yaitu ikan gurami. Ikan gurami merupakan salah satu komoditi perikanan air tawar yang cukup penting. Bagi masyarakat umum, ikan ini dipandang sebagai salah satu ikan bergengsi. Namun banyak kendala yang ditemui oleh para pengusaha peternakan ikan gurami khususnya masalah penanggulangan penyakit. Oleh karena itu dalam penelitian tugas akhir ini penulis membuat sistem pakar dengan metode forward chaining untuk diagnosa penyakit pada ikan gurami. Metode forward chaining merupakan metode pencarian atau tekhnik pelacakan ke depan yang dimulai dengan informasi yang ada dan penggabungan rule untuk menghasilkan suatu kesimpulan atau tujuan. Sistem pakar ini dibuat menggunakan sistem berbasis web sehingga dapat diakses oleh pengguna dengan lebih mudah. Berdasarkan data yang digunakan, sistem dapat melakukan identifikasi jenis penyakit dan solusi pada ikan gurami dengan tingkat akurasi sebesar 90%. Sehingga dapat disimpulkan bahwa sistem pakar yang sudah dibangun menggunakan metode forward chaining dapat berfungsi dengan baik.</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung keputusan Kelompok Penerima Bantuan Langsung Tunai (BLT) Dengan Menggunakan Metode Weighted Product Studi Kasus Kelurahan GenukSari Semarang</t>
+  </si>
+  <si>
+    <t>Bantuan Langsung Tunai merupakan program dari pemerintah akibat dicabutnya subsidi BBM dan bantuan ini diberikan kepada warga miskin agar kemiskinan di Indonesia semakin berkurang, dengan adanya Bantuan Langsung Tunai pemerintah berharap kemakmuran penduduk semakin merata. Penyeleksian penerima bantuan yang mendapatkan bantuan saat ini masih belum terkomputerisasi yang dapat memperlambat kerja petugas penyeleksi dari tingkat kelurahan. Untuk mempermudah menyeleksi diperlukan suatu program aplikasi sistem pendukung keputusan kelompok. Sistem pendukung keputusan kelompok dikembangkan berbasis web dengan bahasa pemrograman PHP, sedangkan untuk mengelola basis data menggunakan database MySQL, untuk memberi ranking dari data yang telah di isi oleh ketua RT dan pihak kelurahan menggunakan metode Weighted Product. Hasil dari pengujian yang telah dilakukan terhadap program aplikasi ini menunjukkan bahwa sistem tersebut dapat dapat memudahkan penyeleksi dan bantuan tersebut dapat tepat sasaran.</t>
+  </si>
+  <si>
+    <t>Sistem Rekomendasi Penjualan Komputer Dengan Menggunakan Metode Collaborative Filtering Pada Toko Mitra Media Comp Semarang</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi yang pesat memiliki peranan yang sangat penting terutama dalam dunia bisnis. Di era sekarang, semua transaksi dapat dilakukan secara online, termasuk juga transaksi penjualan dengan menggunakan e-commerce, penjualan jadi lebih mudah untuk melakukan kisaran perluasan target pasar dan pendapatan yang lebih besar dengan begitu banyaknya pesaing. Untuk dapat mempermudah dalam memberikan pelayanan di dunia e-commerce khususnya terhadap konsumen dibutuhkan sebuah sistem contohnya adalah sistem rekomendasi. Sistem rekomendasi dikembangkan berbasis web dengan bahasa pemograman PHP, sedangkan untuk mengelola basis data mengunakan database MySQL, untuk memberi ranking dari data penjualan yang dilakukan semua konsumen menggunakan metode Collaborative Filtering. Hasil dari pengujian yang telah dilakukan terhadap sistem ini menunjukan bahwa sistem tersebut dapat memudahkan dalam melayani konsumen khususnya memberikan saran produk atau promosi yang tepat untuk konsumen.</t>
+  </si>
+  <si>
+    <t>SISTEM PAKAR DIAGNOSA LEVEL PENYAKIT ASMA MENGGUNAKAN METODE FUZZY TSUKAMOTO</t>
+  </si>
+  <si>
+    <t>Sistem pakar adalah suatu sistem yang dirancang untuk dapat menirukan keahlian seorang pakar dalam menjawab pertanyaan dan memecahkan suatu masalah. Sistem pakar sering dimanfaatkan dalam dunia komputer salah satu contoh dalam kehidupan sehari-hari adalah pada mesin cuci. Penyakit asma merupakan salah satu penyakit yang sering dijumpai dalam kehidupan sehari-hari, sehingga diagnosa penyakit asma sering dilakukan untuk mengetahui tingkat atau level penyakit asma. Dalam penelitian sistem pakar diagnosa level penyakit asma, penulis menyelesaikan kasus dengan menggunakan metode fuzzy logic Tsukamoto. Proses diagnosa dilakukan dengan cara melakukan input gejala-gejala pada penderita asma, gejala yang digunakan sebagai input adalah sesak napas, mengi, kesadaran, dan tingkat berbicara. Hasil dari proses tersebut berupa tingkat level asma yang diderita oleh seseorang yaitu berupa ringan, sedang, dan berat. Setelah proses penelitian selesai, penulis melakukan pengujian akurasi sistem dengan cara membandingkan hasil diagnosa dokter dengan hasil diagnosa sistem. Dari data tersebut diperoleh tingkat akurasi sistem sebesar 72%.</t>
+  </si>
+  <si>
+    <t>SISTEM PAKAR UNTUK MENDIAGNOSA PENYAKIT KELINCI BERBASIS WEB DENGAN MENGGUNAKAN METODE FORWARD CHAINING</t>
+  </si>
+  <si>
+    <t>Kesehatan tidak hanya penting bagi manusia saja, tetapi juga bagi flora dan fauna. Terutama bagi hewan yang sering dipelihara oleh manusia baik hanya untuk sekedar hobi ataupun untuk diternakkan. Salah satu hewan yang sering dipelihara manusia adalah kelinci. Kelinci dapat dijadikan hewan peliharaan untuk dikoleksi ataupun diternakan untuk dijual kembali. Sering kali kelinci diserang penyakit karena berbagai macam faktor baik karena kondisi kandang maupun dari makanannya. Salah satu yang menyebabkan peternak merugi di karenakan penyakit. Jumlah kematian kelinci yang disebabkan penyakit cukup tinggi, berkisar antara 15% sampai 40%. Kematian terjadi dari masa kelahiran hingga penyapihan. Beberapa faktor penyebab timbulnya penyakit adalah kelengahan dalam menjaga sanitasi kandang, pemberian pakan berkualitas jelek, volume pakan kurang, air minum kotor atau kurang, kekurangan zat nutrisi, tertular kelinci lain yang menderita sakit, perubahan cuaca, dan ketidaktahuan mengenai penyakit kelinci. Oleh karena itu, dibutuhkan suatu alat bantu yang dapat mendiagnosa penyakit kelinci. Agar para peternak dapat mengetahui penyakit yang diderita kelinci sejak dini. Dengan kemajuan teknologi komunikasi dan informasi yang berkembang saat ini, maka membawa pengaruh dalam kemajuan perkembangan teknologi komputer khususnya terhadap perkembangan perangkat lunak. Yang salah satunya adalah sistem pakar yang merupakan cabang dari kecerdasan buatan. Sistem pakar merupakan program komputer yang dirancang untuk memodelkan kemampuan menyelesaikan masalah seperti halnya seorang pakar berdasarkan pengetahuan dan pengalamannya.</t>
+  </si>
+  <si>
+    <t>Implementasi Fuzzy Tsukamoto Dalam Mendiagnosa Penyakit Diabetes Militus</t>
+  </si>
+  <si>
+    <t>Jumlah penderita Diabetes Mellitus mengalami peningkatan dari tahun ke tahun. Hal ini dikarenakan keterlambatan diagnosa penyakit dan Indonesia sendiri menempati urutan ke-10 jumlah penderita diabetes terbanyak didunia. Penderita penyakit tersebut biasanya tidak menyadari kalau menderita penyakit Diabetes Mellitus. Pada penelitian ini, dibuat suatu sistem penegakan penyakit Diabetes Mellitus dengan menggunakan Metode Tsukamoto. Variabel-variabel pendukung penegakan diagnosa penyakit tersebut digunakan dalam pembentukan himpunan fuzzy. Himpunan fuzzy itu akan diproses dengan Metode Tsukamoto sehingga menghasilkan suatu keputusan. Aplikasi yang dirancang telah diuji dengan melibatkan rekam medik diagnosa dari dokter, hasil keputusan yang dihasilkan aplikasi adalah sama dengan diagnosa dokter yang tertera di rekam medik. Secara umum aplikasi berbasis web ini bisa digunakan sebagai alat bantu sementara dalam penegakan diagnosa penyakit diabetes melitus.</t>
+  </si>
+  <si>
+    <t>SISTEM PAKAR DIAGNOSA PENYAKIT HIPERTENSI PADA KEHAMILAN BERBASIS WEB DENGAN MENGGUNAKAN METODE FORWARD CHAINING</t>
+  </si>
+  <si>
+    <t>Sosialisasi tentang penyakit hipertensi pada kehamilan kepada ibu hamil sangat penting untuk diperhatikan karena Penyakit tersebut masih menjadi penyebab tingginya angka kesakitan (morbiditas) dan kematian (mortalitas) baik pada ibu, janin, maupun bayi yang akan dilahirkan. Namun sayangnya banyak ibu hamil yang tidak mengetahui penyakit hipertensi pada kehamilan ini sehingga banyak ibu hamil yang tidak selamat pada saat proses melahirkan akibat penyakit ini. Kurangnya pengetahuan tentang berbagai gejala - gejala dan penyakit tersebut mengakibatkan para penderita terlambat mengetahui tentang penyakit yang diderita. Kebanyakan ibu hamil mengetahui penyakit yang diderita pada stadium akhir (sudah parah). Oleh karena itu dalam penelitian tugas akhir ini penulis membuat sistem pakar dengan metode forward chaining sebagai penarik kesimpulan dan metode bayes sebagai alat mengatasi masalah ketidakpastian untuk mendiagnosis penyakit hipertensi pada kehamilan sehingga dapat memberikan informasi sementara tentang penyakit hipertensi pada kehamilan sebelum ditanyakan langsung kepada seorang pakar untuk penanganan lebih lanjut. Dengan adanya system pakar ini akan memudahkan pengguna untuk mengetahui informasi tentang penyakit hipertensi pada kehamilan karena dalam penelitian ini dibuat menggunakan system berbasis web sehingga dapat mempermudah pengguna untuk mengaksesnya. Karena dengan melalui akses internet masyarakat dapat dengan mudah untuk mengaksesnya dimana dan kapan saja.</t>
+  </si>
+  <si>
+    <t>Penerapan metode teorema bayes pada sistem pakar untuk mendiagnosa penyakit tulang manusia</t>
+  </si>
+  <si>
+    <t>Penyakit tulang adalah kondisi yang merusak kerangka dan membuat tulang lemah dan rentan terhadap patah tulang. Masa tulang rendah di mulai ketika tulang kehilangan mineral, seperti kalsium. Penyakit tulang mempengaruhi perempuan dan laki – laki dari berbagai usia. Kurangnya pengetahuan dan sosialisasi tentang berbagai gejala – gejala dan penyakit tersebut mengakibatkan para penderita terlambat mengetahui tentang penyakit yang diderita, sehingga menyebabkan kematian atau ketidak sempurnaan organ manusia. Kebanyakan masyarakat mengetahui penyakit yang diderita pada stadium akhir (sudah parah). Oleh karena itu dalam penelitian tugas akhir ini penulis membuat sistem pakar dengan metode bayes sebagai alat mengatasi masalah ketidakpastian untuk mendiagnosis penyakit tulang pada manusia, bayes di gunakan untuk mengetahui berapa persen suatu penyakit itu di alami dari suatu gejala. Sistem diagnose merupakan salah satu bidang aplikasi sistem pakar yang mencoba meniru dalam proses pengambilan keputusan oleh seorang pakar dalam melakukan diagnosa berdasarkan ciri- ciri yang diamati. Sehingga dapat memberikan informasi sementara tentang penyakit tulang pada manusia sebelum ditanyakan langsung kepada seorang pakar untuk penanganan lebih lanjut. Sistem pakar ini dibuat menggunakan sistem berbasis web sehingga dapat diakses oleh pengguna dengan lebih mudah untuk mengetahui informasi tentang penyakit tulang pada manusia.</t>
+  </si>
+  <si>
+    <t>SISTEM PENDUKUNG KEPUTUSAN PEMILIHAN LOKASI PEMBUKAAN CABANG PT. KASANA TEKNINDO GEMILANG DENGAN METODE AHP-TOPSIS</t>
+  </si>
+  <si>
+    <t>Dalam pemilihan sebuah lokasi cabang baru, ada beberapa faktor-faktor yang sudah ditentukan oleh pihak pimpinan sebuah perusahaan, maka diperlukan beberapa kriteria-kriteria untuk menentukan sebuah lokasi cabang yang tepat. Penentuan lokasi cabang baru memliki tujuan agar kegiatan pelayanan dapat dilakukan secara optimal. Untuk membantu dalam menetukan sebuah lokasi pembukaan cabang baru, maka dibutuhkan sebuah sistem pendukung keputusan. Dalam perancangan sistem ini, metode Analitical Hierarcy Process (AHP) dan Technique for Order Preference by Similarity To Ideal Solution (TOPSIS) dapat diterapkan kedalam Sistem Pendukung Keputusan Pemilihan Lokasi Pembukaan Cabang PT. Kasana Teknindo Gemilang. Penelitian ini dilakukan untuk menghasilkan sebuah Sistem Pendukung Keputusan (SPK) untuk membantu pimpinan perusahaan dalam menentukan lokasi pembukaan cabang. Aplikasi sistem pendukung keputusan pemilihan lokasi cabang ini dibuat dengan bahasa pemrograman berbasis web PHP dan MySQL sebagai database. Sistem yang dibangun menggunakan metode AHP dan TOPSIS mampu memberikan solusi terbaik dari berbagai permasalahan yang dihadapi, dalam hal ini memilih lokasi cabang. Informasi yang dihasilkan berupa perangkingan dari sejumlah alternatif terbaik yang akan digunakan untuk pemilihan lokasi cabang baru PT. Kasana Teknindo Gemilang.</t>
+  </si>
+  <si>
+    <t>SISTEM PAKAR UNTUK MENDIAGNOSIS KERUSAKAN PRINTER CANON PIXMA MP 287 DENGAN MENGGUNAKAN METODE BAYESIAN</t>
+  </si>
+  <si>
+    <t>Kerusakan printer adalah kondisi printer mengalami hambatan atau gangguan ketika hendak menggunakan. Printer Canon Pixma MP 287 termasuk tipe printer yang sering mengalami kerusakan dan terjadi akibat kelalaian konsumen dalam melakukan perawatan. Kurangnya pengetahuan dari konsumen tentang gejala dan jenis kerusakan yang terjadi pada printer juga membuat printer mengalami kerusakan. Oleh karena itu dalam penggunaan printer membutuhkan perawatan rutin secara berkala. Dengan cara mendeteksi kerusakan apa yang terjadi pada mesin printer. Jika printer macet dan hasil cetakan jelek maka dengan segera dicek atau dibawa ke teknisi untuk penanganan lebih lanjut. Hal inilah yang mendorong peneliti merancang aplikasi sistem pakar untuk mengidentifikasi kerusakan printer. Penyampaian informasi dilakukan menggunakan metode naive bayes dengan pembangunan sistem prototype. Diharapkan sistem ini mampu memberikan informasi yang optimal dan saling menguntungkan antara user dan sistem. Penelitian ini diharapkan mampu memberikan informasi segala hal yang berhubungan dengan masalah kerusakan pada mesin printer secara tepat dan efisien dan tanpa harus mengeluarkan biaya lebih. Dengan berbasis web sistem pakar ini dpat diakses oleh konsumen dengan lebih mudah untuk mengetahui informasi tentang kerusakan printer.</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung Keputusan Penilaian Kinerja Karyawan Kontrak PT. Telkom Akses Menggunakan Metode Simple Additive Weighting</t>
+  </si>
+  <si>
+    <t>Penilaian prestasi kinerja karyawan kontrak di PT. Telkom Akses belum dilaksanakan secara optimal terutama dalam menilai kinerja karyawan kontrak. Selama ini penilaian karyawan kontrak hanya ditentukan dari hasil kerjanya, belum ada kriteria penilaian yang jelas. Oleh karena itu dalam penelitian ini akan dikembangkan penilaian kinerja karyawan kontrak berdasarkan kompetensi yang diharapkan mampu mengakomodir kinerja karyawan kontrak. Penilaian kinerja karyawan kontrak terdiri daru 7 (tujuh) kompetensi yaitu disiplin, memimpin, berprestasi, komitmen, melayani, kerjasama dan proaktif dengan menggunakan metode Simple Additive Weighting (SAW). Tujuan yang ingin dicapai dalam penelitian ini adalah membuat sistem pendukung keputusan untuk menilai kinerja karyawan kontrak pada PT. Telkom Akses dengan menggunakan metode Simple Additive Weighting (SAW) sehingga dapat menilai kinerja karyawan kontrak dan menampilkan rekomendasi karyawan kontrak yang terbaik kinerjanya.</t>
+  </si>
+  <si>
+    <t>MEMPREDIKSI PENENTUAN JUMLAH PRODUKSI MENGGUNAKAN FUZZY LOGIC METODE TSUKAMOTO PADA UD. BANALY FOOD PEMALANG, JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>Mendapatkan keuntungan adalah tujuan dari setiap perusahaan, begitu juga dengan UD Banaly Food yang merupakan usaha dagang yang memproduksi olahan ikan sebagai produknya. Tujuan penelitian ini adalah untuk memprediksi jumlah produksi yang sesuai dengan jumlah permintaan, persediaan dan juga biaya produksi. Menentukan jumlah produksi yang tepat dapat meminimalisir kerugian karena produksi yang berlebih atau produksi terlalu banyak. Penentuan jumlah produksi ini menggunakan logika fuzzy yaitu Metode Tsukamoto. Dengan menggunakan data produksi yang sudah ada sebagai data. Data ini sebagai data input yang akan diolah dengan Metode Tsukamoto menjadi output berupa jumlah yang akan diproduksi. Dari data bulan Februari 2014 sampai dengan Februari 2015 menjadi data uji untuk mencari besar tingkat akurasinya. Dari data uji tersebut dicari jumlah yang akan diproduksi bulan Februari 2015 menggunakan sistem. Hasil dari 169 data dari semua varian yang diuji mendapatkan 128 data yang sesuai dengan data asli. Dengan menggunakan single decision threshold (one feature) dicari nilai akurasinya dan mendapat akurasi yaitu sebesar 75,75739644 %.</t>
+  </si>
+  <si>
+    <t>SISTEM PENDUKUNG KEPUTUSAN UNTUK PENGADAAN BARANG DAN JASA DENGAN MENGGUNAKAN METODE ANALYTICAL HIERARCHY PROCESS</t>
+  </si>
+  <si>
+    <t>Dalam pemilihan rekanan atau penyedia barang jasa pada sebuah instansi sulit dilakukan karena kebutuhan di instansi sangat spesifik dan bermacam karena di dalam instansi barang dan jasa yang dominan dibutuhkan adalah untuk kepentingan sebuah instansi. Pengadaan barang bukan saja semata menyediakan kebutuhan yang diinginkan user tetapi diperlukan juga kontraktor yang memadai sehingga kebutuhan bukan berupa barang saja tetapi juga konstruksi. Sistem Pendukung Keputusan yang dikembangkan dalam penelitian ini dilakukan dengan cara mencari hubungan antara kualitas dari kriteria-kriteria evaluasi prakualifikasi terhadap kinerja yang dihasilkan. Penilaian meliputi aspek sumber daya, aspek pengalaman, dan aspek material. Pembuatan model base dilakukan dengan mencari suatu formula yang dilakukan dengan analisis pemilihan untuk membedakan kelompok yang kinerjanya berhasil dan yang gagal. Kriteria penilaian yang dipergunakan mengacu pada petunjuk teknis pelaksanaan prakualifikasi dari pemerintah Indonesia. Output dari Metode AHP dapat memprediksi kinerja dan memilah kinerja rekanan berdasarkan nilai indeks kinerja yang dipergunakan. Metode AHP berhasil memprediksi kinerja rekanan dengan tingkat akurasi yang tinggi.</t>
+  </si>
+  <si>
+    <t>MENGEVALUASI KINERJA BIDAN DALAM MELAYANI PASIEN MENGGUNAKAN FUZZY INFERENCE SYSTEM</t>
+  </si>
+  <si>
+    <t>Dalam melakukan peningkatan kualitas kinerja pelayanan kebidanan pihak rumah sakit maupun puskesmas banyak yang belum melibatkan pasien sehingga masih terdapat kekurangan-kekurangan. Oleh karena itu perlu dilakukan pengukuran penilaian yang melibatkan pasien agar upaya peningkatan pelayanan kebidanan yang akan dilakukan dapat memenuhi harapan pasien. Penilaian tentang kinerja pelayanan kebidanan dapat berbeda-beda bagi setiap orang. Misalnya ada orang yang merasa cukup puas terhadap kinerja pelayanan kebidanan tertentu tetapi ada pula orang yang menilai kurang puas terhadap kinerja pelayanan yang sama. Pendekatan yang dipakai penulis untuk mengukur kinerja pelayanan bidan adalah logika fuzzy mamdani. Fuzzy Mamdani merupakan salah satu metode yang sangat fleksibel dan memiliki toleransi pada data yang ada. Fuzzy Mamdani memiliki kelebihan yakni, lebih intuitif, diterima oleh banyak pihak, lebih cocok input yang diterima dari manusia bukan mesin. Metode tersebut akan coba penulis terapkan pada kasus evaluasi kinerja pelayanan bidan berdasarkan Tangibility, Reliability, Responsiveness, Assurance, dan Empaty. Dari variabel-variabel tersebut dihasilkan defuzzyfikasi yang merupakan output evaluasi kinerja bidan didapatkan bilangan riil sebesar 84,9 yaitu merupakan keanggotaan dari domain himpunan bilangan fuzzy baik yang artinya variabel evaluasi kinerja sudah dapat dikatakan baik yaitu mencapai 84,9 .</t>
+  </si>
+  <si>
+    <t>ANALISIS FITUR REDUKSI PRINCIPAL COMPONENT ANALYSIS (PCA) PADA AKURASI KLASIFIKASI OZON</t>
+  </si>
+  <si>
+    <t>Ozon adalah gas yang secara alami terdapat di atmosfir bumi. Tersusun oleh tiga molekul oksigen atau biasa dilambangkan O3. Ozon berfungsi untuk melindungi bumi dari radiasi sinar ultraviolet yang dipancarkan matahari. Banyak sekali hal yang mempengaruhi lapisan ozon, diantaranya yaitu suhu, kecepatan angin dan sebagainya. Dalam hal ini, banyak sekali data yang di dapat dari pengukuran variabel yang mempengaruhi lapisan ozon tersebut. Data mining klasifikasi bisa digunakan untuk solusi dimana bisa mengklasifikasikan lapisan ozon dalam keadaan berbahaya (ozon day) atau normal (normal day). Metode reduksi Principal Component Analysis (PCA) yang berfungsi untuk mereduksi atribut yang terlampau banyak tanpa mengurangi tingkat informasi dari data aslinya. Neural Network digunakan untuk mengklasifikasikan data ozon untuk menentukan lapisan ozon dalam keadaan berbahaya (ozon day) atau normal (normal day). Neural Network juga diperlukan untuk mengetahui tingkat akurasi pada prediksi ozon. Hasil pengujian menunjukkan bahwa fitur reduksi Principal Component Analysis (PCA) yang dikombinasikan dengan Neural Network mendapatkan tingkat keakuratan pada prediksi sebesar 95%.</t>
+  </si>
+  <si>
+    <t>Perhitungan Penilaian Kinerja Guru Menggunakan Metode Simple Additive Weighhting (SAW) pada SMP Negeri 1 Tunjungan</t>
+  </si>
+  <si>
+    <t>Guru adalah pendidik yang bertanggung jawab dalam memberi bimbingan atau bantuan kepada anak didik dalam perkembangan jasmani dan rohaninya agar tercapai kedewasaannya, mampu berdiri sendiri, dapat melaksanakan tugasnya sebagai makhluk sosial dan individu yang sanggup berdiri sendiri. Untuk itu, sekolah harus mendorong peningkatan profesionalitas guru dengan cara memantau kerja guru dalam mengimplementasikan tugasnya sehingga dapat mencapai standar kompetensi yang telah ditentukan. Pembuatan Sistem Penilaian Kinerja Guru merupakan salah satu cara untuk membantu dalam menentukan penilaian kinerja guru di SMP Negeri 1 Tunjungan dan diharapkan sistem tersebut mampu menentukan alternatif terbaik berdasarkan ranking perkalian bobot tiap kriteria. Kriteria yang dinilai dalam penilaian kinerja guru ini meliputi Pedagogik, Kepribadian, Sosial, dan Profesioanal.Sistem Perhitungan Penilaian Kinerja Guru merupakan suatu sistem yang menghasilkan suatu alternatif untuk perhitungan Penilaian Kinerja Guru yang hasil akirnya berupa perangkingan. Model yang digunakan dalam sistem perhitungan penilaian kinerja guru adalah Model Waterfall dan Metode yang digunakana adalah metode SAW. Metode SAW ini dipilih karena metode ini menentukan nilai bobot untuk setiap atribut, kemudian dilanjutkan dengan proses perankingan yang akan menyeleksi alternatif terbaik dari sejumlah alternatif, dalam hal ini alternatif yang dimaksud adalah guru yang memiliki PKG tertinggi berdasarkan kriteria yang ditentukan. Dengan metode perankingan tersebut, diharapkan penilaian akan lebih tepat karena didasarkan pada nilai kriteria dan bobot yang sudah ditentukan sehingga akan mendapatkan hasil yang lebih akurat.</t>
+  </si>
+  <si>
+    <t>PENERAPAN METODE EOQ (ECONOMIC ORDER QUANTITY) UNTUK MENENTUKAN PERSEDIAAN BARANG PADA UD. SUMBER LARES</t>
+  </si>
+  <si>
+    <t>Laporan Tugas Akhir dengan Judul ’’ Penerapan Metode EOQ (Economic Order Quantity) Untuk Menentukan Persediaan Barang Pada UD. SUMBER LARES” merupakan sistem informasi persediaan barang yang dibuat untuk memudahkan karyawan dalam pencatatan dan perhitungan stock barang, Sistem yang ini dibuat ini diharapkan dapat meningkatkan kinerja pegawai dalam membuat laporan persedian barang,serta efisiensi dan efektifitas pada pencatatan persediaan barang dagang di gudang. Tujuan dari diadakannya penelitian ini adalah menerapkan sistem informasi yang menggunakan bantuan program Visual basic.perancangan system yang digunakan mulai dari Contex Diagram,Diagram Alir Data (Data Flow Diagram/DFD),ERD (Entity Relationship Diagram),Perancangan Sistem Basis Data,Implementasi Tabel,Normalisasi Data,Diagram Entity Relationship (Diagram E-R).Beberapa analisa data yang diperlukan akan mengahasilkan sebuah sistem informasi menentukan persedian barang yang diperlukan sebuah perusahan dalam membuat membuat laporan-laporan yang diperlukan ,serta penyimpanan arsip-arsip penting lain.Pada akhir sistem menentukan persedian barang,dilakukan evaluasi terhadap proses pengembangan sistem.Hal-hal yang belum dilakukan pada pengembangan sistem ini akan diulas pada bagian akhir laporan ini</t>
+  </si>
+  <si>
+    <t>Sistem Rekomendasi Pada e-market Produk UMKM Dinpora Propinsi Jawa Tengah Dengan Menggunakan Content Based Filtering</t>
+  </si>
+  <si>
+    <t>Dinas Pemuda dan Olahraga Propinsi Jawa Tengah (Dinpora Jateng) merupakan salah satu instansi pemerintah yang menangani kegiatan untuk kepemudaan. Salah satu kegiatan Dinpora yaitu membina kelompok usaha pemuda untuk mengembangkan usaha yang sudah dirintis, dengan melakukan pendampingan, pelatihan dan bantuan modal. Dengan berkembangnya teknologi informasi, strategi pemasaran yang dilakukan penyedia barang dan jasa dituntut untuk dapat menjangkau seluruh masyarakat dalam mengembangkan pasar ke dalam maupun luar negeri. Salah satu alternatif strategi pemasaran yang dapat diterapkan oleh penyedia barang dan jasa adalah penggunaan e-commerce. Diperlukan sebuah metode untuk penyedia barang dan jasa dalam meningkatkan pelayanan untuk menarik konsumen lebih banyak. Pengembangan sistem aplikasi ini menggunakan Content Based Filtering dengan metode i-CRM, sistem ini merupakan sistem rekomendasi produk berdasarkan user profile yang berfokus terhadap pelayanan pelanggan guna menunjang dalam memperoleh loyalitas pelanggan dan mempertahankan pelanggan. Dengan adanya e-market ini diharapkan dapat memudahkan pelanggan dalam memilih produk umkm Dinpora.</t>
+  </si>
+  <si>
+    <t>Sistem Pakar Mendeteksi Penyakit Pada Tanaman Sengon Menggunakan Metode Case Based Reasoning</t>
+  </si>
+  <si>
+    <t>Penyakit Tanaman Sengon memberikan dampak yang signifikan terhadap penurunan jumlah produksi Kayu, untuk meminimalkan dampak dari penyakit perlu dilakukan pendeteksian untuk memudahkan petani dalam mendiagnosa secara mandiri.Penalaran Berbasis kasus/Case Based Reasoning metode yang digunakan untuk membangun sebuah sistem berbasis pengetahuan. Sumber pengetahuan sistem diperoleh dengan mengumpulkan penanganan kasus-kasus oleh seorang ahli/pakar, Pemecahan masalah baru pada CBR dilakukan dengan cara mencari permasalahan sejenis di masa lampau dan memberikan solusi berdasarkan permasalahan yang paling mirip yang ada di dalam case memory. Permasalahan yang dapat digunakan untuk memecahkan masalah tersimpan di dalam case memory yang dapat direvisi untuk memecahkan permasalahan di masa datang.Penelitian ini diharapkan mampu memberikan informasi segala hal yang berhubungan dengan masalah Penyakit tanaman sengon secara tepat dan efisien Dengan adanya system pakar ini dapat memberikan informasi dan gejala penyakit Pada tanaman sengon.</t>
+  </si>
+  <si>
+    <t>SISTEM PAKAR PENGENALAN GEJALA DINI PENYAKIT EPILEPSI MENGGUNAKAN METODE NAIVE BAYES</t>
+  </si>
+  <si>
+    <t>Diagnosa penyakit yang dilakukan oleh seorang pakar memiliki kelemahan seiring dengan kelemahan biologis sang pakar. Salah satu teknologi yang dapat menjadi solusi adalah sistem pakar. Sistem pakar adalah sistem yang berusaha mengadopsi pengetahuan manusia ke komputer, agar komputer dapat menyelesaikan masalah seperti yang biasa dilakukan oleh pakar. Penelitian ini berhasil membangun sebuah sistem pakar untuk diagnosa penyakit epilepsi beserta cara penanganannya. Penyakit epilepsi memiliki 24 jenis penyakit dengan jumlah gejala sebanyak 103 gejala. Metode inferensi yang digunakan adalah Naïve Bayes. Metode ini dipilih untuk mengatasi masalah ketidakpastian dalam proses pelacakan. Sistem pakar yang dibangun berbasis web agar memudahkan dalam distribusi sistem. Kinerja sistem diuji dengan membandingkan data rekam medis sebanyak 20 data dengan hasil keluaran sistem. Dari pengujian tersebut dihasilkan 85% data rekam medis hasil diagnosanya cocok dengan keluaran sistem, sehingga dapat disimpulkan sistem ini layak untuk digunakan.</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI METODE BAYESIAN NETWORK UNTUK DSS(DECISION SUPPORT SYSTEM) PADA MINI DETECTOR EARTHQUAKE DALAM APLIKASI EWS(EARTHQUAKE WARNING SYSTEM) BERBASIS DESKTOP</t>
+  </si>
+  <si>
+    <t>Indonesia merupakan Negara yang terletak pada tiga lempeng patahan gempa bumi. Maka dari itu, Indonesia merupakan Negara yang rawan terjadi gempa bumi. Salah satu gempa terbesar yang pernah terjadi di Indonesia adalah gempa bumi yang terjadi di Aceh pada hari minggu tanggal 26 Desember 2004, dengan kekuatan 9.3 Skala Richter menimbulkan tsunami. Menurut data dari BNPB, ada 173.741 orang meninggal dan 116.363 orang hilang. Hal tersebut adalah bencana yang sangat mematikan, harus ada peringatan dini yang dapat membantu menyelamatkan mereka. Mini detektor gempa sederhana merupakan alat deteksi dini gempa. Alat tersebut menggunakan komponen microcontroller yang dapat mengirimkan hasil sensor input (cm/ms), kriteria gempa, dan alarm berbunyi. Kemudian, penulis kembangkan lagi menggunakan metode Bayesian Network. Metode ini dapat mengintegrasikan variabel-variabel yang saling dependen. Sedangkan skala yang penulis pakai adalah skala MMI(Modified Mercally Intensity) yang di temukan oleh Giuseppe Mercalli pada tahun 1902. Skala ini adalah skala getaran yang dipakai untuk mengidentifikasi getaran pada permukaan bumi yang dapat menimbulkan kerusakan materil. Metode ini akan penulis implementasikan pada sebuah pemprograman desktop, yang dapat bermanfaat untuk membantu masyarakat memberikan peringatan dini saat terjadi gempa bumi.</t>
+  </si>
+  <si>
+    <t>SISTEM PAKAR MENDIAGNOSA GANGGUAN HAMA DAN PENYAKIT TANAMAN PADI BESERTA PENANGGULANGANNYA DENGAN METODE CERTAINTY FACTOR</t>
+  </si>
+  <si>
+    <t>Kendala petani dalam mengetahui jenis hama dan penyakit tanaman padi tidaklah asing lagi, maka di perluka sebuah sistem pakar untuk membantu masalah tersebut. Sistem pakar ini merupakan sistem yang dapat membantu para petani untuk mendiagnosa hama dan penyakit tanaman padi beserta penanggulangannya berdasarkan gejala-gejala yang terjadi pada tanaman padi. Metode sistem pakar yang digunakan adalah metode certaity factor yang akan diaplikasikan kedalam bentuk WEB. Dalam aplikasi sistem ini terdapat fasilitas untuk user dapat mendiagnosa hama dan penyakit tanaman padi dengan cara menginputkan gejala-gejala tanaman padi yang kasat mata. Pada menu sistem pakar ini user dapat menginputkan gejala-gejala tanaman padi yang telah dialami petani. Dan akan mendapatkan informasi tentang jenis hama dan tanaman padi beserta penanggulangnnya. User juga dapat melihat hasil dan perhituangan certainty factor, dapat mengetahui informasi artikel yang berkaitan dengan padi, hama dan penyakit tanaman padi. Sistem pakar untuk mendiagnosa hama dan penyakitanaman padi beserta penanggulangannya dengan metode certainty factor ini, diharapkan dapat mempermudah para petani untuk mengetahui janis hama dan penyakit tanaman padi.</t>
+  </si>
+  <si>
+    <t>SCORING PLAYER PADA GAME FIRST PERSON SHOOTER MENGGUNAKAN METODE FUZZY MAMDANI</t>
+  </si>
+  <si>
+    <t>Game merupakan suatu kegiatan yang populer didalam kalangan masyarakat. Permainan merupakan bentuk hiburan yang mendukung suatu interaksi sosial diantara kalangan anak-anak maupun dewasa. Variasi game telah banyak berkembang, salah satunya adalah First Person Shooter . Pada scoring game flappy bird, perhitungan scoring belum menggunakan Artifical Intelligent sehingga sangat monoton. Oleh karena itu di butuhkan suatu perhitungan scoring yang menarik sehingga lebih terpacu dalam menyelasaikan masalah Scoring menghitung nilai untuk game First Person Shooter. Pemodelan scoring ini menjadi tantangan yang menarik dalam sebuah game, karena model scoring yang efektif dapat memotivasi pemain agar lebih terpacu dalam bermain dan mempertahankan pemain untuk kembali bermain. Selain itu model scoring dapat memberikan nilai yang terkait dengan tingkat permainan. Pada Penelitian mengenai scoring game ini akan membuat scoring Player Character berdasarkan beberapa kriteria yaitu Nilai Defense, Nilai Bullet, serta Dammage dengan menggunakan algoritma fuzzy mamdani. Penelitian ini menggunakan perbandingan dua metode, yaitu metode statistic dan Fuzzy.</t>
+  </si>
+  <si>
+    <t>PENERAPAN METODE SIMPLE ADDITIVE WEIGHTING UNTUK PENERIMAAN KARYAWAN (STUDI KASUS : PT. SHARIA GREEN LAND)</t>
+  </si>
+  <si>
+    <t>Tenaga kerja merupakan salah satu faktor penentu keberhasilan dalam perusahaan. Tenaga kerja yang berkualitas akan memudahkan perusahaan dalam mengelola aktivitasnya sehingga tujuan yang ditetapkan oleh perusahaan dapat tercapai. Dengan demikian pemilihan calon tenaga kerja merupakan salah satu kunci kesuksesan suatu perusahaan. Permasalahan yang dikaji dalam penelitian ini adalah “Bagaimana merancang aplikasi menggunakan metode Simple Additive Weighting untuk penerimaan karyawan sehingga dapat mengurangi subyektifitas pengambilan keputusan penerimaan tenaga kerja di PT. Sharia Green Land ”. Penelitian ini bertujuan untuk membuat aplikasi menggunakan bahasa pemrograman Microsoft Visual Basic 6.0 dengan database MySql. Objek penelitian ini adalah PT. Sharia Green Land yang merupakan salah satu perusahaan yang bergerak dibidang properti syariah. Dari hasil penelitian dan pembahasan diketahui bahwa penggunaan metode Simple Additive Weighting memberikan kontribusi positif bagi PT. Sharia Green Land dalam sistem penerimaan karyawan karna dapat memberikan informasi pelamar secara detail sebagai bahan pengambilan keputusan penerimaan karyawan yang sesuai dengan kebutuhan perusahaan.</t>
+  </si>
+  <si>
+    <t>Analisis Fungsi Keanggotaan Fuzzy pada Seleksi Mesin Virtual dalam Perpindahan Mesin Virtual Secara Dinamis</t>
+  </si>
+  <si>
+    <t>Cloud Data Center mengkonsumsi sejumlah besar energi listrik, hal ini mengakibatkan biaya operasional yang tinggi dan tersebarnya karbon dioksida ke lingkungan. Salah satu solusi dari permasalahan energi yang dikonsumsi oleh Data Center yaitu dengan Dynamic Virtual Machine (VM) Consolidation, dimana Dynamic VM Consolidation memiliki 4 sub permasalahan antara lain: Overload Detection, Underload Detection, VM Selection, dan VM Placement. Penelitian berfokus pada efisiensi energi yang digunakan oleh data center dengan cara menerapkan algoritma Fuzzy Mamdani pada VM Selection yang digunakan untuk memilih VM yang akan dimigrasikan, sekaligus menganalisa fungsi keanggotaan fuzzy terbaik ketika diterapkan pada VM Selection. Hasil dari metode yang diterapkan, menunjukkan penurunan Energy Consumtion dan mendapatkan fungsi keanggotaan terbaik dalam beberapa aspek seperti SLA, SLATAH dan PDM.</t>
+  </si>
+  <si>
+    <t>Optimasi waktu tempuh pengguna jalan dengan algoritma New Bidirectional A* (NBA*) pada wilayah Semarang dan Sekitarnya</t>
+  </si>
+  <si>
+    <t>Kemacetan tetap menjadi masalah besar di kota-kota besar. Banyak solusi untuk mengurai kemacetan . Perkembangan tekonologi menjadi membantu untuk memberi solusi untuk mengurai kemacetan. Penentuan rute kerap kali membingungkan untuk mencapai waktu tercepat .GIS (Geographic Information System) / SIG (Sistem Informasi Geografis) adalah salah satu sistem yang menunjang pengetahuan tentang peta dan informasi sebuah wilayah. Dalam pencarian rute , banyak sekali metode yang sudah ada dan sering di gunakan. Sistem yang di buat pada penelitian ini adalah GIS (Geographic Information System) dengan menggunakan algoritma New Bidirectional A* (NBA*) yang akan menghasilkan waktu tempuh optimum untuk kemudahan penggunanya.</t>
+  </si>
+  <si>
+    <t>PENERAPAN ALGORITMA DJIKSTRA UNTUK MENENTUKAN JALUR TERPENDEK PADA APLIKASI DIGITAL WAYFINDING DI UNIVERSITAS DIAN NUSWANTORO SEMARANG BERBASIS WEB</t>
+  </si>
+  <si>
+    <t>Peta digital yang digunakan pada beberapa situs dan aplikasi maps saat ini hanya menjangkau bagian luar bangunan. Bangunan publik membutuhkan wayfinding untuk menemukan jalur terpendek menuju suatu ruangan tertentu seperti Universtas Dian Nuswantoro Semarang. Hal ini dikarenakan Universitas Dian Nuswantoro memiliki enam fakultas dengan bangunan yang terpisah, sifat gedung yang terpisah memberi dampak ambiguitas dan kebingungan terhadap tamu Universitas Dian Nuswantoro dalam mencari ruangan tujuan berkaitan dengan keperluanya. Tujuan dilakukan penelitian ini adalah untuk Menerapkan algoritma Djikstra untuk menentukan jalur terpendek dalam aplikasi Digital Wayfinding pada Universitas Dian Nuswantoro Semarang dan Membangun aplikasi Digital Wayfinding berbasis web untuk membantu tamu Universitas Dian Nuswantoro dalam menentukan jalur terpendek dari lokasi asal menuju lokasi tujuan menggunakan metode shortest path Djikstra. Maka dari itu dilakukan penelitian ini untuk membantu Universitas Dian Nuswantoro dalam membangun aplikasi Digitas Wayfinding guna menentukan jalur menuju suatu ruangan. Djikstra menemukan jalur terpendek dari beberapa alternatif yang ada yang nantinya dapat digunakan sebagai dasar pertimbangan dalam menentukan jalur terpendek dalan aplikasi Digital Wayfinding. Dan tools yang digunakan dalam membangun aplikasi ini adalah pemrograman Ruby dan Javascript. Hasil dari penelitian ini sendiri berupa aplikasi Digital Wayfinding berbasis web.</t>
+  </si>
+  <si>
+    <t>Diagnosa Penyakit Ikan Nila Merah Menggunakan Metode Certainty Factor Pada CV. Fresh Fish Kendal</t>
+  </si>
+  <si>
+    <t>Banyak jenis penyakit yang tidak diketahui dengan adanya berbagai macam gejala yang menyerang pada ikan nila merah di CV.Fresh Fish Kendal. Pencarian data secara manual membuat kurang efisien dalam waktu dan tenaga. Sehingga diperlukan sebuah sistem pakar untuk mengelola gejala yang menyerang ikan nila merah untuk mempermudah diagnosa penyakit. Penulis merancang sistem pakar untuk diagnosa penyakit ikan nila merah menggunakan metode certainty factor berbasis web. Sistem dapat melakukan identifikasi penyakit lebih cepat dan akurat dikarenakan melakukan perhitungan yang valid seperti perhitungan manual.. Sistem dibangun menggunakan analisis berorientasi objek serta dirancang menggunakan PHP dan Mysql. Sistem menghasilkan sebuah aplikasi diagnosa penyakit ikan nila merah berbasis web yang akan memudahkan para pembudidaya ikan nila merah khususnya pada CV.Fresh Fish Kendal dalam mengetahui jenis penyakit yang menyerang pada ikan nila merah.</t>
+  </si>
+  <si>
+    <t>ALGORITMA MARKOV CHAIN UNTUK PEMBENTUKAN GATRA PADA GENDHING LANCARAN SLENDRO PATHET MANYURA</t>
+  </si>
+  <si>
+    <t>Seni karawitan adalah seni musik yang dihasilkan oleh alat musik gamelan dan di masyarakat lebih dikenal dengan nama seni gamelan. Seni gamelan sering digunakan untuk acara keraton, pernikahan, dan wayang. Dalam acara – acara tersebut yang dimainkan adalah adalah gendhing. Gendhing sendiri memiliki aturan khusus dalam memainkannya. Setiap suasana, susunan acara dimainkan jenis gendhing yang berbeda. Seperti gendhing laras slendro pada suasana senang riang dan gembira sedangkan laras pelog pada suasana sakral dan kramat. Dewasa ini semakin berkurang kepedulian masyarakat terhadap seni gamelan. Disamping itu hanya segelintir orang yang memiliki pengetahuan lebih tentang seni gamelan ini dan sedikit sekali sarana yang mengedukasi masyarakat tentang gamelan. Automatic music composition adalah teknik mengkomposisi musik menggunakan suatu algoritma tanpa campur tangan manusia. Automatic music composition bisa menjadi salah satu solusi untuk mengedukasi masyarakat tentang seni gamelan. Dalam hal ini digunakan algoritma markov chain untuk melakukan automatic music composition. Markov Chain adalah algoritma yang memprediksi kejadian yang akan datang, dimana menggunakan probabilitas yang telah muncul di masa lalu dan sekarang. Algoritma Markoc Chain dapat memprediksi pembentukan gatra pada gendhing lancaran slendro pathet manyura.</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung Keputusan Penentuan Produk Olahan Kayu Jati (Bahan Baku) Menggunakan Metode Naive Bayes pada Perum Perhutani</t>
+  </si>
+  <si>
+    <t>Perum Perhutani merupakan salah satu perusahaan umum yang bergerak di bidang Kehutanan dan berada di bawah Badan Usaha Milik Negara (BUMN) yang dipercaya untuk mengelola kayu jati milik negara khususnya di Pulau Jawa dan Madura. Produk utama pengusahaan hutan produksi di Perum Perhutani adalah berupa kayu jati. Kayu jati dikenal dengan kayu yang keawetannnya termasuk dalam kelas I awet dan kelas II awet, serta harga kayu jati yang cukup mahal untuk menghasilkan produk olahan kayu jati (bahan baku) seperti meubel, kusen dan flooring, oleh karena itu masalah kualitas harus benar-benar mendapat perhatian, bahkan perlu dianalisa status kayu jati yang akan diolah. Kayu jati yang akan diolah perlu dikelompokkan/diklasifikasikan, karena dengan dilakukannya pengelompokkan maka akan dihasilkan produk olahan kayu jati yang bermutu baik dan memiliki harga jual yang tinggi, sehingga Perum Perhutani semakin dipercaya oleh konsumen sebagai penghasil kayu terbaik. Selain itu, dapat membantu pihak Perum Perhutani dalam mengklasifikasikan kayu jati tersebut agar lebih mudah, cepat dan tepat yang selama ini penentuan produk olahan kayu jati (bahan baku) hanya dilakukan oleh penguji kayu jati, sehingga apabila penguji berhalangan hadir maka pengujian untuk menentukan produk olahan kayu jati (bahan baku) dapat dilakukan oleh pegawai lainnya. Salah satu usaha yang dilakukan pada penelitian ini yaitu menerapkan metode Naive Bayes yang dapat menghasilkan informasi mengenai penentuan produk olahan kayu jati (bahan baku) dengan hasil klasifikasi yang lebih akurat berdasarkan empat kriteria kayu jati yaitu panjang kayu jati, diameter kayu jati, mutu kayu jati, dan volume kayu jati.</t>
+  </si>
+  <si>
+    <t>Agen Cerdas untuk Kontrol Kamera Virtual Menggunakan Algoritma Genetika</t>
+  </si>
+  <si>
+    <t>Machinima saat ini banyak digunakan industri perfilman untuk memenuhi kebutuhan hiburan terutama film layar lebar. Machinima yang berasal dari kata machine dan cinema, didefinisikan sebagai pembuatan film animasi secara real time menggunakan lingkungan virtual 3D. Dalam pembuatan film machinima juga bisa dikatakan dengan teknik penggabungan antara film dunia nyata dan dunia virtual. Dalam pembuatan film, sutradara akan mengarahkan kamera secara manual untuk mengikuti aktor atau menempatkan kamera dengan keadaaan tertentu untuk merekam pengambilan gambar. Demikian halnya seharusnya yang terjadi dalam dunia virtual. Kamera virtual diharapkan bisa menerjemahkan keinginan dari seorang sutradara selayaknya kameramen di dunia nyata. Untuk itu peneliti membuat suatu agen cerdas dimana agen tersebut mampu mengontrol kamera virtual secara otomatis menggunakan algoritma genetika. Penelitian ini diharapkan dapat membantu dalam teknik pembuatan film dunia nyata yang diterapkan dalam sebuah ruang virtual interaktif dimana karakter dan peristiwa dapat dikendalikan oleh manusia. Terutama unuk industri perfilman, dimana teknik ini sering digunakan dalam pembuatan film layar lebar ber-genre action.</t>
+  </si>
+  <si>
+    <t>Aplikasi Sistem Pakar Diagnosa Kerusakan Laptop Menggunakan Algoritma Pencarian Breadth First Search</t>
+  </si>
+  <si>
+    <t>Sistem pakar adalah salah satu bagian dari kecerdasan buatan yang mengandung pengetahuan dan pengalaman yang dimasukkan oleh banyak pakar ke dalam suatu area pengetahuan tertentu. Sistem pakar dibangun berdasarkan konsep-konsep yang dimiliki oleh seorang pakar. Kerusakan laptop merupakan massalah yang sering terjadi dan di alami oleh sebagian pengguna laptop. Hal ini terjadi karena kurangnnya pengetahuan user dalam permasasalahan kerusakan laptop dan cara mengatasinya. Untuk mengatasi kerusakan laptop tersebut biasanya membutuhkan bantuan seorang pakar (teknisi) yang ahli dalam bidang komputer. Dalam penelitian ini agar dapat membantu para teknisi dalam mendiagnosa kerusakan laptop maka di buatlah suatu perangkat lunak menggunakan sistem pakar. Dalam perancangan aplikasi diagnosa kerusakan laptop menggunakan metode pencarian BFS (Breadth First Seacrh). Selain itu digunakan mesin inferensi backward chaining yaitu proses penalaran dilakukan mulai dari kesimpulan dan akan dibuktikan kebenarannya.</t>
+  </si>
+  <si>
+    <t>PEMANFAATAN SISTEM INFORMASI GEOGRAFIS DENGAN METODE ANALYTICAL HIERARCHY PROCESS (AHP) UNTUK PREDIKSI DAERAH RAWAN BANJIR DI KOTA SEMARANG</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi Sistem Informasi Geografis sekarang ini telah memberikan manfaat pada berbagai bidang diantaranya pariwisata, pendidikan, transportasi bahkan pengawasan bencana. Sistem informasi geografis sebagai pengawasan bencana dilakukan guna meminimalisir dampak dari bencana tersebut. Banjir merupakan bencana yang sering terjadi di Indonesia, salah satu contohnya adalah Kota Semarang. Dikarenakan faktor kemiringan lereng relatif datar, penggunaan lahan, hidrologi, jenis tanah, dan curah hujan di Kota Semarang menjadi faktor-faktor terjadinya banjir. Sistem Informasi Geografis yang dihasilkan dalam penelitian ini digunakan untuk menyajikan informasi tentang pemetaan prediksi daerah rawan banjir Kota Semarang, sehingga informasi daerah banjir dan indikator banjirnya dapat digunakan oleh dinas pemerintah dan masyarakat untuk mengantisipasi dampak bencana banjir. Informasi spasial direpresentasikan dalam bentuk gambar peta dari hasil perhitungan skoring dan pembobotan dengan metode Analytical Hierarchy Process (AHP). Dalam penelitian ini, lebih mengutamakan penerapan metode AHP sebagai metode pembobotan pada data atribut informasi spasial didalam Sistem Informasi Geografis. Pengolahan data dilakukan secara digital menggunakan ArcGIS 10.3.</t>
+  </si>
+  <si>
+    <t>PENERAPAN METODE ANALYTICAL HIERARCHY PROCESS UNTUK MENENTUKAN PENERIMA BANTUAN PROGRAM KELUARGA HARAPAN (Studi Kasus : Kecamatan Margorejo)</t>
+  </si>
+  <si>
+    <t>Program Pemerintah dalam menanggulangi krisis ekonomi atau memutus rantai kemiskinan yang terjadi selama ini adalah dengan cara memberikan bantuan kepada keluarga miskin di setiap desa di seluruh Indonesia. Program Keluarga Harapan adalah program perlindungan social yang memberikan bantuan tunai kepada Rumah Tangga Sangat Miskin dan bagi anggota keluarga diwajibkan melaksanakan persyaratan dan ketentuan yang telah ditetapkan. Program ini, dalam jangka pendek bertujuan mengurangi beban dan dalam jangka panjang diharapkan dapat memutus mata rantai kemiskinan antar generasi, sehingga generasi berikutnya dapat keluar dari perangkap kemiskinan. Dalam menentukan klasifikasi tidaklah mudah, untuk itu maka penulis memutuskan untuk menggunakan metode analytical hierarchy process yang akan memberikan rekomendasi dalam menentukan penerima bantuan. Dengan menggunakan metode analytical hierarchy process diharapkan hasil yang didapat lebih akurat dan system yang dirancang tersusun secara matematis karena model pendukung keputusan ini menguraikan masalah multi factor atau multi criteria menjadi bentuk hirarki.</t>
+  </si>
+  <si>
+    <t>Pemodelan Perilaku Musuh Menggunakan Finite State Machine (FSM) Pada Game Pengenalan Unsur Kimia</t>
+  </si>
+  <si>
+    <t>Pembelajaran kimia mempunyai peran penting dalam pendidikan dan kehidupan sehari-hari. Kurangnya pemahaman terhadap pembelajaran unsur-unsur kimia pada siswa Sekolah Menengah Atas membuat mereka belum bisa menghubungkan antara apa yang mereka pelajari dan bagaimana pengetahuan itu akan digunakan. Hal ini dikarenakan cara mereka memperoleh informasi dan motivasi diri belum tersentuh oleh metode yang benar-benar dapat membantu mereka. Para siswa kesulitan untuk memahami konsep-konsep akademis karena metode mengajar yang selama ini digunakan oleh guru hanya terbatas pada metode ceramah. Salah satu metode yang dapat lebih membantu dalam pembelajaran adalah melalui media game. Sistem agen cerdas juga dibutuhkan untuk menambah pengalaman bermain game dengan tantangan-tantangan, sehingga materi yang diberikan dapat lebih dipahami dan menambah minat siswa dalam proses belajar. Model kecerdasan buatan yang digunakan adalah Finite State Machine (FSM) yang digunakan untuk merancang perilaku agen cerdas musuh dalam game. Hasil penelitian ini adalah kecerdasan buatan pada perilaku musuh dalam game pembelajaran pengenalan unsur-unsur kimia menggunakan metode Finite State Machine (FSM) untuk membantu pembelajaran siswa SMA/MA.</t>
+  </si>
+  <si>
+    <t>ANALISIS PERFORMA HOST OVERLOAD DETECTION DI DALAM DYNAMIC VM CONSOLIDATION DENGAN WORKLOAD CPU DAN TPC-DS</t>
+  </si>
+  <si>
+    <t>SKKD</t>
+  </si>
+  <si>
+    <t>Sebuah metode digunakan untuk meningkatkan pemanfaatan resource dan mengurangi konsumsi energi listrik di dalam cloud computing yaitu Dynamic VM Consolidation, manfaatkan metode live VM migration yang mampu memindahkan VM yang sedang berjalan dari PM satu ke PM lain untuk memaksimalkan penggunaan resource. Salah satu pembahasan dari dynamic VM consolidation yaitu host overload detection untuk menentukan keputusan sebuah host dalam kondisi overload. Pada penelitian ini penulis bermaksud merancang dan membangun cloud data center yang mampu menerapkan dynamic VM consolidation kemudian menganalisa performa algoritma host overload detection. OpenStack Neat digunakan sebagai framework dynamic VM consolidation. Algoritma yang diuji yaitu static CPU utilization threshold (THR), local regression (LR) dan markov host overload detection (MHOD). Workload dibangkitkan dari CPU load generator dan TPC-DS. Performa dievaluasi dengan menghitung aggregated over load time fraction (AOTF) dan migration time sebagai resiko penurunan performa VM yang terjadi karena live VM migration. Pada penelitian ini diperoleh kesimpulan bahwa algoritma LR dengan safety parameter 1,0 merupakan algoritma terbaik.</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Transmisi Data dalam Heart Beat Monitor Menggunakan Bluetooth pada Mobile Platform Android</t>
+  </si>
+  <si>
+    <t>Kesehatan tubuh merupakan elemen penting dalam kehidupan manusia, salah satu indikator kesehatan seseorang yaitu banyaknya jumlah detak jantung manusia per menit (Beat Per Minute). Oleh karena itu diperlukan sebuah alat pemantau detak jantung. Alat pemantau detak jantung sudah banyak tersedia dipasaran, namun sebagian tidak tersedia fasilitas data storage untuk penyimpanan hasil pengukuran. Dan metode pengukuran yang digunakan masih menggunakan metode sample yaitu dengan menghitung detak jantung selama 10 detik dan dikalikan 6 sehingga didapatkan jumlah detak jantung per menitnya. Penelitian ini telah menghasilkan sebuah alat pemantau detak jantung berbasis perangkat genggam android yang dapat menyimpan hasil pengukuran sehingga akan dapat dilakukan analisis dari data tersebut, selain itu, pengambilan data dapat dilakukan real time terhadap waktu dan pembacaan data saat objek melakukan suatu aktivitas. Dengan sistem ini user dapat mendeteksi dengan mudah dan dapat mengetahui riwayat detak jantungnya sehingga dapat cepat mengetahui kondisi kesehatan tubuhnya.</t>
+  </si>
+  <si>
+    <t>MONITORING LAYANAN JARINGAN PORTABEL MENGGUNAKAN RASPBERRY PI</t>
+  </si>
+  <si>
+    <t>Server monitoring merupakan sebuah sistem komputer yang bertugas untuk melakukan pengamatan aktifitas-aktifitas yang ada di jaringan komputer. Server monitoring dapat membantu seorang administrator jaringan dalam melakukan pekerjaannya. Semua aktifitas yang dipantau oleh server monitoring nantinya akan di simpan kedalam sebuat sistem lain yang disebut Server log. Pekerjaan Administrator jaringan dapat dipermudah dengan adanya sistem deteksi dini yang memberitahukan apabila ada service/layanan dan jaringan yang ada mati. Pada tugas akhir ini, peneliti bermaksud untuk membuat sebuah prototipe sistem deteksi dini portabel yang dikirimkan melalui sms kepada administrator jaringan ketika layanan/service yang ada pada server terjadi gangguan ataupun kerusakan. Sistem ini bekerja dengan memantau semua server yang tersambung dalam sebuah jaringan lalu melaporkan melalui sms kepada administrator jaringan ketika salah satu atau lebih server mati secara mendadak dengan menggunakan service yang berjalan pada background sehingga administrator jaringan dapat sesegera mungkin menangani gangguan tersebut. Tugas akhir ini akan membahas metode yang digunakan dalam prototipe tersebut dan implementasinya. Hal-hal yang apa yang telah dilakukan dan apa yang belum dilakukan dalam pembuatan penelitian ini akan diulas pada bagian akhir tugas akhir ini.</t>
   </si>
 </sst>
 </file>
@@ -128,7 +919,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -136,29 +927,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,131 +1221,1591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="102.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
